--- a/conveyance_assessment_analysis.xlsx
+++ b/conveyance_assessment_analysis.xlsx
@@ -486,7 +486,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -506,7 +506,7 @@
     <col width="11" customWidth="1" min="9" max="9"/>
     <col width="12" customWidth="1" min="10" max="10"/>
     <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="60" customWidth="1" min="12" max="12"/>
+    <col width="54" customWidth="1" min="12" max="12"/>
     <col width="17" customWidth="1" min="13" max="13"/>
     <col width="10" customWidth="1" min="14" max="14"/>
     <col width="60" customWidth="1" min="15" max="15"/>
@@ -1724,128 +1724,128 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B20" s="10" t="n">
+      <c r="B20" s="6" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>44516</v>
+      </c>
+      <c r="D20" s="6" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E20" s="6" t="inlineStr">
+        <is>
+          <t>Jeffrey Lynn Hall and Linda Lee Hall, Trustees of The Jeffrey and Linda Hall Revocable Living Trust, dated May 26 2020</t>
+        </is>
+      </c>
+      <c r="F20" s="6" t="inlineStr">
+        <is>
+          <t>Brian S Morgan and Laura K Herrick, husband and wife</t>
+        </is>
+      </c>
+      <c r="G20" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H20" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I20" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="n"/>
+      <c r="K20" s="6" t="n"/>
+      <c r="L20" s="6" t="inlineStr"/>
+      <c r="M20" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N20" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O20" s="9" t="inlineStr">
+        <is>
+          <t>Resale escrow 7/6/2021 from 2021-07-15-09-Homeowner Resale Report.md (delta 133 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B21" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C21" s="11" t="n">
         <v>44516</v>
       </c>
-      <c r="D20" s="10" t="inlineStr">
+      <c r="D21" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E20" s="10" t="inlineStr">
+      <c r="E21" s="10" t="inlineStr">
         <is>
           <t>Joshua W. Renschler and Nichole M. Renschler, husband and wife</t>
         </is>
       </c>
-      <c r="F20" s="10" t="inlineStr">
+      <c r="F21" s="10" t="inlineStr">
         <is>
           <t>Adam Griggs and Sheri Griggs, a married couple</t>
         </is>
       </c>
-      <c r="G20" s="10" t="inlineStr">
+      <c r="G21" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H20" s="10" t="inlineStr">
+      <c r="H21" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I20" s="10" t="inlineStr">
+      <c r="I21" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J20" s="11" t="n">
+      <c r="J21" s="11" t="n">
         <v>44531</v>
       </c>
-      <c r="K20" s="10" t="n">
+      <c r="K21" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="L20" s="10" t="inlineStr">
+      <c r="L21" s="10" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 022</t>
         </is>
       </c>
-      <c r="M20" s="10" t="inlineStr">
+      <c r="M21" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N20" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="13" t="inlineStr">
+      <c r="N21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="inlineStr">
         <is>
           <t>Resale escrow 12/3/2021 from 2021-12-15-09-Homeowner Resale Report.md (delta 17 days). GL/deed date delta: 15 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>44533</v>
-      </c>
-      <c r="D21" s="6" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E21" s="6" t="inlineStr">
-        <is>
-          <t>Scott L. Taylor and Kim R. Taylor, a married couple</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
-        <is>
-          <t>Taylor Christian Rieff, an unmarried person</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H21" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I21" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="n"/>
-      <c r="K21" s="6" t="n"/>
-      <c r="L21" s="6" t="inlineStr"/>
-      <c r="M21" s="6" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N21" s="8" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="9" t="inlineStr">
-        <is>
-          <t>Resale escrow 12/16/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -1856,24 +1856,24 @@
         </is>
       </c>
       <c r="B22" s="6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="7" t="n">
-        <v>44538</v>
+        <v>44533</v>
       </c>
       <c r="D22" s="6" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>and Robert O. Mykleby and Tiffanie C. Mykleby, husband and wife, as tenants by the entirety, a mailing address of 2136 79Th Ave SE, Olympia, WA 98501, hereinafter referred to as Grantee(s).</t>
+          <t>Scott L. Taylor and Kim R. Taylor, a married couple</t>
         </is>
       </c>
       <c r="F22" s="6" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>Taylor Christian Rieff, an unmarried person</t>
         </is>
       </c>
       <c r="G22" s="6" t="inlineStr">
@@ -1904,519 +1904,511 @@
       </c>
       <c r="O22" s="9" t="inlineStr">
         <is>
+          <t>Resale escrow 12/16/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>44538</v>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E23" s="6" t="inlineStr">
+        <is>
+          <t>and Robert O. Mykleby and Tiffanie C. Mykleby, husband and wife, as tenants by the entirety, a mailing address of 2136 79Th Ave SE, Olympia, WA 98501, hereinafter referred to as Grantee(s).</t>
+        </is>
+      </c>
+      <c r="F23" s="6" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="G23" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H23" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I23" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="n"/>
+      <c r="K23" s="6" t="n"/>
+      <c r="L23" s="6" t="inlineStr"/>
+      <c r="M23" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N23" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="9" t="inlineStr">
+        <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="10" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="10" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B23" s="10" t="n">
+      <c r="B24" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C24" s="11" t="n">
         <v>44538</v>
       </c>
-      <c r="D23" s="10" t="inlineStr">
+      <c r="D24" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E23" s="10" t="inlineStr">
+      <c r="E24" s="10" t="inlineStr">
         <is>
           <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F23" s="10" t="inlineStr">
+      <c r="F24" s="10" t="inlineStr">
         <is>
           <t>Chad Kirby and Karla Youngers, a married couple</t>
         </is>
       </c>
-      <c r="G23" s="10" t="inlineStr">
+      <c r="G24" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H23" s="10" t="inlineStr">
+      <c r="H24" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I23" s="10" t="inlineStr">
+      <c r="I24" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J23" s="11" t="n">
+      <c r="J24" s="11" t="n">
         <v>44551</v>
       </c>
-      <c r="K23" s="10" t="n">
+      <c r="K24" s="10" t="n">
         <v>61</v>
       </c>
-      <c r="L23" s="10" t="inlineStr">
+      <c r="L24" s="10" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 061</t>
         </is>
       </c>
-      <c r="M23" s="10" t="inlineStr">
+      <c r="M24" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N23" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13" t="inlineStr">
+      <c r="N24" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13" t="inlineStr">
         <is>
           <t>Resale escrow 12/21/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 13 days.</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B25" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C25" s="7" t="n">
         <v>44545</v>
       </c>
-      <c r="D24" s="6" t="inlineStr">
+      <c r="D25" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E24" s="6" t="inlineStr">
+      <c r="E25" s="6" t="inlineStr">
         <is>
           <t>Karen L. Lyon, an unmarried woman</t>
         </is>
       </c>
-      <c r="F24" s="6" t="inlineStr">
+      <c r="F25" s="6" t="inlineStr">
         <is>
           <t>Joesy Sanate and Nicole Tabor, a married couple</t>
         </is>
       </c>
-      <c r="G24" s="6" t="inlineStr">
+      <c r="G25" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H24" s="6" t="inlineStr">
+      <c r="H25" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I24" s="6" t="inlineStr">
+      <c r="I25" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J24" s="7" t="n"/>
-      <c r="K24" s="6" t="n"/>
-      <c r="L24" s="6" t="inlineStr"/>
-      <c r="M24" s="6" t="inlineStr">
+      <c r="J25" s="7" t="n"/>
+      <c r="K25" s="6" t="n"/>
+      <c r="L25" s="6" t="inlineStr"/>
+      <c r="M25" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N24" s="8" t="n">
+      <c r="N25" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O24" s="9" t="inlineStr">
+      <c r="O25" s="9" t="inlineStr">
         <is>
           <t>Resale escrow 1/4/2022 from 2022-01-31-10-Homeowner Resale Report.md (delta 20 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B26" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C26" s="3" t="n">
         <v>44585</v>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D26" s="2" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>Lotus House Development Corp., a Washington Corporation,</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F26" s="2" t="inlineStr">
         <is>
           <t>SFR Acquisitions 1 LLC, a Delaware Limited Liability Company</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J26" s="3" t="n">
         <v>44596</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K26" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 048</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="M26" s="2" t="inlineStr">
         <is>
           <t>Over-Collected</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
+      <c r="N26" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="O26" s="5" t="inlineStr">
         <is>
           <t>Resale escrow 2/4/2022 from 2022-02-28-10-Homeowner Resale Report.md (delta 11 days). GL/deed date delta: 11 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="6" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B26" s="6" t="n">
+      <c r="B27" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="C26" s="7" t="n">
+      <c r="C27" s="7" t="n">
         <v>44585</v>
       </c>
-      <c r="D26" s="6" t="inlineStr">
+      <c r="D27" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E26" s="6" t="inlineStr">
+      <c r="E27" s="6" t="inlineStr">
         <is>
           <t>SO UK Investment LLC, a Washington limited liability company</t>
         </is>
       </c>
-      <c r="F26" s="6" t="inlineStr">
+      <c r="F27" s="6" t="inlineStr">
         <is>
           <t>Lotus House Development Corp., a Washington Corporation</t>
         </is>
       </c>
-      <c r="G26" s="6" t="inlineStr">
+      <c r="G27" s="6" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H26" s="6" t="inlineStr">
+      <c r="H27" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I26" s="6" t="inlineStr">
+      <c r="I27" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J26" s="7" t="n"/>
-      <c r="K26" s="6" t="n"/>
-      <c r="L26" s="6" t="inlineStr"/>
-      <c r="M26" s="6" t="inlineStr">
+      <c r="J27" s="7" t="n"/>
+      <c r="K27" s="6" t="n"/>
+      <c r="L27" s="6" t="inlineStr"/>
+      <c r="M27" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N26" s="8" t="n">
+      <c r="N27" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O26" s="9" t="inlineStr">
+      <c r="O27" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="10" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="10" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B27" s="10" t="n">
+      <c r="B28" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="C27" s="11" t="n">
+      <c r="C28" s="11" t="n">
         <v>44616</v>
       </c>
-      <c r="D27" s="10" t="inlineStr">
+      <c r="D28" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E27" s="10" t="inlineStr">
+      <c r="E28" s="10" t="inlineStr">
         <is>
           <t>Gallardo Homes LLC, a Washington Limited Liability Company,</t>
         </is>
       </c>
-      <c r="F27" s="10" t="inlineStr">
+      <c r="F28" s="10" t="inlineStr">
         <is>
           <t>SFR Acquisitions 2 LLC, a Delaware Limited Liability Company</t>
         </is>
       </c>
-      <c r="G27" s="10" t="inlineStr">
+      <c r="G28" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H27" s="10" t="inlineStr">
+      <c r="H28" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I27" s="10" t="inlineStr">
+      <c r="I28" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J27" s="11" t="n">
+      <c r="J28" s="11" t="n">
         <v>44641</v>
       </c>
-      <c r="K27" s="10" t="n">
+      <c r="K28" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="L27" s="10" t="inlineStr">
+      <c r="L28" s="10" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 007</t>
         </is>
       </c>
-      <c r="M27" s="10" t="inlineStr">
+      <c r="M28" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N27" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="13" t="inlineStr">
+      <c r="N28" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13" t="inlineStr">
         <is>
           <t>GL/deed date delta: 25 days.</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B29" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="C28" s="3" t="n">
+      <c r="C29" s="3" t="n">
         <v>44645</v>
       </c>
-      <c r="D28" s="2" t="inlineStr">
+      <c r="D29" s="2" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E28" s="2" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F28" s="2" t="inlineStr">
+      <c r="F29" s="2" t="inlineStr">
         <is>
           <t>KEVIN CHRISTIE and LIBBY CHRISTIE, a married couple</t>
         </is>
       </c>
-      <c r="G28" s="2" t="inlineStr">
+      <c r="G29" s="2" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
+      <c r="H29" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
+      <c r="I29" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J29" s="3" t="n">
         <v>44690</v>
       </c>
-      <c r="K28" s="2" t="n">
+      <c r="K29" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="L28" s="2" t="inlineStr">
+      <c r="L29" s="2" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Lot #86</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr">
+      <c r="M29" s="2" t="inlineStr">
         <is>
           <t>Over-Collected</t>
         </is>
       </c>
-      <c r="N28" s="4" t="n">
+      <c r="N29" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="O28" s="5" t="inlineStr">
+      <c r="O29" s="5" t="inlineStr">
         <is>
           <t>GL/deed date delta: 45 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="6" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="6" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B29" s="6" t="n">
+      <c r="B30" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="C29" s="7" t="n">
+      <c r="C30" s="7" t="n">
         <v>44645</v>
       </c>
-      <c r="D29" s="6" t="inlineStr">
+      <c r="D30" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E29" s="6" t="inlineStr">
+      <c r="E30" s="6" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT LLC, A WASHINGTON LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
-      <c r="F29" s="6" t="inlineStr">
+      <c r="F30" s="6" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, A WASHINGTON CORPORATION</t>
         </is>
       </c>
-      <c r="G29" s="6" t="inlineStr">
+      <c r="G30" s="6" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H29" s="6" t="inlineStr">
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I29" s="6" t="inlineStr">
+      <c r="I30" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J29" s="7" t="n"/>
-      <c r="K29" s="6" t="n"/>
-      <c r="L29" s="6" t="inlineStr"/>
-      <c r="M29" s="6" t="inlineStr">
+      <c r="J30" s="7" t="n"/>
+      <c r="K30" s="6" t="n"/>
+      <c r="L30" s="6" t="inlineStr"/>
+      <c r="M30" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N29" s="8" t="n">
+      <c r="N30" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O29" s="9" t="inlineStr">
+      <c r="O30" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B30" s="10" t="n">
-        <v>84</v>
-      </c>
-      <c r="C30" s="11" t="n">
-        <v>44649</v>
-      </c>
-      <c r="D30" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E30" s="10" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, A WASHINGTON LIMITED LIABILITY COMPANY</t>
-        </is>
-      </c>
-      <c r="F30" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, A WASHINGTON CORPORATION</t>
-        </is>
-      </c>
-      <c r="G30" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H30" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I30" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J30" s="11" t="n">
-        <v>44690</v>
-      </c>
-      <c r="K30" s="10" t="n">
-        <v>84</v>
-      </c>
-      <c r="L30" s="10" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit 084</t>
-        </is>
-      </c>
-      <c r="M30" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N30" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="13" t="inlineStr">
-        <is>
-          <t>GL/deed date delta: 41 days.</t>
         </is>
       </c>
     </row>
@@ -2434,37 +2426,45 @@
       </c>
       <c r="D31" s="10" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E31" s="10" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>SO UK INVESTMENT LLC, A WASHINGTON LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
       <c r="F31" s="10" t="inlineStr">
         <is>
-          <t>EMILY NICHOLSON, an unmarried person</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, A WASHINGTON CORPORATION</t>
         </is>
       </c>
       <c r="G31" s="10" t="inlineStr">
         <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
+          <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
       <c r="H31" s="10" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I31" s="10" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J31" s="11" t="n"/>
-      <c r="K31" s="10" t="n"/>
-      <c r="L31" s="10" t="inlineStr"/>
+      <c r="J31" s="11" t="n">
+        <v>44690</v>
+      </c>
+      <c r="K31" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="L31" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit 084</t>
+        </is>
+      </c>
       <c r="M31" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
@@ -2473,129 +2473,133 @@
       <c r="N31" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O31" s="13" t="inlineStr"/>
+      <c r="O31" s="13" t="inlineStr">
+        <is>
+          <t>GL/deed date delta: 41 days.</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="10" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B32" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="C32" s="11" t="n">
+        <v>44649</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E32" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="inlineStr">
+        <is>
+          <t>EMILY NICHOLSON, an unmarried person</t>
+        </is>
+      </c>
+      <c r="G32" s="10" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H32" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I32" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J32" s="11" t="n"/>
+      <c r="K32" s="10" t="n"/>
+      <c r="L32" s="10" t="inlineStr"/>
+      <c r="M32" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N32" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B32" s="10" t="n">
+      <c r="B33" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="C32" s="11" t="n">
+      <c r="C33" s="3" t="n">
         <v>44680</v>
       </c>
-      <c r="D32" s="10" t="inlineStr">
+      <c r="D33" s="2" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E32" s="10" t="inlineStr">
-        <is>
-          <t>William Spangler and Susan Bloomfield, a married couple</t>
-        </is>
-      </c>
-      <c r="F32" s="10" t="inlineStr">
-        <is>
-          <t>Chelsie Busey and Robert Busey, a married couple</t>
-        </is>
-      </c>
-      <c r="G32" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H32" s="10" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>WILLIAM SPANGLER and SUSAN BLOOMFIELD, a married couple</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I32" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J32" s="11" t="n">
+      <c r="J33" s="3" t="n">
         <v>44690</v>
       </c>
-      <c r="K32" s="10" t="n">
+      <c r="K33" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="L32" s="10" t="inlineStr">
+      <c r="L33" s="2" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 049</t>
         </is>
       </c>
-      <c r="M32" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N32" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 5/2/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 3 days). GL/deed date delta: 10 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B33" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="C33" s="11" t="n">
-        <v>44680</v>
-      </c>
-      <c r="D33" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E33" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="F33" s="10" t="inlineStr">
-        <is>
-          <t>WILLIAM SPANGLER and SUSAN BLOOMFIELD, a married couple</t>
-        </is>
-      </c>
-      <c r="G33" s="10" t="inlineStr">
-        <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
-        </is>
-      </c>
-      <c r="H33" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I33" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J33" s="11" t="n"/>
-      <c r="K33" s="10" t="n"/>
-      <c r="L33" s="10" t="inlineStr"/>
-      <c r="M33" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N33" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="13" t="inlineStr"/>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>Over-Collected</t>
+        </is>
+      </c>
+      <c r="N33" s="4" t="n">
+        <v>500</v>
+      </c>
+      <c r="O33" s="5" t="inlineStr">
+        <is>
+          <t>Resale escrow 5/2/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 3 days). GL/deed date delta: 10 days. Collection posted on exempt transfer.</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="inlineStr">
@@ -3118,11 +3122,7 @@
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E42" s="10" t="inlineStr">
-        <is>
-          <t>James M. and Trova K. Heffernan</t>
-        </is>
-      </c>
+      <c r="E42" s="10" t="inlineStr"/>
       <c r="F42" s="10" t="inlineStr">
         <is>
           <t>SIRVA RELOCATION CREDIT, LLC, a Delaware Limited Liability Company, in fee simple, whose mailing address is 6200 Oak Tree Blvd., Suite 300, Independence, OH 44131, Attn: Kevin Butler</t>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="O42" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 9/14/2022 from 2022-09-30-10-Homeowner Resale Report.md (delta 25 days). Filled grantor from resale previous owner. GL/deed date delta: 33 days.</t>
+          <t>GL/deed date delta: 33 days.</t>
         </is>
       </c>
     </row>
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="B43" s="6" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7" t="n">
-        <v>44844</v>
+        <v>44798</v>
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
@@ -3187,12 +3187,12 @@
       </c>
       <c r="E43" s="6" t="inlineStr">
         <is>
-          <t>JK Monarch, LLC, a Washington limited liability company</t>
+          <t>James M. and Trova K. Heffernan</t>
         </is>
       </c>
       <c r="F43" s="6" t="inlineStr">
         <is>
-          <t>Cynthia M Lind and Michael E Lind, a married couple</t>
+          <t>Kristine M. Rompa, an unmarried Person , whose mailing address is 849 101st Ave SE, Olympia, WA 98501</t>
         </is>
       </c>
       <c r="G43" s="6" t="inlineStr">
@@ -3223,7 +3223,7 @@
       </c>
       <c r="O43" s="9" t="inlineStr">
         <is>
-          <t>No matching GL collection entry by unit/date.</t>
+          <t>Resale escrow 9/14/2022 from 2022-09-30-10-Homeowner Resale Report.md (delta 20 days). Filled grantor from resale previous owner. Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -3234,10 +3234,10 @@
         </is>
       </c>
       <c r="B44" s="6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7" t="n">
-        <v>44846</v>
+        <v>44844</v>
       </c>
       <c r="D44" s="6" t="inlineStr">
         <is>
@@ -3246,12 +3246,12 @@
       </c>
       <c r="E44" s="6" t="inlineStr">
         <is>
-          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
+          <t>JK Monarch, LLC, a Washington limited liability company</t>
         </is>
       </c>
       <c r="F44" s="6" t="inlineStr">
         <is>
-          <t>Deborah Lee Seal and Thomas Seal, a married couple</t>
+          <t>Cynthia M Lind and Michael E Lind, a married couple</t>
         </is>
       </c>
       <c r="G44" s="6" t="inlineStr">
@@ -3287,69 +3287,61 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="inlineStr">
+      <c r="A45" s="6" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B45" s="10" t="n">
-        <v>57</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>44873</v>
-      </c>
-      <c r="D45" s="10" t="inlineStr">
+      <c r="B45" s="6" t="n">
+        <v>51</v>
+      </c>
+      <c r="C45" s="7" t="n">
+        <v>44846</v>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E45" s="10" t="inlineStr">
+      <c r="E45" s="6" t="inlineStr">
         <is>
           <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F45" s="10" t="inlineStr">
-        <is>
-          <t>Angela Huber and Derrick Huber, a married couple</t>
-        </is>
-      </c>
-      <c r="G45" s="10" t="inlineStr">
+      <c r="F45" s="6" t="inlineStr">
+        <is>
+          <t>Deborah Lee Seal and Thomas Seal, a married couple</t>
+        </is>
+      </c>
+      <c r="G45" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H45" s="10" t="inlineStr">
+      <c r="H45" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I45" s="10" t="inlineStr">
+      <c r="I45" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J45" s="11" t="n">
-        <v>44902</v>
-      </c>
-      <c r="K45" s="10" t="n">
-        <v>57</v>
-      </c>
-      <c r="L45" s="10" t="inlineStr">
-        <is>
-          <t>Capital Contribution - Unit #057</t>
-        </is>
-      </c>
-      <c r="M45" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N45" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 29 days). GL/deed date delta: 29 days.</t>
+      <c r="J45" s="7" t="n"/>
+      <c r="K45" s="6" t="n"/>
+      <c r="L45" s="6" t="inlineStr"/>
+      <c r="M45" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O45" s="9" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -3360,10 +3352,10 @@
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>44883</v>
+        <v>44873</v>
       </c>
       <c r="D46" s="10" t="inlineStr">
         <is>
@@ -3377,7 +3369,7 @@
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
-          <t>Megan C Israel and Brenden J Weinroth, a married couple</t>
+          <t>Angela Huber and Derrick Huber, a married couple</t>
         </is>
       </c>
       <c r="G46" s="10" t="inlineStr">
@@ -3399,11 +3391,11 @@
         <v>44902</v>
       </c>
       <c r="K46" s="10" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L46" s="10" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #060</t>
+          <t>Capital Contribution - Unit #057</t>
         </is>
       </c>
       <c r="M46" s="10" t="inlineStr">
@@ -3416,7 +3408,7 @@
       </c>
       <c r="O46" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 19 days). GL/deed date delta: 19 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 29 days). GL/deed date delta: 29 days.</t>
         </is>
       </c>
     </row>
@@ -3427,10 +3419,10 @@
         </is>
       </c>
       <c r="B47" s="10" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C47" s="11" t="n">
-        <v>44887</v>
+        <v>44883</v>
       </c>
       <c r="D47" s="10" t="inlineStr">
         <is>
@@ -3444,7 +3436,7 @@
       </c>
       <c r="F47" s="10" t="inlineStr">
         <is>
-          <t>Robert Soldier and Frances Limtiaco, a married couple</t>
+          <t>Megan C Israel and Brenden J Weinroth, a married couple</t>
         </is>
       </c>
       <c r="G47" s="10" t="inlineStr">
@@ -3466,11 +3458,11 @@
         <v>44902</v>
       </c>
       <c r="K47" s="10" t="n">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L47" s="10" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit#052</t>
+          <t>Transfer Fee - Capital Contribution - Unit #060</t>
         </is>
       </c>
       <c r="M47" s="10" t="inlineStr">
@@ -3483,7 +3475,7 @@
       </c>
       <c r="O47" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 19 days). GL/deed date delta: 19 days.</t>
         </is>
       </c>
     </row>
@@ -3494,10 +3486,10 @@
         </is>
       </c>
       <c r="B48" s="10" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C48" s="11" t="n">
-        <v>44893</v>
+        <v>44887</v>
       </c>
       <c r="D48" s="10" t="inlineStr">
         <is>
@@ -3511,7 +3503,7 @@
       </c>
       <c r="F48" s="10" t="inlineStr">
         <is>
-          <t>Anthony J Davis and Cyann L Davis, a married couple</t>
+          <t>Robert Soldier and Frances Limtiaco, a married couple</t>
         </is>
       </c>
       <c r="G48" s="10" t="inlineStr">
@@ -3530,14 +3522,14 @@
         </is>
       </c>
       <c r="J48" s="11" t="n">
-        <v>44909</v>
+        <v>44902</v>
       </c>
       <c r="K48" s="10" t="n">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L48" s="10" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit#058</t>
+          <t>Transfer Fee - Capital Contribution - Unit#052</t>
         </is>
       </c>
       <c r="M48" s="10" t="inlineStr">
@@ -3550,7 +3542,7 @@
       </c>
       <c r="O48" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 12/14/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
         </is>
       </c>
     </row>
@@ -3561,10 +3553,10 @@
         </is>
       </c>
       <c r="B49" s="10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C49" s="11" t="n">
-        <v>44967</v>
+        <v>44893</v>
       </c>
       <c r="D49" s="10" t="inlineStr">
         <is>
@@ -3578,7 +3570,7 @@
       </c>
       <c r="F49" s="10" t="inlineStr">
         <is>
-          <t>Jaclyn Nicole Sison and Sean Michael S Sison, a married couple</t>
+          <t>Anthony J Davis and Cyann L Davis, a married couple</t>
         </is>
       </c>
       <c r="G49" s="10" t="inlineStr">
@@ -3597,14 +3589,14 @@
         </is>
       </c>
       <c r="J49" s="11" t="n">
-        <v>44993</v>
+        <v>44909</v>
       </c>
       <c r="K49" s="10" t="n">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L49" s="10" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 054</t>
+          <t>Transfer Fee - Capital Contribution - Unit#058</t>
         </is>
       </c>
       <c r="M49" s="10" t="inlineStr">
@@ -3617,7 +3609,7 @@
       </c>
       <c r="O49" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 3/8/2023 from 2023-03-31-10-Homeowner Resale Report.md (delta 26 days). GL/deed date delta: 26 days.</t>
+          <t>Resale escrow 12/14/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
         </is>
       </c>
     </row>
@@ -3628,10 +3620,10 @@
         </is>
       </c>
       <c r="B50" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" s="11" t="n">
-        <v>44986</v>
+        <v>44967</v>
       </c>
       <c r="D50" s="10" t="inlineStr">
         <is>
@@ -3645,7 +3637,7 @@
       </c>
       <c r="F50" s="10" t="inlineStr">
         <is>
-          <t>James Cody Lords and Kimberly Anne Lords, a married couple</t>
+          <t>Jaclyn Nicole Sison and Sean Michael S Sison, a married couple</t>
         </is>
       </c>
       <c r="G50" s="10" t="inlineStr">
@@ -3664,14 +3656,14 @@
         </is>
       </c>
       <c r="J50" s="11" t="n">
-        <v>45034</v>
+        <v>44993</v>
       </c>
       <c r="K50" s="10" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L50" s="10" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit#053</t>
+          <t>Capital Contribution - Unit# 054</t>
         </is>
       </c>
       <c r="M50" s="10" t="inlineStr">
@@ -3684,40 +3676,40 @@
       </c>
       <c r="O50" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 4/18/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 48 days). GL/deed date delta: 48 days.</t>
+          <t>Resale escrow 3/8/2023 from 2023-03-31-10-Homeowner Resale Report.md (delta 26 days). GL/deed date delta: 26 days.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="10" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B51" s="10" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C51" s="11" t="n">
-        <v>44992</v>
+        <v>44986</v>
       </c>
       <c r="D51" s="10" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E51" s="10" t="inlineStr">
         <is>
-          <t>THURSTON COUNTY TITLE CO</t>
+          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F51" s="10" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
+          <t>James Cody Lords and Kimberly Anne Lords, a married couple</t>
         </is>
       </c>
       <c r="G51" s="10" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H51" s="10" t="inlineStr">
@@ -3731,14 +3723,14 @@
         </is>
       </c>
       <c r="J51" s="11" t="n">
-        <v>45020</v>
+        <v>45034</v>
       </c>
       <c r="K51" s="10" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="L51" s="10" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 106</t>
+          <t>Capital Contribution - Unit#053</t>
         </is>
       </c>
       <c r="M51" s="10" t="inlineStr">
@@ -3751,7 +3743,7 @@
       </c>
       <c r="O51" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 4/4/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
+          <t>Resale escrow 4/18/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 48 days). GL/deed date delta: 48 days.</t>
         </is>
       </c>
     </row>
@@ -3769,37 +3761,45 @@
       </c>
       <c r="D52" s="10" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E52" s="10" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>THURSTON COUNTY TITLE CO</t>
         </is>
       </c>
       <c r="F52" s="10" t="inlineStr">
         <is>
-          <t>STEPHANIE HARRIS and ROBERT W. HARRIS, a married couple</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
         </is>
       </c>
       <c r="G52" s="10" t="inlineStr">
         <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
+          <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
       <c r="H52" s="10" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" s="10" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I52" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J52" s="11" t="n"/>
-      <c r="K52" s="10" t="n"/>
-      <c r="L52" s="10" t="inlineStr"/>
+      <c r="J52" s="11" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K52" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="L52" s="10" t="inlineStr">
+        <is>
+          <t>Capital Contribution - Unit# 106</t>
+        </is>
+      </c>
       <c r="M52" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
@@ -3808,7 +3808,11 @@
       <c r="N52" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O52" s="13" t="inlineStr"/>
+      <c r="O52" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/4/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="10" t="inlineStr">
@@ -3817,10 +3821,10 @@
         </is>
       </c>
       <c r="B53" s="10" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C53" s="11" t="n">
-        <v>45016</v>
+        <v>44992</v>
       </c>
       <c r="D53" s="10" t="inlineStr">
         <is>
@@ -3834,7 +3838,7 @@
       </c>
       <c r="F53" s="10" t="inlineStr">
         <is>
-          <t>MARIE ANN MCDANIEL, an unmarried person</t>
+          <t>STEPHANIE HARRIS and ROBERT W. HARRIS, a married couple</t>
         </is>
       </c>
       <c r="G53" s="10" t="inlineStr">
@@ -3866,128 +3870,116 @@
       <c r="O53" s="13" t="inlineStr"/>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
+      <c r="A54" s="10" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B54" s="6" t="n">
+      <c r="B54" s="10" t="n">
         <v>91</v>
       </c>
-      <c r="C54" s="7" t="n">
+      <c r="C54" s="11" t="n">
         <v>45016</v>
       </c>
-      <c r="D54" s="6" t="inlineStr">
+      <c r="D54" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E54" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="inlineStr">
+        <is>
+          <t>MARIE ANN MCDANIEL, an unmarried person</t>
+        </is>
+      </c>
+      <c r="G54" s="10" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H54" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I54" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J54" s="11" t="n"/>
+      <c r="K54" s="10" t="n"/>
+      <c r="L54" s="10" t="inlineStr"/>
+      <c r="M54" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N54" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="13" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="n">
+        <v>91</v>
+      </c>
+      <c r="C55" s="7" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E54" s="6" t="inlineStr">
+      <c r="E55" s="6" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="F55" s="6" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
         </is>
       </c>
-      <c r="G54" s="6" t="inlineStr">
+      <c r="G55" s="6" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H54" s="6" t="inlineStr">
+      <c r="H55" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I54" s="6" t="inlineStr">
+      <c r="I55" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J54" s="7" t="n"/>
-      <c r="K54" s="6" t="n"/>
-      <c r="L54" s="6" t="inlineStr"/>
-      <c r="M54" s="6" t="inlineStr">
+      <c r="J55" s="7" t="n"/>
+      <c r="K55" s="6" t="n"/>
+      <c r="L55" s="6" t="inlineStr"/>
+      <c r="M55" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N54" s="8" t="n">
+      <c r="N55" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O54" s="9" t="inlineStr">
+      <c r="O55" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B55" s="10" t="n">
-        <v>78</v>
-      </c>
-      <c r="C55" s="11" t="n">
-        <v>45037</v>
-      </c>
-      <c r="D55" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E55" s="10" t="inlineStr">
-        <is>
-          <t>Isaac Dermanoski</t>
-        </is>
-      </c>
-      <c r="F55" s="10" t="inlineStr">
-        <is>
-          <t>Shamsher Singh and Anita Rani, a married couple</t>
-        </is>
-      </c>
-      <c r="G55" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H55" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I55" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J55" s="11" t="n">
-        <v>45043</v>
-      </c>
-      <c r="K55" s="10" t="n">
-        <v>78</v>
-      </c>
-      <c r="L55" s="10" t="inlineStr">
-        <is>
-          <t>Capital Contribution - Unit# 078</t>
-        </is>
-      </c>
-      <c r="M55" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N55" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 4/27/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 6 days). Filled grantor from resale previous owner. GL/deed date delta: 6 days.</t>
         </is>
       </c>
     </row>
@@ -3998,24 +3990,24 @@
         </is>
       </c>
       <c r="B56" s="10" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C56" s="11" t="n">
-        <v>45131</v>
+        <v>45037</v>
       </c>
       <c r="D56" s="10" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E56" s="10" t="inlineStr">
         <is>
-          <t>THURSTON COUNTY TITLE CO</t>
+          <t>Isaac Dermanoski</t>
         </is>
       </c>
       <c r="F56" s="10" t="inlineStr">
         <is>
-          <t>MIN LEUNG LAI, a married man as his separate estate</t>
+          <t>Shamsher Singh and Anita Rani, a married couple</t>
         </is>
       </c>
       <c r="G56" s="10" t="inlineStr">
@@ -4034,14 +4026,14 @@
         </is>
       </c>
       <c r="J56" s="11" t="n">
-        <v>45420</v>
+        <v>45043</v>
       </c>
       <c r="K56" s="10" t="n">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="L56" s="10" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #110</t>
+          <t>Capital Contribution - Unit# 078</t>
         </is>
       </c>
       <c r="M56" s="10" t="inlineStr">
@@ -4054,326 +4046,334 @@
       </c>
       <c r="O56" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 5/8/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 289 days). GL/deed date delta: 289 days.</t>
+          <t>Resale escrow 4/27/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 6 days). Filled grantor from resale previous owner. GL/deed date delta: 6 days.</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="10" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="C57" s="11" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D57" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E57" s="10" t="inlineStr">
+        <is>
+          <t>THURSTON COUNTY TITLE CO</t>
+        </is>
+      </c>
+      <c r="F57" s="10" t="inlineStr">
+        <is>
+          <t>MIN LEUNG LAI, a married man as his separate estate</t>
+        </is>
+      </c>
+      <c r="G57" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H57" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J57" s="11" t="n">
+        <v>45420</v>
+      </c>
+      <c r="K57" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="L57" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #110</t>
+        </is>
+      </c>
+      <c r="M57" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N57" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 5/8/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 289 days). GL/deed date delta: 289 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B57" s="10" t="n">
+      <c r="B58" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="C57" s="11" t="n">
+      <c r="C58" s="11" t="n">
         <v>45268</v>
       </c>
-      <c r="D57" s="10" t="inlineStr">
+      <c r="D58" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E57" s="10" t="inlineStr">
+      <c r="E58" s="10" t="inlineStr">
         <is>
           <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F57" s="10" t="inlineStr">
+      <c r="F58" s="10" t="inlineStr">
         <is>
           <t>Linda Stamer, an unmarried person</t>
         </is>
       </c>
-      <c r="G57" s="10" t="inlineStr">
+      <c r="G58" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H57" s="10" t="inlineStr">
+      <c r="H58" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I57" s="10" t="inlineStr">
+      <c r="I58" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J57" s="11" t="n">
+      <c r="J58" s="11" t="n">
         <v>45313</v>
       </c>
-      <c r="K57" s="10" t="n">
+      <c r="K58" s="10" t="n">
         <v>55</v>
       </c>
-      <c r="L57" s="10" t="inlineStr">
+      <c r="L58" s="10" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit #055</t>
         </is>
       </c>
-      <c r="M57" s="10" t="inlineStr">
+      <c r="M58" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N57" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="13" t="inlineStr">
+      <c r="N58" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="13" t="inlineStr">
         <is>
           <t>Resale escrow 1/22/2024 from 2024-01-31-10-Homeowner Resale Report.md (delta 45 days). GL/deed date delta: 45 days.</t>
         </is>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="2" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
+      <c r="B59" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="C58" s="3" t="n">
+      <c r="C59" s="3" t="n">
         <v>45372</v>
       </c>
-      <c r="D58" s="2" t="inlineStr">
+      <c r="D59" s="2" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E58" s="2" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F58" s="2" t="inlineStr">
+      <c r="F59" s="2" t="inlineStr">
         <is>
           <t>PETER CHAFFEY, an unmarried man and CORINNE L. FISHER, an unmarried woman</t>
         </is>
       </c>
-      <c r="G58" s="2" t="inlineStr">
+      <c r="G59" s="2" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="H59" s="2" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J58" s="3" t="n">
+      <c r="J59" s="3" t="n">
         <v>45033</v>
       </c>
-      <c r="K58" s="2" t="n">
+      <c r="K59" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="L58" s="2" t="inlineStr">
+      <c r="L59" s="2" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit# 108</t>
         </is>
       </c>
-      <c r="M58" s="2" t="inlineStr">
+      <c r="M59" s="2" t="inlineStr">
         <is>
           <t>Over-Collected</t>
         </is>
       </c>
-      <c r="N58" s="4" t="n">
+      <c r="N59" s="4" t="n">
         <v>500</v>
       </c>
-      <c r="O58" s="5" t="inlineStr">
+      <c r="O59" s="5" t="inlineStr">
         <is>
           <t>Resale escrow 4/17/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 339 days). GL/deed date delta: 339 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="6" t="inlineStr">
+    <row r="60">
+      <c r="A60" s="6" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B59" s="6" t="n">
+      <c r="B60" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="C59" s="7" t="n">
+      <c r="C60" s="7" t="n">
         <v>45372</v>
       </c>
-      <c r="D59" s="6" t="inlineStr">
+      <c r="D60" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E59" s="6" t="inlineStr">
+      <c r="E60" s="6" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F59" s="6" t="inlineStr">
+      <c r="F60" s="6" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="G59" s="6" t="inlineStr">
+      <c r="G60" s="6" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H59" s="6" t="inlineStr">
+      <c r="H60" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I59" s="6" t="inlineStr">
+      <c r="I60" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J59" s="7" t="n"/>
-      <c r="K59" s="6" t="n"/>
-      <c r="L59" s="6" t="inlineStr"/>
-      <c r="M59" s="6" t="inlineStr">
+      <c r="J60" s="7" t="n"/>
+      <c r="K60" s="6" t="n"/>
+      <c r="L60" s="6" t="inlineStr"/>
+      <c r="M60" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N59" s="8" t="n">
+      <c r="N60" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O59" s="9" t="inlineStr">
+      <c r="O60" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="10" t="inlineStr">
+    <row r="61">
+      <c r="A61" s="10" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B60" s="10" t="n">
+      <c r="B61" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="C61" s="11" t="n">
         <v>45376</v>
       </c>
-      <c r="D60" s="10" t="inlineStr">
+      <c r="D61" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E60" s="10" t="inlineStr">
+      <c r="E61" s="10" t="inlineStr">
         <is>
           <t>DANIEL YOUNG and BRENNA YOUNG, husband and wife</t>
         </is>
       </c>
-      <c r="F60" s="10" t="inlineStr">
+      <c r="F61" s="10" t="inlineStr">
         <is>
           <t>JORDAN J. DOWERS and LEAH M. DOWERS, a married couple</t>
         </is>
       </c>
-      <c r="G60" s="10" t="inlineStr">
+      <c r="G61" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H60" s="10" t="inlineStr">
+      <c r="H61" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I60" s="10" t="inlineStr">
+      <c r="I61" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J60" s="11" t="n">
+      <c r="J61" s="11" t="n">
         <v>45400</v>
       </c>
-      <c r="K60" s="10" t="n">
+      <c r="K61" s="10" t="n">
         <v>82</v>
       </c>
-      <c r="L60" s="10" t="inlineStr">
+      <c r="L61" s="10" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Unit #082</t>
         </is>
       </c>
-      <c r="M60" s="10" t="inlineStr">
+      <c r="M61" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N60" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" s="13" t="inlineStr">
+      <c r="N61" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="13" t="inlineStr">
         <is>
           <t>Resale escrow 4/18/2024 from 2024-04-30-10-Homeowner Resale Report.md (delta 24 days). GL/deed date delta: 24 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B61" s="6" t="n">
-        <v>81</v>
-      </c>
-      <c r="C61" s="7" t="n">
-        <v>45448</v>
-      </c>
-      <c r="D61" s="6" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E61" s="6" t="inlineStr">
-        <is>
-          <t>Levi Tate, an unmarried person</t>
-        </is>
-      </c>
-      <c r="F61" s="6" t="inlineStr">
-        <is>
-          <t>Kevin D Randich and Claire R Randich, a married couple</t>
-        </is>
-      </c>
-      <c r="G61" s="6" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H61" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I61" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J61" s="7" t="n"/>
-      <c r="K61" s="6" t="n"/>
-      <c r="L61" s="6" t="inlineStr"/>
-      <c r="M61" s="6" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N61" s="8" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O61" s="9" t="inlineStr">
-        <is>
-          <t>Resale escrow 6/27/2024 from 2024-06-30-10-Homeowner Resale Report.md (delta 22 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -4391,17 +4391,17 @@
       </c>
       <c r="D62" s="6" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E62" s="6" t="inlineStr">
         <is>
-          <t>Kayla Tate, an unmarried person (former Spouse of Grantee)</t>
+          <t>Levi Tate, an unmarried person</t>
         </is>
       </c>
       <c r="F62" s="6" t="inlineStr">
         <is>
-          <t>Levi Tate, an unmarried person</t>
+          <t>Kevin D Randich and Claire R Randich, a married couple</t>
         </is>
       </c>
       <c r="G62" s="6" t="inlineStr">
@@ -4432,133 +4432,133 @@
       </c>
       <c r="O62" s="9" t="inlineStr">
         <is>
+          <t>Resale escrow 6/27/2024 from 2024-06-30-10-Homeowner Resale Report.md (delta 22 days). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="n">
+        <v>81</v>
+      </c>
+      <c r="C63" s="7" t="n">
+        <v>45448</v>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E63" s="6" t="inlineStr">
+        <is>
+          <t>Kayla Tate, an unmarried person (former Spouse of Grantee)</t>
+        </is>
+      </c>
+      <c r="F63" s="6" t="inlineStr">
+        <is>
+          <t>Levi Tate, an unmarried person</t>
+        </is>
+      </c>
+      <c r="G63" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H63" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J63" s="7" t="n"/>
+      <c r="K63" s="6" t="n"/>
+      <c r="L63" s="6" t="inlineStr"/>
+      <c r="M63" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N63" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O63" s="9" t="inlineStr">
+        <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="10" t="inlineStr">
+    <row r="64">
+      <c r="A64" s="10" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B63" s="10" t="n">
-        <v>107</v>
-      </c>
-      <c r="C63" s="11" t="n">
+      <c r="B64" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="C64" s="11" t="n">
         <v>45457</v>
       </c>
-      <c r="D63" s="10" t="inlineStr">
+      <c r="D64" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E63" s="10" t="inlineStr">
-        <is>
-          <t>BRET R. JENSEN, an unmarried individual</t>
-        </is>
-      </c>
-      <c r="F63" s="10" t="inlineStr">
-        <is>
-          <t>JACLYN FRASER, an unmarried person, and MATTHEW MAZUR-HART, an unmarried person as joint tenants with rights of survivorship and not as tenants in common</t>
-        </is>
-      </c>
-      <c r="G63" s="10" t="inlineStr">
+      <c r="E64" s="10" t="inlineStr">
+        <is>
+          <t>Kirk M. Olson and Teri Ward who acquired title as Teresa Olson, husband and wife</t>
+        </is>
+      </c>
+      <c r="F64" s="10" t="inlineStr">
+        <is>
+          <t>Alicia DiFolco and Dan DiFolco, a married couple</t>
+        </is>
+      </c>
+      <c r="G64" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H63" s="10" t="inlineStr">
+      <c r="H64" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I63" s="10" t="inlineStr">
+      <c r="I64" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J63" s="11" t="n">
-        <v>45492</v>
-      </c>
-      <c r="K63" s="10" t="n">
-        <v>107</v>
-      </c>
-      <c r="L63" s="10" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #107</t>
-        </is>
-      </c>
-      <c r="M63" s="10" t="inlineStr">
+      <c r="J64" s="11" t="n">
+        <v>45471</v>
+      </c>
+      <c r="K64" s="10" t="n">
+        <v>83</v>
+      </c>
+      <c r="L64" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution for unit 083</t>
+        </is>
+      </c>
+      <c r="M64" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N63" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 7/19/2024 from 2024-07-31-10-Homeowner Resale Report.md (delta 35 days). GL/deed date delta: 35 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="6" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B64" s="6" t="n">
-        <v>98</v>
-      </c>
-      <c r="C64" s="7" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D64" s="6" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E64" s="6" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F64" s="6" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G64" s="6" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H64" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I64" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J64" s="7" t="n"/>
-      <c r="K64" s="6" t="n"/>
-      <c r="L64" s="6" t="inlineStr"/>
-      <c r="M64" s="6" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N64" s="8" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O64" s="9" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
+      <c r="N64" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 6/28/2024 from 2024-06-30-10-Homeowner Resale Report.md (delta 14 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 14 days.</t>
         </is>
       </c>
     </row>
@@ -4569,206 +4569,210 @@
         </is>
       </c>
       <c r="B65" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>45457</v>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>BRET R. JENSEN, an unmarried individual</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="inlineStr">
+        <is>
+          <t>JACLYN FRASER, an unmarried person, and MATTHEW MAZUR-HART, an unmarried person as joint tenants with rights of survivorship and not as tenants in common</t>
+        </is>
+      </c>
+      <c r="G65" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H65" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J65" s="11" t="n">
+        <v>45492</v>
+      </c>
+      <c r="K65" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="L65" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #107</t>
+        </is>
+      </c>
+      <c r="M65" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N65" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 7/19/2024 from 2024-07-31-10-Homeowner Resale Report.md (delta 35 days). GL/deed date delta: 35 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="C65" s="11" t="n">
+      <c r="C66" s="7" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D66" s="6" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E66" s="6" t="inlineStr">
+        <is>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F66" s="6" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G66" s="6" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H66" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J66" s="7" t="n"/>
+      <c r="K66" s="6" t="n"/>
+      <c r="L66" s="6" t="inlineStr"/>
+      <c r="M66" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N66" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O66" s="9" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="C67" s="11" t="n">
         <v>45478</v>
       </c>
-      <c r="D65" s="10" t="inlineStr">
+      <c r="D67" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E65" s="10" t="inlineStr">
+      <c r="E67" s="10" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F65" s="10" t="inlineStr">
+      <c r="F67" s="10" t="inlineStr">
         <is>
           <t>ANDRIANA JEON and ABRAHAM JEON, a married couple</t>
         </is>
       </c>
-      <c r="G65" s="10" t="inlineStr">
+      <c r="G67" s="10" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H65" s="10" t="inlineStr">
+      <c r="H67" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I65" s="10" t="inlineStr">
+      <c r="I67" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J65" s="11" t="n"/>
-      <c r="K65" s="10" t="n"/>
-      <c r="L65" s="10" t="inlineStr"/>
-      <c r="M65" s="10" t="inlineStr">
+      <c r="J67" s="11" t="n"/>
+      <c r="K67" s="10" t="n"/>
+      <c r="L67" s="10" t="inlineStr"/>
+      <c r="M67" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N65" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="13" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B66" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="C66" s="11" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D66" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E66" s="10" t="inlineStr">
-        <is>
-          <t>SFR Borrower 2022-1 LLC, a Delaware Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F66" s="10" t="inlineStr">
-        <is>
-          <t>Ryan K. Cook and Allison R. Cook, a married couple, and Linda L. Cornett, a single person</t>
-        </is>
-      </c>
-      <c r="G66" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H66" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I66" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J66" s="11" t="n">
-        <v>45525</v>
-      </c>
-      <c r="K66" s="10" t="n">
-        <v>48</v>
-      </c>
-      <c r="L66" s="10" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #048</t>
-        </is>
-      </c>
-      <c r="M66" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N66" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 8/21/2024 from 2024-08-31-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="6" t="inlineStr">
-        <is>
-          <t>I (Original)</t>
-        </is>
-      </c>
-      <c r="B67" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C67" s="7" t="n">
-        <v>45617</v>
-      </c>
-      <c r="D67" s="6" t="inlineStr">
-        <is>
-          <t>Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E67" s="6" t="inlineStr">
-        <is>
-          <t>, SFR ACQUISITIONS 2 LLC, a Delaware Limited Liability Company for and in consideration of Ten Dollars and other valuable consideration in hand paid, bargains, sells and conveys to SFR BORROWER 2021-2 LLC, a Delaware Limited Liability Company, the following described estate, situated in the County of Thurston, State of Washington:</t>
-        </is>
-      </c>
-      <c r="F67" s="6" t="inlineStr"/>
-      <c r="G67" s="6" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H67" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I67" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J67" s="7" t="n"/>
-      <c r="K67" s="6" t="n"/>
-      <c r="L67" s="6" t="inlineStr"/>
-      <c r="M67" s="6" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N67" s="8" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O67" s="9" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
+      <c r="N67" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="13" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="10" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B68" s="10" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C68" s="11" t="n">
-        <v>45622</v>
+        <v>45497</v>
       </c>
       <c r="D68" s="10" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E68" s="10" t="inlineStr">
         <is>
-          <t>SO UK INVESTMENT LLC, a washington limited liability company</t>
+          <t>SFR Borrower 2022-1 LLC, a Delaware Limited Liability Company</t>
         </is>
       </c>
       <c r="F68" s="10" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a washington corporation</t>
+          <t>Ryan K. Cook and Allison R. Cook, a married couple, and Linda L. Cornett, a single person</t>
         </is>
       </c>
       <c r="G68" s="10" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H68" s="10" t="inlineStr">
@@ -4782,14 +4786,14 @@
         </is>
       </c>
       <c r="J68" s="11" t="n">
-        <v>45718</v>
+        <v>45525</v>
       </c>
       <c r="K68" s="10" t="n">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="L68" s="10" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #097</t>
+          <t>Transfer Fee - Capital Contribution - Unit #048</t>
         </is>
       </c>
       <c r="M68" s="10" t="inlineStr">
@@ -4802,181 +4806,185 @@
       </c>
       <c r="O68" s="13" t="inlineStr">
         <is>
-          <t>GL/deed date delta: 96 days.</t>
+          <t>Resale escrow 8/21/2024 from 2024-08-31-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B69" s="10" t="n">
-        <v>97</v>
-      </c>
-      <c r="C69" s="11" t="n">
-        <v>45698</v>
-      </c>
-      <c r="D69" s="10" t="inlineStr">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="C69" s="7" t="n">
+        <v>45497</v>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E69" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="F69" s="10" t="inlineStr">
-        <is>
-          <t>JENNIFER S. MAGNUSON and DAVID J. MAGNUSON, wife and husband, and ADRIENNE R. GREEN, an unmarried woman</t>
-        </is>
-      </c>
-      <c r="G69" s="10" t="inlineStr">
-        <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
-        </is>
-      </c>
-      <c r="H69" s="10" t="inlineStr">
+      <c r="E69" s="6" t="inlineStr">
+        <is>
+          <t>Jamie E. Merly and Jason W. Merly, wife and husband,</t>
+        </is>
+      </c>
+      <c r="F69" s="6" t="inlineStr">
+        <is>
+          <t>Martha L. Hall, an unmarried woman, and Juliet Shier, an unmarried woman</t>
+        </is>
+      </c>
+      <c r="G69" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H69" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I69" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I69" s="10" t="inlineStr">
+      <c r="J69" s="7" t="n">
+        <v>45418</v>
+      </c>
+      <c r="K69" s="6" t="n">
+        <v>59</v>
+      </c>
+      <c r="L69" s="6" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #059</t>
+        </is>
+      </c>
+      <c r="M69" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N69" s="8" t="n">
+        <v>-200</v>
+      </c>
+      <c r="O69" s="9" t="inlineStr">
+        <is>
+          <t>Resale escrow 5/6/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 79 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 79 days. Included reversal adjustment(s): 5/6/2024 (-200).</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C70" s="7" t="n">
+        <v>45617</v>
+      </c>
+      <c r="D70" s="6" t="inlineStr">
+        <is>
+          <t>Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E70" s="6" t="inlineStr">
+        <is>
+          <t>, SFR ACQUISITIONS 2 LLC, a Delaware Limited Liability Company for and in consideration of Ten Dollars and other valuable consideration in hand paid, bargains, sells and conveys to SFR BORROWER 2021-2 LLC, a Delaware Limited Liability Company, the following described estate, situated in the County of Thurston, State of Washington:</t>
+        </is>
+      </c>
+      <c r="F70" s="6" t="inlineStr"/>
+      <c r="G70" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H70" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J69" s="11" t="n"/>
-      <c r="K69" s="10" t="n"/>
-      <c r="L69" s="10" t="inlineStr"/>
-      <c r="M69" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N69" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 3/2/2025 from 2025-03-31-10-Homeowner Resale Report.md (delta 20 days).</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B70" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="C70" s="11" t="n">
-        <v>45764</v>
-      </c>
-      <c r="D70" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E70" s="10" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G70" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H70" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I70" s="10" t="inlineStr">
+      <c r="I70" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J70" s="11" t="n">
-        <v>45786</v>
-      </c>
-      <c r="K70" s="10" t="n">
-        <v>47</v>
-      </c>
-      <c r="L70" s="10" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #047</t>
-        </is>
-      </c>
-      <c r="M70" s="10" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N70" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 4/30/2025 from 2025-04-30-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 22 days.</t>
+      <c r="J70" s="7" t="n"/>
+      <c r="K70" s="6" t="n"/>
+      <c r="L70" s="6" t="inlineStr"/>
+      <c r="M70" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N70" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O70" s="9" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="10" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
       <c r="B71" s="10" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>45764</v>
+        <v>45622</v>
       </c>
       <c r="D71" s="10" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E71" s="10" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>SO UK INVESTMENT LLC, a washington limited liability company</t>
         </is>
       </c>
       <c r="F71" s="10" t="inlineStr">
         <is>
-          <t>MARIANNE SCHULZE and RAUL RAMOS, a married couple</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a washington corporation</t>
         </is>
       </c>
       <c r="G71" s="10" t="inlineStr">
         <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
+          <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
       <c r="H71" s="10" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I71" s="10" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I71" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J71" s="11" t="n"/>
-      <c r="K71" s="10" t="n"/>
-      <c r="L71" s="10" t="inlineStr"/>
+      <c r="J71" s="11" t="n">
+        <v>45718</v>
+      </c>
+      <c r="K71" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="L71" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #097</t>
+        </is>
+      </c>
       <c r="M71" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
@@ -4985,504 +4993,626 @@
       <c r="N71" s="12" t="n">
         <v>0</v>
       </c>
-      <c r="O71" s="13" t="inlineStr"/>
+      <c r="O71" s="13" t="inlineStr">
+        <is>
+          <t>GL/deed date delta: 96 days.</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="10" t="inlineStr">
         <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="C72" s="11" t="n">
+        <v>45644</v>
+      </c>
+      <c r="D72" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E72" s="10" t="inlineStr">
+        <is>
+          <t>William Spangler and Susan Bloomfield, a married couple</t>
+        </is>
+      </c>
+      <c r="F72" s="10" t="inlineStr">
+        <is>
+          <t>Chelsie Busey and Robert Busey, a married couple</t>
+        </is>
+      </c>
+      <c r="G72" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H72" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I72" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J72" s="11" t="n">
+        <v>45677</v>
+      </c>
+      <c r="K72" s="10" t="n">
+        <v>49</v>
+      </c>
+      <c r="L72" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #049</t>
+        </is>
+      </c>
+      <c r="M72" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N72" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 1/20/2025 from 2025-01-31-10-Homeowner Resale Report.md (delta 33 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 33 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="10" t="inlineStr">
+        <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B72" s="10" t="n">
+      <c r="B73" s="10" t="n">
+        <v>97</v>
+      </c>
+      <c r="C73" s="11" t="n">
+        <v>45698</v>
+      </c>
+      <c r="D73" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E73" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="inlineStr">
+        <is>
+          <t>JENNIFER S. MAGNUSON and DAVID J. MAGNUSON, wife and husband, and ADRIENNE R. GREEN, an unmarried woman</t>
+        </is>
+      </c>
+      <c r="G73" s="10" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H73" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I73" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J73" s="11" t="n"/>
+      <c r="K73" s="10" t="n"/>
+      <c r="L73" s="10" t="inlineStr"/>
+      <c r="M73" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N73" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 3/2/2025 from 2025-03-31-10-Homeowner Resale Report.md (delta 20 days).</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B74" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>45764</v>
+      </c>
+      <c r="D74" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E74" s="10" t="inlineStr">
+        <is>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F74" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G74" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H74" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J74" s="11" t="n">
+        <v>45786</v>
+      </c>
+      <c r="K74" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="L74" s="10" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #047</t>
+        </is>
+      </c>
+      <c r="M74" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N74" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/30/2025 from 2025-04-30-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 22 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="n">
+        <v>47</v>
+      </c>
+      <c r="C75" s="11" t="n">
+        <v>45764</v>
+      </c>
+      <c r="D75" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E75" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="inlineStr">
+        <is>
+          <t>MARIANNE SCHULZE and RAUL RAMOS, a married couple</t>
+        </is>
+      </c>
+      <c r="G75" s="10" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H75" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I75" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J75" s="11" t="n"/>
+      <c r="K75" s="10" t="n"/>
+      <c r="L75" s="10" t="inlineStr"/>
+      <c r="M75" s="10" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N75" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="13" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B76" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="C72" s="11" t="n">
+      <c r="C76" s="11" t="n">
         <v>45782</v>
       </c>
-      <c r="D72" s="10" t="inlineStr">
+      <c r="D76" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E72" s="10" t="inlineStr">
+      <c r="E76" s="10" t="inlineStr">
         <is>
           <t>Christopher R Barner and Gina D Barner, a married couple</t>
         </is>
       </c>
-      <c r="F72" s="10" t="inlineStr">
+      <c r="F76" s="10" t="inlineStr">
         <is>
           <t>Joshua J Creekpaum, an unmarried man and Tara Morey, an unmarried woman</t>
         </is>
       </c>
-      <c r="G72" s="10" t="inlineStr">
+      <c r="G76" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H72" s="10" t="inlineStr">
+      <c r="H76" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I72" s="10" t="inlineStr">
+      <c r="I76" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J72" s="11" t="n">
+      <c r="J76" s="11" t="n">
         <v>45797</v>
       </c>
-      <c r="K72" s="10" t="n">
+      <c r="K76" s="10" t="n">
         <v>73</v>
       </c>
-      <c r="L72" s="10" t="inlineStr">
+      <c r="L76" s="10" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit #073</t>
         </is>
       </c>
-      <c r="M72" s="10" t="inlineStr">
+      <c r="M76" s="10" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N72" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" s="13" t="inlineStr">
+      <c r="N76" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="13" t="inlineStr">
         <is>
           <t>Resale escrow 5/20/2025 from 2025-05-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="6" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B73" s="6" t="n">
+      <c r="B77" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="C73" s="7" t="n">
+      <c r="C77" s="7" t="n">
         <v>45862</v>
       </c>
-      <c r="D73" s="6" t="inlineStr">
+      <c r="D77" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E73" s="6" t="inlineStr">
+      <c r="E77" s="6" t="inlineStr">
         <is>
           <t>Bernadette M. Niebuhr, an unmarried person</t>
         </is>
       </c>
-      <c r="F73" s="6" t="inlineStr">
+      <c r="F77" s="6" t="inlineStr">
         <is>
           <t>Brenden Higashi, an unmarried man, and Miles Sari, an unmarried man</t>
         </is>
       </c>
-      <c r="G73" s="6" t="inlineStr">
+      <c r="G77" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H73" s="6" t="inlineStr">
+      <c r="H77" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I73" s="6" t="inlineStr">
+      <c r="I77" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J73" s="7" t="n"/>
-      <c r="K73" s="6" t="n"/>
-      <c r="L73" s="6" t="inlineStr"/>
-      <c r="M73" s="6" t="inlineStr">
+      <c r="J77" s="7" t="n"/>
+      <c r="K77" s="6" t="n"/>
+      <c r="L77" s="6" t="inlineStr"/>
+      <c r="M77" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N73" s="8" t="n">
+      <c r="N77" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O73" s="9" t="inlineStr">
+      <c r="O77" s="9" t="inlineStr">
         <is>
           <t>Resale escrow 7/30/2025 from 2025-07-31-12-Homeowner Resale Report.md (delta 6 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="6" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="6" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B74" s="6" t="n">
+      <c r="B78" s="6" t="n">
+        <v>26</v>
+      </c>
+      <c r="C78" s="7" t="n">
+        <v>45897</v>
+      </c>
+      <c r="D78" s="6" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E78" s="6" t="inlineStr">
+        <is>
+          <t>Denise Renee Sinclair, an unmarried person</t>
+        </is>
+      </c>
+      <c r="F78" s="6" t="inlineStr">
+        <is>
+          <t>Christopher Haymes, an unmarried individual</t>
+        </is>
+      </c>
+      <c r="G78" s="6" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I78" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J78" s="7" t="n"/>
+      <c r="K78" s="6" t="n"/>
+      <c r="L78" s="6" t="inlineStr"/>
+      <c r="M78" s="6" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N78" s="8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O78" s="9" t="inlineStr">
+        <is>
+          <t>Resale escrow 9/4/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 7 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="C74" s="7" t="n">
+      <c r="C79" s="7" t="n">
         <v>45898</v>
       </c>
-      <c r="D74" s="6" t="inlineStr">
+      <c r="D79" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E74" s="6" t="inlineStr">
+      <c r="E79" s="6" t="inlineStr">
         <is>
           <t>Justin Boevers WTTA AS A married man, now single</t>
         </is>
       </c>
-      <c r="F74" s="6" t="inlineStr">
+      <c r="F79" s="6" t="inlineStr">
         <is>
           <t>Corie Hancock WTTA AS A married woman, now single</t>
         </is>
       </c>
-      <c r="G74" s="6" t="inlineStr">
+      <c r="G79" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H74" s="6" t="inlineStr">
+      <c r="H79" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I74" s="6" t="inlineStr">
+      <c r="I79" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J74" s="7" t="n"/>
-      <c r="K74" s="6" t="n"/>
-      <c r="L74" s="6" t="inlineStr"/>
-      <c r="M74" s="6" t="inlineStr">
+      <c r="J79" s="7" t="n"/>
+      <c r="K79" s="6" t="n"/>
+      <c r="L79" s="6" t="inlineStr"/>
+      <c r="M79" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N74" s="8" t="n">
+      <c r="N79" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O74" s="9" t="inlineStr">
+      <c r="O79" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="6" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="6" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B75" s="6" t="n">
+      <c r="B80" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="C75" s="7" t="n">
+      <c r="C80" s="7" t="n">
         <v>45926</v>
       </c>
-      <c r="D75" s="6" t="inlineStr">
+      <c r="D80" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E75" s="6" t="inlineStr">
+      <c r="E80" s="6" t="inlineStr">
         <is>
           <t>DENISE NAPIER, AN UNMARRIED WOMAN</t>
         </is>
       </c>
-      <c r="F75" s="6" t="inlineStr">
+      <c r="F80" s="6" t="inlineStr">
         <is>
           <t>JORDAN . PINE AND LAIKLYN L. PINE, A MARRIED COUPLE</t>
         </is>
       </c>
-      <c r="G75" s="6" t="inlineStr">
+      <c r="G80" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H75" s="6" t="inlineStr">
+      <c r="H80" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I75" s="6" t="inlineStr">
+      <c r="I80" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J75" s="7" t="n"/>
-      <c r="K75" s="6" t="n"/>
-      <c r="L75" s="6" t="inlineStr"/>
-      <c r="M75" s="6" t="inlineStr">
+      <c r="J80" s="7" t="n"/>
+      <c r="K80" s="6" t="n"/>
+      <c r="L80" s="6" t="inlineStr"/>
+      <c r="M80" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N75" s="8" t="n">
+      <c r="N80" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O75" s="9" t="inlineStr">
+      <c r="O80" s="9" t="inlineStr">
         <is>
           <t>Resale escrow 9/30/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 4 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="6" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B76" s="6" t="n">
+      <c r="B81" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="C76" s="7" t="n">
+      <c r="C81" s="7" t="n">
         <v>45974</v>
       </c>
-      <c r="D76" s="6" t="inlineStr">
+      <c r="D81" s="6" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E76" s="6" t="inlineStr">
+      <c r="E81" s="6" t="inlineStr">
         <is>
           <t>Andriana Jeon, Spouse of Abraham Jeon</t>
         </is>
       </c>
-      <c r="F76" s="6" t="inlineStr">
+      <c r="F81" s="6" t="inlineStr">
         <is>
           <t>Abraham Jeon, a married man as his sole and separate property</t>
         </is>
       </c>
-      <c r="G76" s="6" t="inlineStr">
+      <c r="G81" s="6" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H76" s="6" t="inlineStr">
+      <c r="H81" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I76" s="6" t="inlineStr">
+      <c r="I81" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J76" s="7" t="n"/>
-      <c r="K76" s="6" t="n"/>
-      <c r="L76" s="6" t="inlineStr"/>
-      <c r="M76" s="6" t="inlineStr">
+      <c r="J81" s="7" t="n"/>
+      <c r="K81" s="6" t="n"/>
+      <c r="L81" s="6" t="inlineStr"/>
+      <c r="M81" s="6" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N76" s="8" t="n">
+      <c r="N81" s="8" t="n">
         <v>-500</v>
       </c>
-      <c r="O76" s="9" t="inlineStr">
+      <c r="O81" s="9" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="14" t="inlineStr"/>
-      <c r="B77" s="14" t="n">
-        <v>69</v>
-      </c>
-      <c r="C77" s="15" t="n"/>
-      <c r="D77" s="14" t="inlineStr"/>
-      <c r="E77" s="14" t="inlineStr"/>
-      <c r="F77" s="14" t="inlineStr"/>
-      <c r="G77" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H77" s="14" t="inlineStr"/>
-      <c r="I77" s="14" t="inlineStr"/>
-      <c r="J77" s="15" t="n">
-        <v>44208</v>
-      </c>
-      <c r="K77" s="14" t="n">
-        <v>69</v>
-      </c>
-      <c r="L77" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution Unit 069</t>
-        </is>
-      </c>
-      <c r="M77" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N77" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="O77" s="17" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=1/12/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="14" t="inlineStr"/>
-      <c r="B78" s="14" t="n"/>
-      <c r="C78" s="15" t="n"/>
-      <c r="D78" s="14" t="inlineStr"/>
-      <c r="E78" s="14" t="inlineStr"/>
-      <c r="F78" s="14" t="inlineStr"/>
-      <c r="G78" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H78" s="14" t="inlineStr"/>
-      <c r="I78" s="14" t="inlineStr"/>
-      <c r="J78" s="15" t="n">
-        <v>44236</v>
-      </c>
-      <c r="K78" s="14" t="n"/>
-      <c r="L78" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution</t>
-        </is>
-      </c>
-      <c r="M78" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N78" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="O78" s="17" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=2/9/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="14" t="inlineStr"/>
-      <c r="B79" s="14" t="n"/>
-      <c r="C79" s="15" t="n"/>
-      <c r="D79" s="14" t="inlineStr"/>
-      <c r="E79" s="14" t="inlineStr"/>
-      <c r="F79" s="14" t="inlineStr"/>
-      <c r="G79" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H79" s="14" t="inlineStr"/>
-      <c r="I79" s="14" t="inlineStr"/>
-      <c r="J79" s="15" t="n">
-        <v>44260</v>
-      </c>
-      <c r="K79" s="14" t="n"/>
-      <c r="L79" s="14" t="inlineStr">
-        <is>
-          <t>Capital Reserve Contribution</t>
-        </is>
-      </c>
-      <c r="M79" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N79" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="O79" s="17" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=3/5/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="14" t="inlineStr"/>
-      <c r="B80" s="14" t="n"/>
-      <c r="C80" s="15" t="n"/>
-      <c r="D80" s="14" t="inlineStr"/>
-      <c r="E80" s="14" t="inlineStr"/>
-      <c r="F80" s="14" t="inlineStr"/>
-      <c r="G80" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H80" s="14" t="inlineStr"/>
-      <c r="I80" s="14" t="inlineStr"/>
-      <c r="J80" s="15" t="n">
-        <v>44260</v>
-      </c>
-      <c r="K80" s="14" t="n"/>
-      <c r="L80" s="14" t="inlineStr">
-        <is>
-          <t>Capital Reserve Contribution.</t>
-        </is>
-      </c>
-      <c r="M80" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N80" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="O80" s="17" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=3/5/2021</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="14" t="inlineStr"/>
-      <c r="B81" s="14" t="n"/>
-      <c r="C81" s="15" t="n"/>
-      <c r="D81" s="14" t="inlineStr"/>
-      <c r="E81" s="14" t="inlineStr"/>
-      <c r="F81" s="14" t="inlineStr"/>
-      <c r="G81" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H81" s="14" t="inlineStr"/>
-      <c r="I81" s="14" t="inlineStr"/>
-      <c r="J81" s="15" t="n">
-        <v>44260</v>
-      </c>
-      <c r="K81" s="14" t="n"/>
-      <c r="L81" s="14" t="inlineStr">
-        <is>
-          <t>Capital Reserve Contribution.</t>
-        </is>
-      </c>
-      <c r="M81" s="14" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N81" s="16" t="n">
-        <v>500</v>
-      </c>
-      <c r="O81" s="17" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=3/5/2021</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="14" t="inlineStr"/>
       <c r="B82" s="14" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C82" s="15" t="n"/>
       <c r="D82" s="14" t="inlineStr"/>
@@ -5490,20 +5620,20 @@
       <c r="F82" s="14" t="inlineStr"/>
       <c r="G82" s="14" t="inlineStr">
         <is>
-          <t>Unmatched GL entry</t>
+          <t>GL tied to pre-amendment deed</t>
         </is>
       </c>
       <c r="H82" s="14" t="inlineStr"/>
       <c r="I82" s="14" t="inlineStr"/>
       <c r="J82" s="15" t="n">
-        <v>44333</v>
+        <v>44208</v>
       </c>
       <c r="K82" s="14" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="L82" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit 050</t>
+          <t>Transfer Fee - Capital Contribution Unit 069</t>
         </is>
       </c>
       <c r="M82" s="14" t="inlineStr">
@@ -5512,19 +5642,17 @@
         </is>
       </c>
       <c r="N82" s="16" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="O82" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/17/2021</t>
+          <t>Type=collection; source=AR; original date=1/12/2021. Nearest deed for lot 69: 01/04/2021 (recording #4815479), 8 days from GL.</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="14" t="inlineStr"/>
-      <c r="B83" s="14" t="n">
-        <v>9</v>
-      </c>
+      <c r="B83" s="14" t="n"/>
       <c r="C83" s="15" t="n"/>
       <c r="D83" s="14" t="inlineStr"/>
       <c r="E83" s="14" t="inlineStr"/>
@@ -5537,14 +5665,12 @@
       <c r="H83" s="14" t="inlineStr"/>
       <c r="I83" s="14" t="inlineStr"/>
       <c r="J83" s="15" t="n">
-        <v>44375</v>
-      </c>
-      <c r="K83" s="14" t="n">
-        <v>9</v>
-      </c>
+        <v>44236</v>
+      </c>
+      <c r="K83" s="14" t="n"/>
       <c r="L83" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 009</t>
+          <t>Transfer Fee - Capital Contribution</t>
         </is>
       </c>
       <c r="M83" s="14" t="inlineStr">
@@ -5557,15 +5683,13 @@
       </c>
       <c r="O83" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/28/2021</t>
+          <t>Type=collection; source=AR; original date=2/9/2021.</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="14" t="inlineStr"/>
-      <c r="B84" s="14" t="n">
-        <v>10</v>
-      </c>
+      <c r="B84" s="14" t="n"/>
       <c r="C84" s="15" t="n"/>
       <c r="D84" s="14" t="inlineStr"/>
       <c r="E84" s="14" t="inlineStr"/>
@@ -5578,14 +5702,12 @@
       <c r="H84" s="14" t="inlineStr"/>
       <c r="I84" s="14" t="inlineStr"/>
       <c r="J84" s="15" t="n">
-        <v>44375</v>
-      </c>
-      <c r="K84" s="14" t="n">
-        <v>10</v>
-      </c>
+        <v>44260</v>
+      </c>
+      <c r="K84" s="14" t="n"/>
       <c r="L84" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 010</t>
+          <t>Capital Reserve Contribution</t>
         </is>
       </c>
       <c r="M84" s="14" t="inlineStr">
@@ -5598,7 +5720,7 @@
       </c>
       <c r="O84" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/28/2021</t>
+          <t>Type=collection; source=AR; original date=3/5/2021.</t>
         </is>
       </c>
     </row>
@@ -5617,12 +5739,12 @@
       <c r="H85" s="14" t="inlineStr"/>
       <c r="I85" s="14" t="inlineStr"/>
       <c r="J85" s="15" t="n">
-        <v>44383</v>
+        <v>44260</v>
       </c>
       <c r="K85" s="14" t="n"/>
       <c r="L85" s="14" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution</t>
+          <t>Capital Reserve Contribution.</t>
         </is>
       </c>
       <c r="M85" s="14" t="inlineStr">
@@ -5635,15 +5757,13 @@
       </c>
       <c r="O85" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=7/6/2021</t>
+          <t>Type=collection; source=AR; original date=3/5/2021.</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="14" t="inlineStr"/>
-      <c r="B86" s="14" t="n">
-        <v>64</v>
-      </c>
+      <c r="B86" s="14" t="n"/>
       <c r="C86" s="15" t="n"/>
       <c r="D86" s="14" t="inlineStr"/>
       <c r="E86" s="14" t="inlineStr"/>
@@ -5656,14 +5776,12 @@
       <c r="H86" s="14" t="inlineStr"/>
       <c r="I86" s="14" t="inlineStr"/>
       <c r="J86" s="15" t="n">
-        <v>44449</v>
-      </c>
-      <c r="K86" s="14" t="n">
-        <v>64</v>
-      </c>
+        <v>44260</v>
+      </c>
+      <c r="K86" s="14" t="n"/>
       <c r="L86" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 064</t>
+          <t>Capital Reserve Contribution.</t>
         </is>
       </c>
       <c r="M86" s="14" t="inlineStr">
@@ -5676,13 +5794,15 @@
       </c>
       <c r="O86" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=9/10/2021</t>
+          <t>Type=collection; source=AR; original date=3/5/2021.</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="14" t="inlineStr"/>
-      <c r="B87" s="14" t="n"/>
+      <c r="B87" s="14" t="n">
+        <v>50</v>
+      </c>
       <c r="C87" s="15" t="n"/>
       <c r="D87" s="14" t="inlineStr"/>
       <c r="E87" s="14" t="inlineStr"/>
@@ -5695,12 +5815,14 @@
       <c r="H87" s="14" t="inlineStr"/>
       <c r="I87" s="14" t="inlineStr"/>
       <c r="J87" s="15" t="n">
-        <v>44546</v>
-      </c>
-      <c r="K87" s="14" t="n"/>
+        <v>44333</v>
+      </c>
+      <c r="K87" s="14" t="n">
+        <v>50</v>
+      </c>
       <c r="L87" s="14" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution</t>
+          <t>Capital Contribution - Unit 050</t>
         </is>
       </c>
       <c r="M87" s="14" t="inlineStr">
@@ -5709,17 +5831,19 @@
         </is>
       </c>
       <c r="N87" s="16" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="O87" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=12/16/2021</t>
+          <t>Type=collection; source=AR; original date=5/17/2021.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="14" t="inlineStr"/>
-      <c r="B88" s="14" t="n"/>
+      <c r="B88" s="14" t="n">
+        <v>9</v>
+      </c>
       <c r="C88" s="15" t="n"/>
       <c r="D88" s="14" t="inlineStr"/>
       <c r="E88" s="14" t="inlineStr"/>
@@ -5732,12 +5856,14 @@
       <c r="H88" s="14" t="inlineStr"/>
       <c r="I88" s="14" t="inlineStr"/>
       <c r="J88" s="15" t="n">
-        <v>44565</v>
-      </c>
-      <c r="K88" s="14" t="n"/>
+        <v>44375</v>
+      </c>
+      <c r="K88" s="14" t="n">
+        <v>9</v>
+      </c>
       <c r="L88" s="14" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution</t>
+          <t>Transfer Fee - Capital Contribution Unit 009</t>
         </is>
       </c>
       <c r="M88" s="14" t="inlineStr">
@@ -5750,14 +5876,14 @@
       </c>
       <c r="O88" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=1/4/2022</t>
+          <t>Type=collection; source=AR; original date=6/28/2021.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="14" t="inlineStr"/>
       <c r="B89" s="14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C89" s="15" t="n"/>
       <c r="D89" s="14" t="inlineStr"/>
@@ -5771,14 +5897,14 @@
       <c r="H89" s="14" t="inlineStr"/>
       <c r="I89" s="14" t="inlineStr"/>
       <c r="J89" s="15" t="n">
-        <v>44641</v>
+        <v>44375</v>
       </c>
       <c r="K89" s="14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L89" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 008</t>
+          <t>Transfer Fee - Capital Contribution Unit 010</t>
         </is>
       </c>
       <c r="M89" s="14" t="inlineStr">
@@ -5791,15 +5917,13 @@
       </c>
       <c r="O89" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=3/21/2022</t>
+          <t>Type=collection; source=AR; original date=6/28/2021.</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="14" t="inlineStr"/>
-      <c r="B90" s="14" t="n">
-        <v>11</v>
-      </c>
+      <c r="B90" s="14" t="n"/>
       <c r="C90" s="15" t="n"/>
       <c r="D90" s="14" t="inlineStr"/>
       <c r="E90" s="14" t="inlineStr"/>
@@ -5812,14 +5936,12 @@
       <c r="H90" s="14" t="inlineStr"/>
       <c r="I90" s="14" t="inlineStr"/>
       <c r="J90" s="15" t="n">
-        <v>44673</v>
-      </c>
-      <c r="K90" s="14" t="n">
-        <v>11</v>
-      </c>
+        <v>44383</v>
+      </c>
+      <c r="K90" s="14" t="n"/>
       <c r="L90" s="14" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution - Unit 011</t>
+          <t>Capital Reserve Contribution</t>
         </is>
       </c>
       <c r="M90" s="14" t="inlineStr">
@@ -5832,14 +5954,14 @@
       </c>
       <c r="O90" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=4/22/2022</t>
+          <t>Type=collection; source=AR; original date=7/6/2021.</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="14" t="inlineStr"/>
       <c r="B91" s="14" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="C91" s="15" t="n"/>
       <c r="D91" s="14" t="inlineStr"/>
@@ -5853,14 +5975,14 @@
       <c r="H91" s="14" t="inlineStr"/>
       <c r="I91" s="14" t="inlineStr"/>
       <c r="J91" s="15" t="n">
-        <v>44673</v>
+        <v>44449</v>
       </c>
       <c r="K91" s="14" t="n">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="L91" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit 011</t>
+          <t>Transfer Fee - Capital Contribution Unit 064</t>
         </is>
       </c>
       <c r="M91" s="14" t="inlineStr">
@@ -5873,15 +5995,13 @@
       </c>
       <c r="O91" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=4/22/2022</t>
+          <t>Type=collection; source=AR; original date=9/10/2021.</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="14" t="inlineStr"/>
-      <c r="B92" s="14" t="n">
-        <v>11</v>
-      </c>
+      <c r="B92" s="14" t="n"/>
       <c r="C92" s="15" t="n"/>
       <c r="D92" s="14" t="inlineStr"/>
       <c r="E92" s="14" t="inlineStr"/>
@@ -5894,14 +6014,12 @@
       <c r="H92" s="14" t="inlineStr"/>
       <c r="I92" s="14" t="inlineStr"/>
       <c r="J92" s="15" t="n">
-        <v>44673</v>
-      </c>
-      <c r="K92" s="14" t="n">
-        <v>11</v>
-      </c>
+        <v>44546</v>
+      </c>
+      <c r="K92" s="14" t="n"/>
       <c r="L92" s="14" t="inlineStr">
         <is>
-          <t>REVERSAL - [Capital Reserve Contribution - Unit 011]</t>
+          <t>Capital Reserve Contribution</t>
         </is>
       </c>
       <c r="M92" s="14" t="inlineStr">
@@ -5910,11 +6028,11 @@
         </is>
       </c>
       <c r="N92" s="16" t="n">
-        <v>-500</v>
+        <v>500</v>
       </c>
       <c r="O92" s="17" t="inlineStr">
         <is>
-          <t>Type=reversal; source=AR; original date=4/22/2022</t>
+          <t>Type=collection; source=AR; original date=12/16/2021.</t>
         </is>
       </c>
     </row>
@@ -5933,12 +6051,12 @@
       <c r="H93" s="14" t="inlineStr"/>
       <c r="I93" s="14" t="inlineStr"/>
       <c r="J93" s="15" t="n">
-        <v>44862</v>
+        <v>44565</v>
       </c>
       <c r="K93" s="14" t="n"/>
       <c r="L93" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution</t>
+          <t>Capital Reserve Contribution</t>
         </is>
       </c>
       <c r="M93" s="14" t="inlineStr">
@@ -5951,13 +6069,15 @@
       </c>
       <c r="O93" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=10/28/2022</t>
+          <t>Type=collection; source=AR; original date=1/4/2022.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="14" t="inlineStr"/>
-      <c r="B94" s="14" t="n"/>
+      <c r="B94" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="C94" s="15" t="n"/>
       <c r="D94" s="14" t="inlineStr"/>
       <c r="E94" s="14" t="inlineStr"/>
@@ -5970,12 +6090,14 @@
       <c r="H94" s="14" t="inlineStr"/>
       <c r="I94" s="14" t="inlineStr"/>
       <c r="J94" s="15" t="n">
-        <v>44862</v>
-      </c>
-      <c r="K94" s="14" t="n"/>
+        <v>44641</v>
+      </c>
+      <c r="K94" s="14" t="n">
+        <v>8</v>
+      </c>
       <c r="L94" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution</t>
+          <t>Transfer Fee - Capital Contribution Unit 008</t>
         </is>
       </c>
       <c r="M94" s="14" t="inlineStr">
@@ -5988,14 +6110,14 @@
       </c>
       <c r="O94" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=10/28/2022</t>
+          <t>Type=collection; source=AR; original date=3/21/2022.</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="14" t="inlineStr"/>
       <c r="B95" s="14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C95" s="15" t="n"/>
       <c r="D95" s="14" t="inlineStr"/>
@@ -6009,14 +6131,14 @@
       <c r="H95" s="14" t="inlineStr"/>
       <c r="I95" s="14" t="inlineStr"/>
       <c r="J95" s="15" t="n">
-        <v>44914</v>
+        <v>44673</v>
       </c>
       <c r="K95" s="14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L95" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #010</t>
+          <t>Capital Reserve Contribution - Unit 011</t>
         </is>
       </c>
       <c r="M95" s="14" t="inlineStr">
@@ -6029,14 +6151,14 @@
       </c>
       <c r="O95" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=12/19/2022</t>
+          <t>Type=collection; source=AR; original date=4/22/2022.</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="14" t="inlineStr"/>
       <c r="B96" s="14" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="C96" s="15" t="n"/>
       <c r="D96" s="14" t="inlineStr"/>
@@ -6050,14 +6172,14 @@
       <c r="H96" s="14" t="inlineStr"/>
       <c r="I96" s="14" t="inlineStr"/>
       <c r="J96" s="15" t="n">
-        <v>44916</v>
+        <v>44673</v>
       </c>
       <c r="K96" s="14" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="L96" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit#065</t>
+          <t>Transfer Fee - Capital Contribution - Unit 011</t>
         </is>
       </c>
       <c r="M96" s="14" t="inlineStr">
@@ -6070,14 +6192,14 @@
       </c>
       <c r="O96" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=12/21/2022</t>
+          <t>Type=collection; source=AR; original date=4/22/2022.</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="14" t="inlineStr"/>
       <c r="B97" s="14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C97" s="15" t="n"/>
       <c r="D97" s="14" t="inlineStr"/>
@@ -6091,14 +6213,14 @@
       <c r="H97" s="14" t="inlineStr"/>
       <c r="I97" s="14" t="inlineStr"/>
       <c r="J97" s="15" t="n">
-        <v>44993</v>
+        <v>44673</v>
       </c>
       <c r="K97" s="14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L97" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 009</t>
+          <t>REVERSAL - [Capital Reserve Contribution - Unit 011]</t>
         </is>
       </c>
       <c r="M97" s="14" t="inlineStr">
@@ -6107,19 +6229,17 @@
         </is>
       </c>
       <c r="N97" s="16" t="n">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="O97" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=3/8/2023</t>
+          <t>Type=reversal; source=AR; original date=4/22/2022.</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="14" t="inlineStr"/>
-      <c r="B98" s="14" t="n">
-        <v>5</v>
-      </c>
+      <c r="B98" s="14" t="n"/>
       <c r="C98" s="15" t="n"/>
       <c r="D98" s="14" t="inlineStr"/>
       <c r="E98" s="14" t="inlineStr"/>
@@ -6132,14 +6252,12 @@
       <c r="H98" s="14" t="inlineStr"/>
       <c r="I98" s="14" t="inlineStr"/>
       <c r="J98" s="15" t="n">
-        <v>45015</v>
-      </c>
-      <c r="K98" s="14" t="n">
-        <v>5</v>
-      </c>
+        <v>44862</v>
+      </c>
+      <c r="K98" s="14" t="n"/>
       <c r="L98" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 005</t>
+          <t>Transfer Fee - Capital Contribution</t>
         </is>
       </c>
       <c r="M98" s="14" t="inlineStr">
@@ -6152,15 +6270,13 @@
       </c>
       <c r="O98" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=3/30/2023</t>
+          <t>Type=collection; source=AR; original date=10/28/2022.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="14" t="inlineStr"/>
-      <c r="B99" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="B99" s="14" t="n"/>
       <c r="C99" s="15" t="n"/>
       <c r="D99" s="14" t="inlineStr"/>
       <c r="E99" s="14" t="inlineStr"/>
@@ -6173,14 +6289,12 @@
       <c r="H99" s="14" t="inlineStr"/>
       <c r="I99" s="14" t="inlineStr"/>
       <c r="J99" s="15" t="n">
-        <v>45065</v>
-      </c>
-      <c r="K99" s="14" t="n">
-        <v>1</v>
-      </c>
+        <v>44862</v>
+      </c>
+      <c r="K99" s="14" t="n"/>
       <c r="L99" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 001</t>
+          <t>Capital Contribution</t>
         </is>
       </c>
       <c r="M99" s="14" t="inlineStr">
@@ -6193,14 +6307,14 @@
       </c>
       <c r="O99" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/19/2023</t>
+          <t>Type=collection; source=AR; original date=10/28/2022.</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="14" t="inlineStr"/>
       <c r="B100" s="14" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="C100" s="15" t="n"/>
       <c r="D100" s="14" t="inlineStr"/>
@@ -6214,14 +6328,14 @@
       <c r="H100" s="14" t="inlineStr"/>
       <c r="I100" s="14" t="inlineStr"/>
       <c r="J100" s="15" t="n">
-        <v>45418</v>
+        <v>44914</v>
       </c>
       <c r="K100" s="14" t="n">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L100" s="14" t="inlineStr">
         <is>
-          <t>REVERSAL - [Transfer Fee - Capital Contribution - Unit #059]</t>
+          <t>Transfer Fee - Capital Contribution - Unit #010</t>
         </is>
       </c>
       <c r="M100" s="14" t="inlineStr">
@@ -6230,18 +6344,18 @@
         </is>
       </c>
       <c r="N100" s="16" t="n">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="O100" s="17" t="inlineStr">
         <is>
-          <t>Type=reversal; source=AR; original date=5/6/2024</t>
+          <t>Type=collection; source=AR; original date=12/19/2022.</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="14" t="inlineStr"/>
       <c r="B101" s="14" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C101" s="15" t="n"/>
       <c r="D101" s="14" t="inlineStr"/>
@@ -6255,14 +6369,14 @@
       <c r="H101" s="14" t="inlineStr"/>
       <c r="I101" s="14" t="inlineStr"/>
       <c r="J101" s="15" t="n">
-        <v>45418</v>
+        <v>44916</v>
       </c>
       <c r="K101" s="14" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="L101" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #059</t>
+          <t>Capital Contribution - Unit#065</t>
         </is>
       </c>
       <c r="M101" s="14" t="inlineStr">
@@ -6275,14 +6389,14 @@
       </c>
       <c r="O101" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/6/2024</t>
+          <t>Type=collection; source=AR; original date=12/21/2022.</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="14" t="inlineStr"/>
       <c r="B102" s="14" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="C102" s="15" t="n"/>
       <c r="D102" s="14" t="inlineStr"/>
@@ -6296,14 +6410,14 @@
       <c r="H102" s="14" t="inlineStr"/>
       <c r="I102" s="14" t="inlineStr"/>
       <c r="J102" s="15" t="n">
-        <v>45418</v>
+        <v>44993</v>
       </c>
       <c r="K102" s="14" t="n">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="L102" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #059</t>
+          <t>Capital Contribution - Unit# 009</t>
         </is>
       </c>
       <c r="M102" s="14" t="inlineStr">
@@ -6312,18 +6426,18 @@
         </is>
       </c>
       <c r="N102" s="16" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="O102" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/6/2024</t>
+          <t>Type=collection; source=AR; original date=3/8/2023.</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="14" t="inlineStr"/>
       <c r="B103" s="14" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="C103" s="15" t="n"/>
       <c r="D103" s="14" t="inlineStr"/>
@@ -6337,14 +6451,14 @@
       <c r="H103" s="14" t="inlineStr"/>
       <c r="I103" s="14" t="inlineStr"/>
       <c r="J103" s="15" t="n">
-        <v>45420</v>
+        <v>45015</v>
       </c>
       <c r="K103" s="14" t="n">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="L103" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - 109</t>
+          <t>Capital Contribution - Unit# 005</t>
         </is>
       </c>
       <c r="M103" s="14" t="inlineStr">
@@ -6357,14 +6471,14 @@
       </c>
       <c r="O103" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/8/2024</t>
+          <t>Type=collection; source=AR; original date=3/30/2023.</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="14" t="inlineStr"/>
       <c r="B104" s="14" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="C104" s="15" t="n"/>
       <c r="D104" s="14" t="inlineStr"/>
@@ -6378,14 +6492,14 @@
       <c r="H104" s="14" t="inlineStr"/>
       <c r="I104" s="14" t="inlineStr"/>
       <c r="J104" s="15" t="n">
-        <v>45420</v>
+        <v>45065</v>
       </c>
       <c r="K104" s="14" t="n">
-        <v>111</v>
+        <v>1</v>
       </c>
       <c r="L104" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #111</t>
+          <t>Capital Contribution - Unit# 001</t>
         </is>
       </c>
       <c r="M104" s="14" t="inlineStr">
@@ -6398,13 +6512,15 @@
       </c>
       <c r="O104" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/8/2024</t>
+          <t>Type=collection; source=AR; original date=5/19/2023.</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="14" t="inlineStr"/>
-      <c r="B105" s="14" t="n"/>
+      <c r="B105" s="14" t="n">
+        <v>59</v>
+      </c>
       <c r="C105" s="15" t="n"/>
       <c r="D105" s="14" t="inlineStr"/>
       <c r="E105" s="14" t="inlineStr"/>
@@ -6417,12 +6533,14 @@
       <c r="H105" s="14" t="inlineStr"/>
       <c r="I105" s="14" t="inlineStr"/>
       <c r="J105" s="15" t="n">
-        <v>45470</v>
-      </c>
-      <c r="K105" s="14" t="n"/>
+        <v>45418</v>
+      </c>
+      <c r="K105" s="14" t="n">
+        <v>59</v>
+      </c>
       <c r="L105" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution</t>
+          <t>Transfer Fee - Capital Contribution - Unit #059</t>
         </is>
       </c>
       <c r="M105" s="14" t="inlineStr">
@@ -6431,18 +6549,18 @@
         </is>
       </c>
       <c r="N105" s="16" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="O105" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/27/2024</t>
+          <t>Type=collection; source=AR; original date=5/6/2024.</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="14" t="inlineStr"/>
       <c r="B106" s="14" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C106" s="15" t="n"/>
       <c r="D106" s="14" t="inlineStr"/>
@@ -6456,14 +6574,14 @@
       <c r="H106" s="14" t="inlineStr"/>
       <c r="I106" s="14" t="inlineStr"/>
       <c r="J106" s="15" t="n">
-        <v>45471</v>
+        <v>45420</v>
       </c>
       <c r="K106" s="14" t="n">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="L106" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution for unit 083</t>
+          <t>Transfer Fee - Capital Contribution - 109</t>
         </is>
       </c>
       <c r="M106" s="14" t="inlineStr">
@@ -6476,14 +6594,14 @@
       </c>
       <c r="O106" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/28/2024</t>
+          <t>Type=collection; source=AR; original date=5/8/2024.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="14" t="inlineStr"/>
       <c r="B107" s="14" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C107" s="15" t="n"/>
       <c r="D107" s="14" t="inlineStr"/>
@@ -6497,14 +6615,14 @@
       <c r="H107" s="14" t="inlineStr"/>
       <c r="I107" s="14" t="inlineStr"/>
       <c r="J107" s="15" t="n">
-        <v>45525</v>
+        <v>45420</v>
       </c>
       <c r="K107" s="14" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L107" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #112</t>
+          <t>Transfer Fee - Capital Contribution - Unit #111</t>
         </is>
       </c>
       <c r="M107" s="14" t="inlineStr">
@@ -6517,15 +6635,13 @@
       </c>
       <c r="O107" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=8/21/2024</t>
+          <t>Type=collection; source=AR; original date=5/8/2024.</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="14" t="inlineStr"/>
-      <c r="B108" s="14" t="n">
-        <v>49</v>
-      </c>
+      <c r="B108" s="14" t="n"/>
       <c r="C108" s="15" t="n"/>
       <c r="D108" s="14" t="inlineStr"/>
       <c r="E108" s="14" t="inlineStr"/>
@@ -6538,14 +6654,12 @@
       <c r="H108" s="14" t="inlineStr"/>
       <c r="I108" s="14" t="inlineStr"/>
       <c r="J108" s="15" t="n">
-        <v>45677</v>
-      </c>
-      <c r="K108" s="14" t="n">
-        <v>49</v>
-      </c>
+        <v>45470</v>
+      </c>
+      <c r="K108" s="14" t="n"/>
       <c r="L108" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #049</t>
+          <t>Transfer Fee - Capital Contribution</t>
         </is>
       </c>
       <c r="M108" s="14" t="inlineStr">
@@ -6558,13 +6672,15 @@
       </c>
       <c r="O108" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=1/20/2025</t>
+          <t>Type=collection; source=AR; original date=6/27/2024.</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="14" t="inlineStr"/>
-      <c r="B109" s="14" t="n"/>
+      <c r="B109" s="14" t="n">
+        <v>112</v>
+      </c>
       <c r="C109" s="15" t="n"/>
       <c r="D109" s="14" t="inlineStr"/>
       <c r="E109" s="14" t="inlineStr"/>
@@ -6577,12 +6693,14 @@
       <c r="H109" s="14" t="inlineStr"/>
       <c r="I109" s="14" t="inlineStr"/>
       <c r="J109" s="15" t="n">
-        <v>45873</v>
-      </c>
-      <c r="K109" s="14" t="n"/>
+        <v>45525</v>
+      </c>
+      <c r="K109" s="14" t="n">
+        <v>112</v>
+      </c>
       <c r="L109" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution</t>
+          <t>Transfer Fee - Capital Contribution - Unit #112</t>
         </is>
       </c>
       <c r="M109" s="14" t="inlineStr">
@@ -6595,7 +6713,7 @@
       </c>
       <c r="O109" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=8/4/2025</t>
+          <t>Type=collection; source=AR; original date=8/21/2024.</t>
         </is>
       </c>
     </row>
@@ -6614,7 +6732,7 @@
       <c r="H110" s="14" t="inlineStr"/>
       <c r="I110" s="14" t="inlineStr"/>
       <c r="J110" s="15" t="n">
-        <v>45919</v>
+        <v>45873</v>
       </c>
       <c r="K110" s="14" t="n"/>
       <c r="L110" s="14" t="inlineStr">
@@ -6632,7 +6750,7 @@
       </c>
       <c r="O110" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=9/19/2025</t>
+          <t>Type=collection; source=AR; original date=8/4/2025.</t>
         </is>
       </c>
     </row>
@@ -6651,7 +6769,7 @@
       <c r="H111" s="14" t="inlineStr"/>
       <c r="I111" s="14" t="inlineStr"/>
       <c r="J111" s="15" t="n">
-        <v>45930</v>
+        <v>45919</v>
       </c>
       <c r="K111" s="14" t="n"/>
       <c r="L111" s="14" t="inlineStr">
@@ -6669,7 +6787,7 @@
       </c>
       <c r="O111" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=9/30/2025</t>
+          <t>Type=collection; source=AR; original date=9/19/2025.</t>
         </is>
       </c>
     </row>
@@ -6688,7 +6806,7 @@
       <c r="H112" s="14" t="inlineStr"/>
       <c r="I112" s="14" t="inlineStr"/>
       <c r="J112" s="15" t="n">
-        <v>45981</v>
+        <v>45930</v>
       </c>
       <c r="K112" s="14" t="n"/>
       <c r="L112" s="14" t="inlineStr">
@@ -6706,7 +6824,44 @@
       </c>
       <c r="O112" s="17" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=11/20/2025</t>
+          <t>Type=collection; source=AR; original date=9/30/2025.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="14" t="inlineStr"/>
+      <c r="B113" s="14" t="n"/>
+      <c r="C113" s="15" t="n"/>
+      <c r="D113" s="14" t="inlineStr"/>
+      <c r="E113" s="14" t="inlineStr"/>
+      <c r="F113" s="14" t="inlineStr"/>
+      <c r="G113" s="14" t="inlineStr">
+        <is>
+          <t>Unmatched GL entry</t>
+        </is>
+      </c>
+      <c r="H113" s="14" t="inlineStr"/>
+      <c r="I113" s="14" t="inlineStr"/>
+      <c r="J113" s="15" t="n">
+        <v>45981</v>
+      </c>
+      <c r="K113" s="14" t="n"/>
+      <c r="L113" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution</t>
+        </is>
+      </c>
+      <c r="M113" s="14" t="inlineStr">
+        <is>
+          <t>Unmatched GL</t>
+        </is>
+      </c>
+      <c r="N113" s="16" t="n">
+        <v>500</v>
+      </c>
+      <c r="O113" s="17" t="inlineStr">
+        <is>
+          <t>Type=collection; source=AR; original date=11/20/2025.</t>
         </is>
       </c>
     </row>
@@ -8555,7 +8710,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8859,7 +9014,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9269,7 +9424,7 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -10111,7 +10266,7 @@
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>3</v>
@@ -10979,7 +11134,7 @@
         <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" t="n">
         <v>1</v>

--- a/conveyance_assessment_analysis.xlsx
+++ b/conveyance_assessment_analysis.xlsx
@@ -1038,128 +1038,128 @@
       <c r="O8" s="17" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" s="14" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" s="11" t="n">
+      <c r="B9" s="14" t="n">
+        <v>92</v>
+      </c>
+      <c r="C9" s="15" t="n">
         <v>44280</v>
       </c>
-      <c r="D9" s="10" t="inlineStr">
+      <c r="D9" s="14" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="E9" s="14" t="inlineStr">
         <is>
           <t>Colleen C. Zwickler, an unmarried woman</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="F9" s="14" t="inlineStr">
         <is>
           <t>Colleen Zwickler, Trustee of Zwickler Family Trust dated October 13, 1994</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="G9" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="H9" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I9" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J9" s="11" t="n"/>
-      <c r="K9" s="10" t="n"/>
-      <c r="L9" s="10" t="inlineStr"/>
-      <c r="M9" s="10" t="inlineStr">
+      <c r="J9" s="15" t="n">
+        <v>44322</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>92</v>
+      </c>
+      <c r="L9" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution Unit 92</t>
+        </is>
+      </c>
+      <c r="M9" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="17" t="inlineStr">
+        <is>
+          <t>GL/deed date delta: 42 days. GL unit 92 matched via multi-lot deed context (primary parsed lot 4).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B10" s="10" t="n">
+        <v>92</v>
+      </c>
+      <c r="C10" s="11" t="n">
+        <v>44313</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>JAMES CUTLER, SPOUSE OF THE GRANTEE</t>
+        </is>
+      </c>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>TANA MARIE DENNERY, A MARRIED WOMAN AS HER SEPARATE ESTATE</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J10" s="11" t="n"/>
+      <c r="K10" s="10" t="n"/>
+      <c r="L10" s="10" t="inlineStr"/>
+      <c r="M10" s="10" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N9" s="12" t="n">
+      <c r="N10" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="O9" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="C10" s="15" t="n">
-        <v>44313</v>
-      </c>
-      <c r="D10" s="14" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>JAMES CUTLER, SPOUSE OF THE GRANTEE</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>TANA MARIE DENNERY, A MARRIED WOMAN AS HER SEPARATE ESTATE</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H10" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I10" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>44322</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>92</v>
-      </c>
-      <c r="L10" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution Unit 92</t>
-        </is>
-      </c>
-      <c r="M10" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N10" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 5/6/2021 from 2021-05-31-10-Homeowner Resale Report.md (delta 9 days). GL/deed date delta: 9 days.</t>
+      <c r="O10" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 5/6/2021 from 2021-05-31-10-Homeowner Resale Report.md (delta 9 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -1469,14 +1469,14 @@
     <row r="16">
       <c r="A16" s="14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B16" s="14" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="C16" s="15" t="n">
-        <v>44368</v>
+        <v>44354</v>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="E16" s="14" t="inlineStr">
         <is>
-          <t>Capital Development Properties LLC, a Washington Limited Liability Company</t>
+          <t>Deschutes Holding Group, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F16" s="14" t="inlineStr">
         <is>
-          <t>Andrew Van Gerpen and Phuc Van Gerpen, husband and wife</t>
+          <t>Gallardo Homes LLC, a Washington limited liability company</t>
         </is>
       </c>
       <c r="G16" s="14" t="inlineStr">
@@ -1509,14 +1509,14 @@
         </is>
       </c>
       <c r="J16" s="15" t="n">
-        <v>44384</v>
+        <v>44375</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="L16" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 072</t>
+          <t>Transfer Fee - Capital Contribution Unit 009</t>
         </is>
       </c>
       <c r="M16" s="14" t="inlineStr">
@@ -1529,21 +1529,21 @@
       </c>
       <c r="O16" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 7/7/2021 from 2021-07-15-09-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
+          <t>Supplemental GL matched via deed related-lot context. GL/deed date delta: 21 days. GL unit 9 matched via multi-lot deed context (primary parsed lot 5).</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="14" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B17" s="14" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C17" s="15" t="n">
-        <v>44386</v>
+        <v>44354</v>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
@@ -1552,12 +1552,12 @@
       </c>
       <c r="E17" s="14" t="inlineStr">
         <is>
-          <t>Corey L Leneker &amp; Amy S Leneker</t>
+          <t>Deschutes Holding Group, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F17" s="14" t="inlineStr">
         <is>
-          <t>Chad Johnson and Stephanie Johnson, a married couple</t>
+          <t>Gallardo Homes LLC, a Washington limited liability company</t>
         </is>
       </c>
       <c r="G17" s="14" t="inlineStr">
@@ -1576,14 +1576,14 @@
         </is>
       </c>
       <c r="J17" s="15" t="n">
-        <v>44398</v>
+        <v>44375</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="L17" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 033</t>
+          <t>Transfer Fee - Capital Contribution Unit 010</t>
         </is>
       </c>
       <c r="M17" s="14" t="inlineStr">
@@ -1596,21 +1596,21 @@
       </c>
       <c r="O17" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 7/21/2021 from 2021-07-31-09-Homeowner Resale Report.md (delta 12 days). Filled grantor from resale previous owner. GL/deed date delta: 12 days.</t>
+          <t>Supplemental GL matched via deed related-lot context. GL/deed date delta: 21 days. GL unit 10 matched via multi-lot deed context (primary parsed lot 5).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="14" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
       <c r="B18" s="14" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="C18" s="15" t="n">
-        <v>44436</v>
+        <v>44368</v>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
@@ -1619,12 +1619,12 @@
       </c>
       <c r="E18" s="14" t="inlineStr">
         <is>
-          <t>Cheri Marbett, who acquired title as Cheri Sears, and Philip J. Marbett, a married couple</t>
+          <t>Capital Development Properties LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F18" s="14" t="inlineStr">
         <is>
-          <t>Michelle LaPraim, an unmarried woman</t>
+          <t>Andrew Van Gerpen and Phuc Van Gerpen, husband and wife</t>
         </is>
       </c>
       <c r="G18" s="14" t="inlineStr">
@@ -1643,14 +1643,14 @@
         </is>
       </c>
       <c r="J18" s="15" t="n">
-        <v>44455</v>
+        <v>44384</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="L18" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 039</t>
+          <t>Transfer Fee - Capital Contribution Unit 072</t>
         </is>
       </c>
       <c r="M18" s="14" t="inlineStr">
@@ -1663,21 +1663,21 @@
       </c>
       <c r="O18" s="17" t="inlineStr">
         <is>
-          <t>GL/deed date delta: 19 days.</t>
+          <t>Resale escrow 7/7/2021 from 2021-07-15-09-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B19" s="14" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="C19" s="15" t="n">
-        <v>44442</v>
+        <v>44386</v>
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
@@ -1686,12 +1686,12 @@
       </c>
       <c r="E19" s="14" t="inlineStr">
         <is>
-          <t>Capital Development Properties, LLC, a Washington Limited Liability Company for and in consideration of Ten And No/100 Dollars ($10.00), and other valuable consideration in hand paid, conveys, and warrants to Stefanie Olar and George Olar, a married couple</t>
+          <t>Corey L Leneker &amp; Amy S Leneker</t>
         </is>
       </c>
       <c r="F19" s="14" t="inlineStr">
         <is>
-          <t>Stefanie Olar and George Olar, a married couple</t>
+          <t>Chad Johnson and Stephanie Johnson, a married couple</t>
         </is>
       </c>
       <c r="G19" s="14" t="inlineStr">
@@ -1710,14 +1710,14 @@
         </is>
       </c>
       <c r="J19" s="15" t="n">
-        <v>44452</v>
+        <v>44398</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>90</v>
+        <v>33</v>
       </c>
       <c r="L19" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 090</t>
+          <t>Transfer Fee - Capital Contribution Unit 033</t>
         </is>
       </c>
       <c r="M19" s="14" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="O19" s="17" t="inlineStr">
         <is>
-          <t>GL/deed date delta: 10 days.</t>
+          <t>Resale escrow 7/21/2021 from 2021-07-31-09-Homeowner Resale Report.md (delta 12 days). Filled grantor from resale previous owner. GL/deed date delta: 12 days.</t>
         </is>
       </c>
     </row>
@@ -1741,10 +1741,10 @@
         </is>
       </c>
       <c r="B20" s="14" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="C20" s="15" t="n">
-        <v>44483</v>
+        <v>44436</v>
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
@@ -1753,12 +1753,12 @@
       </c>
       <c r="E20" s="14" t="inlineStr">
         <is>
-          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
+          <t>Cheri Marbett, who acquired title as Cheri Sears, and Philip J. Marbett, a married couple</t>
         </is>
       </c>
       <c r="F20" s="14" t="inlineStr">
         <is>
-          <t>Charles E Akau and Brianna Akau, a married couple</t>
+          <t>Michelle LaPraim, an unmarried woman</t>
         </is>
       </c>
       <c r="G20" s="14" t="inlineStr">
@@ -1777,14 +1777,14 @@
         </is>
       </c>
       <c r="J20" s="15" t="n">
-        <v>44508</v>
+        <v>44455</v>
       </c>
       <c r="K20" s="14" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="L20" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 063</t>
+          <t>Transfer Fee - Capital Contribution Unit 039</t>
         </is>
       </c>
       <c r="M20" s="14" t="inlineStr">
@@ -1797,80 +1797,88 @@
       </c>
       <c r="O20" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 11/8/2021 from 2021-11-30-10-Homeowner Resale Report.md (delta 25 days). GL/deed date delta: 25 days.</t>
+          <t>GL/deed date delta: 19 days.</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
-        <is>
-          <t>I (Original)</t>
-        </is>
-      </c>
-      <c r="B21" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="C21" s="11" t="n">
-        <v>44516</v>
-      </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="A21" s="14" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B21" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="C21" s="15" t="n">
+        <v>44442</v>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Jeffrey Lynn Hall and Linda Lee Hall, Trustees of The Jeffrey and Linda Hall Revocable Living Trust, dated May 26 2020</t>
-        </is>
-      </c>
-      <c r="F21" s="10" t="inlineStr">
-        <is>
-          <t>Brian S Morgan and Laura K Herrick, husband and wife</t>
-        </is>
-      </c>
-      <c r="G21" s="10" t="inlineStr">
+      <c r="E21" s="14" t="inlineStr">
+        <is>
+          <t>Capital Development Properties, LLC, a Washington Limited Liability Company for and in consideration of Ten And No/100 Dollars ($10.00), and other valuable consideration in hand paid, conveys, and warrants to Stefanie Olar and George Olar, a married couple</t>
+        </is>
+      </c>
+      <c r="F21" s="14" t="inlineStr">
+        <is>
+          <t>Stefanie Olar and George Olar, a married couple</t>
+        </is>
+      </c>
+      <c r="G21" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H21" s="10" t="inlineStr">
+      <c r="H21" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I21" s="10" t="inlineStr">
+      <c r="I21" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J21" s="11" t="n"/>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="10" t="inlineStr"/>
-      <c r="M21" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N21" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O21" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 7/6/2021 from 2021-07-15-09-Homeowner Resale Report.md (delta 133 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
+      <c r="J21" s="15" t="n">
+        <v>44452</v>
+      </c>
+      <c r="K21" s="14" t="n">
+        <v>90</v>
+      </c>
+      <c r="L21" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution Unit 090</t>
+        </is>
+      </c>
+      <c r="M21" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N21" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="17" t="inlineStr">
+        <is>
+          <t>GL/deed date delta: 10 days.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="14" t="inlineStr">
         <is>
-          <t>I (Original)</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B22" s="14" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="C22" s="15" t="n">
-        <v>44516</v>
+        <v>44483</v>
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
@@ -1879,12 +1887,12 @@
       </c>
       <c r="E22" s="14" t="inlineStr">
         <is>
-          <t>Joshua W. Renschler and Nichole M. Renschler, husband and wife</t>
+          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F22" s="14" t="inlineStr">
         <is>
-          <t>Adam Griggs and Sheri Griggs, a married couple</t>
+          <t>Charles E Akau and Brianna Akau, a married couple</t>
         </is>
       </c>
       <c r="G22" s="14" t="inlineStr">
@@ -1903,14 +1911,14 @@
         </is>
       </c>
       <c r="J22" s="15" t="n">
-        <v>44531</v>
+        <v>44508</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="L22" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 022</t>
+          <t>Transfer Fee - Capital Contribution Unit 063</t>
         </is>
       </c>
       <c r="M22" s="14" t="inlineStr">
@@ -1923,21 +1931,21 @@
       </c>
       <c r="O22" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 12/3/2021 from 2021-12-15-09-Homeowner Resale Report.md (delta 17 days). GL/deed date delta: 15 days.</t>
+          <t>Resale escrow 11/8/2021 from 2021-11-30-10-Homeowner Resale Report.md (delta 25 days). GL/deed date delta: 25 days.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B23" s="10" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>44533</v>
+        <v>44516</v>
       </c>
       <c r="D23" s="10" t="inlineStr">
         <is>
@@ -1946,12 +1954,12 @@
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Scott L. Taylor and Kim R. Taylor, a married couple</t>
+          <t>Jeffrey Lynn Hall and Linda Lee Hall, Trustees of The Jeffrey and Linda Hall Revocable Living Trust, dated May 26 2020</t>
         </is>
       </c>
       <c r="F23" s="10" t="inlineStr">
         <is>
-          <t>Taylor Christian Rieff, an unmarried person</t>
+          <t>Brian S Morgan and Laura K Herrick, husband and wife</t>
         </is>
       </c>
       <c r="G23" s="10" t="inlineStr">
@@ -1982,161 +1990,161 @@
       </c>
       <c r="O23" s="13" t="inlineStr">
         <is>
+          <t>Resale escrow 7/6/2021 from 2021-07-15-09-Homeowner Resale Report.md (delta 133 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B24" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="n">
+        <v>44516</v>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E24" s="14" t="inlineStr">
+        <is>
+          <t>Joshua W. Renschler and Nichole M. Renschler, husband and wife</t>
+        </is>
+      </c>
+      <c r="F24" s="14" t="inlineStr">
+        <is>
+          <t>Adam Griggs and Sheri Griggs, a married couple</t>
+        </is>
+      </c>
+      <c r="G24" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H24" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I24" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J24" s="15" t="n">
+        <v>44531</v>
+      </c>
+      <c r="K24" s="14" t="n">
+        <v>22</v>
+      </c>
+      <c r="L24" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution Unit 022</t>
+        </is>
+      </c>
+      <c r="M24" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N24" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 12/3/2021 from 2021-12-15-09-Homeowner Resale Report.md (delta 17 days). GL/deed date delta: 15 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B25" s="10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C25" s="11" t="n">
+        <v>44533</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Scott L. Taylor and Kim R. Taylor, a married couple</t>
+        </is>
+      </c>
+      <c r="F25" s="10" t="inlineStr">
+        <is>
+          <t>Taylor Christian Rieff, an unmarried person</t>
+        </is>
+      </c>
+      <c r="G25" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J25" s="11" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="10" t="inlineStr"/>
+      <c r="M25" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N25" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O25" s="13" t="inlineStr">
+        <is>
           <t>Resale escrow 12/16/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B24" s="10" t="n">
-        <v>32</v>
-      </c>
-      <c r="C24" s="11" t="n">
-        <v>44538</v>
-      </c>
-      <c r="D24" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>and Robert O. Mykleby and Tiffanie C. Mykleby, husband and wife, as tenants by the entirety, a mailing address of 2136 79Th Ave SE, Olympia, WA 98501, hereinafter referred to as Grantee(s).</t>
-        </is>
-      </c>
-      <c r="F24" s="10" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="G24" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H24" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J24" s="11" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="10" t="inlineStr"/>
-      <c r="M24" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N24" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O24" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B25" s="14" t="n">
-        <v>61</v>
-      </c>
-      <c r="C25" s="15" t="n">
-        <v>44538</v>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E25" s="14" t="inlineStr">
-        <is>
-          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F25" s="14" t="inlineStr">
-        <is>
-          <t>Chad Kirby and Karla Youngers, a married couple</t>
-        </is>
-      </c>
-      <c r="G25" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H25" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I25" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J25" s="15" t="n">
-        <v>44551</v>
-      </c>
-      <c r="K25" s="14" t="n">
-        <v>61</v>
-      </c>
-      <c r="L25" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution Unit 061</t>
-        </is>
-      </c>
-      <c r="M25" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N25" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 12/21/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 13 days.</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="inlineStr">
         <is>
-          <t>I (Original)</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B26" s="10" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11" t="n">
-        <v>44545</v>
+        <v>44538</v>
       </c>
       <c r="D26" s="10" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Karen L. Lyon, an unmarried woman</t>
+          <t>and Robert O. Mykleby and Tiffanie C. Mykleby, husband and wife, as tenants by the entirety, a mailing address of 2136 79Th Ave SE, Olympia, WA 98501, hereinafter referred to as Grantee(s).</t>
         </is>
       </c>
       <c r="F26" s="10" t="inlineStr">
         <is>
-          <t>Joesy Sanate and Nicole Tabor, a married couple</t>
+          <t>.</t>
         </is>
       </c>
       <c r="G26" s="10" t="inlineStr">
@@ -2167,107 +2175,107 @@
       </c>
       <c r="O26" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 1/4/2022 from 2022-01-31-10-Homeowner Resale Report.md (delta 20 days). No matching GL collection entry by unit/date.</t>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
+      <c r="A27" s="14" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B27" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="C27" s="7" t="n">
-        <v>44585</v>
-      </c>
-      <c r="D27" s="6" t="inlineStr">
+      <c r="B27" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="C27" s="15" t="n">
+        <v>44538</v>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E27" s="6" t="inlineStr">
-        <is>
-          <t>Lotus House Development Corp., a Washington Corporation,</t>
-        </is>
-      </c>
-      <c r="F27" s="6" t="inlineStr">
-        <is>
-          <t>SFR Acquisitions 1 LLC, a Delaware Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="inlineStr">
-        <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
-        </is>
-      </c>
-      <c r="H27" s="6" t="inlineStr">
+      <c r="E27" s="14" t="inlineStr">
+        <is>
+          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F27" s="14" t="inlineStr">
+        <is>
+          <t>Chad Kirby and Karla Youngers, a married couple</t>
+        </is>
+      </c>
+      <c r="G27" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H27" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I27" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I27" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J27" s="7" t="n">
-        <v>44596</v>
-      </c>
-      <c r="K27" s="6" t="n">
-        <v>48</v>
-      </c>
-      <c r="L27" s="6" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution Unit 048</t>
-        </is>
-      </c>
-      <c r="M27" s="6" t="inlineStr">
-        <is>
-          <t>Over-Collected</t>
-        </is>
-      </c>
-      <c r="N27" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="O27" s="9" t="inlineStr">
-        <is>
-          <t>Resale escrow 2/4/2022 from 2022-02-28-10-Homeowner Resale Report.md (delta 11 days). GL/deed date delta: 11 days. Collection posted on exempt transfer.</t>
+      <c r="J27" s="15" t="n">
+        <v>44551</v>
+      </c>
+      <c r="K27" s="14" t="n">
+        <v>61</v>
+      </c>
+      <c r="L27" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution Unit 061</t>
+        </is>
+      </c>
+      <c r="M27" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N27" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 12/21/2021 from 2021-12-31-09-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 13 days.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B28" s="10" t="n">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C28" s="11" t="n">
-        <v>44585</v>
+        <v>44545</v>
       </c>
       <c r="D28" s="10" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
         <is>
-          <t>SO UK Investment LLC, a Washington limited liability company</t>
+          <t>Karen L. Lyon, an unmarried woman</t>
         </is>
       </c>
       <c r="F28" s="10" t="inlineStr">
         <is>
-          <t>Lotus House Development Corp., a Washington Corporation</t>
+          <t>Joesy Sanate and Nicole Tabor, a married couple</t>
         </is>
       </c>
       <c r="G28" s="10" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H28" s="10" t="inlineStr">
@@ -2293,462 +2301,462 @@
       </c>
       <c r="O28" s="13" t="inlineStr">
         <is>
+          <t>Resale escrow 1/4/2022 from 2022-01-31-10-Homeowner Resale Report.md (delta 20 days). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>Lotus House Development Corp., a Washington Corporation,</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="inlineStr">
+        <is>
+          <t>SFR Acquisitions 1 LLC, a Delaware Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="G29" s="6" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I29" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J29" s="7" t="n">
+        <v>44596</v>
+      </c>
+      <c r="K29" s="6" t="n">
+        <v>48</v>
+      </c>
+      <c r="L29" s="6" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution Unit 048</t>
+        </is>
+      </c>
+      <c r="M29" s="6" t="inlineStr">
+        <is>
+          <t>Over-Collected</t>
+        </is>
+      </c>
+      <c r="N29" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="O29" s="9" t="inlineStr">
+        <is>
+          <t>Resale escrow 2/4/2022 from 2022-02-28-10-Homeowner Resale Report.md (delta 11 days). GL/deed date delta: 11 days. Collection posted on exempt transfer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B30" s="10" t="n">
+        <v>48</v>
+      </c>
+      <c r="C30" s="11" t="n">
+        <v>44585</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E30" s="10" t="inlineStr">
+        <is>
+          <t>SO UK Investment LLC, a Washington limited liability company</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House Development Corp., a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G30" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H30" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I30" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J30" s="11" t="n"/>
+      <c r="K30" s="10" t="n"/>
+      <c r="L30" s="10" t="inlineStr"/>
+      <c r="M30" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N30" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O30" s="13" t="inlineStr">
+        <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="14" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="14" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B29" s="14" t="n">
+      <c r="B31" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="C29" s="15" t="n">
+      <c r="C31" s="15" t="n">
         <v>44616</v>
       </c>
-      <c r="D29" s="14" t="inlineStr">
+      <c r="D31" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E29" s="14" t="inlineStr">
+      <c r="E31" s="14" t="inlineStr">
         <is>
           <t>Gallardo Homes LLC, a Washington Limited Liability Company,</t>
         </is>
       </c>
-      <c r="F29" s="14" t="inlineStr">
+      <c r="F31" s="14" t="inlineStr">
         <is>
           <t>SFR Acquisitions 2 LLC, a Delaware Limited Liability Company</t>
         </is>
       </c>
-      <c r="G29" s="14" t="inlineStr">
+      <c r="G31" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H29" s="14" t="inlineStr">
+      <c r="H31" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I29" s="14" t="inlineStr">
+      <c r="I31" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J29" s="15" t="n">
+      <c r="J31" s="15" t="n">
         <v>44641</v>
       </c>
-      <c r="K29" s="14" t="n">
+      <c r="K31" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="L29" s="14" t="inlineStr">
+      <c r="L31" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 007</t>
         </is>
       </c>
-      <c r="M29" s="14" t="inlineStr">
+      <c r="M31" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N29" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17" t="inlineStr">
+      <c r="N31" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="17" t="inlineStr">
         <is>
           <t>GL/deed date delta: 25 days.</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="6" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="6" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B30" s="6" t="n">
+      <c r="B32" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="C30" s="7" t="n">
+      <c r="C32" s="7" t="n">
         <v>44645</v>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D32" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E32" s="6" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F32" s="6" t="inlineStr">
         <is>
           <t>KEVIN CHRISTIE and LIBBY CHRISTIE, a married couple</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="G32" s="6" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="H32" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I32" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J30" s="7" t="n">
+      <c r="J32" s="7" t="n">
         <v>44690</v>
       </c>
-      <c r="K30" s="6" t="n">
+      <c r="K32" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="L30" s="6" t="inlineStr">
+      <c r="L32" s="6" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Lot #86</t>
         </is>
       </c>
-      <c r="M30" s="6" t="inlineStr">
+      <c r="M32" s="6" t="inlineStr">
         <is>
           <t>Over-Collected</t>
         </is>
       </c>
-      <c r="N30" s="8" t="n">
+      <c r="N32" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="O30" s="9" t="inlineStr">
+      <c r="O32" s="9" t="inlineStr">
         <is>
           <t>GL/deed date delta: 45 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="10" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="10" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B31" s="10" t="n">
+      <c r="B33" s="10" t="n">
         <v>86</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C33" s="11" t="n">
         <v>44645</v>
       </c>
-      <c r="D31" s="10" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E31" s="10" t="inlineStr">
+      <c r="E33" s="10" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT LLC, A WASHINGTON LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
-      <c r="F31" s="10" t="inlineStr">
+      <c r="F33" s="10" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, A WASHINGTON CORPORATION</t>
         </is>
       </c>
-      <c r="G31" s="10" t="inlineStr">
+      <c r="G33" s="10" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H31" s="10" t="inlineStr">
+      <c r="H33" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I31" s="10" t="inlineStr">
+      <c r="I33" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J31" s="11" t="n"/>
-      <c r="K31" s="10" t="n"/>
-      <c r="L31" s="10" t="inlineStr"/>
-      <c r="M31" s="10" t="inlineStr">
+      <c r="J33" s="11" t="n"/>
+      <c r="K33" s="10" t="n"/>
+      <c r="L33" s="10" t="inlineStr"/>
+      <c r="M33" s="10" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N31" s="12" t="n">
+      <c r="N33" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="O31" s="13" t="inlineStr">
+      <c r="O33" s="13" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="14" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="14" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B32" s="14" t="n">
+      <c r="B34" s="14" t="n">
         <v>84</v>
       </c>
-      <c r="C32" s="15" t="n">
+      <c r="C34" s="15" t="n">
         <v>44649</v>
       </c>
-      <c r="D32" s="14" t="inlineStr">
+      <c r="D34" s="14" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E32" s="14" t="inlineStr">
+      <c r="E34" s="14" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT LLC, A WASHINGTON LIMITED LIABILITY COMPANY</t>
         </is>
       </c>
-      <c r="F32" s="14" t="inlineStr">
+      <c r="F34" s="14" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, A WASHINGTON CORPORATION</t>
         </is>
       </c>
-      <c r="G32" s="14" t="inlineStr">
+      <c r="G34" s="14" t="inlineStr">
         <is>
           <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
-      <c r="H32" s="14" t="inlineStr">
+      <c r="H34" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I32" s="14" t="inlineStr">
+      <c r="I34" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J32" s="15" t="n">
+      <c r="J34" s="15" t="n">
         <v>44690</v>
       </c>
-      <c r="K32" s="14" t="n">
+      <c r="K34" s="14" t="n">
         <v>84</v>
       </c>
-      <c r="L32" s="14" t="inlineStr">
+      <c r="L34" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Unit 084</t>
         </is>
       </c>
-      <c r="M32" s="14" t="inlineStr">
+      <c r="M34" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N32" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17" t="inlineStr">
+      <c r="N34" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="17" t="inlineStr">
         <is>
           <t>GL/deed date delta: 41 days.</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="14" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="14" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B33" s="14" t="n">
+      <c r="B35" s="14" t="n">
         <v>84</v>
       </c>
-      <c r="C33" s="15" t="n">
+      <c r="C35" s="15" t="n">
         <v>44649</v>
       </c>
-      <c r="D33" s="14" t="inlineStr">
+      <c r="D35" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E33" s="14" t="inlineStr">
+      <c r="E35" s="14" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F33" s="14" t="inlineStr">
+      <c r="F35" s="14" t="inlineStr">
         <is>
           <t>EMILY NICHOLSON, an unmarried person</t>
         </is>
       </c>
-      <c r="G33" s="14" t="inlineStr">
+      <c r="G35" s="14" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H33" s="14" t="inlineStr">
+      <c r="H35" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I33" s="14" t="inlineStr">
+      <c r="I35" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J33" s="15" t="n"/>
-      <c r="K33" s="14" t="n"/>
-      <c r="L33" s="14" t="inlineStr"/>
-      <c r="M33" s="14" t="inlineStr">
+      <c r="J35" s="15" t="n"/>
+      <c r="K35" s="14" t="n"/>
+      <c r="L35" s="14" t="inlineStr"/>
+      <c r="M35" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N33" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B34" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>44680</v>
-      </c>
-      <c r="D34" s="6" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr">
-        <is>
-          <t>WILLIAM SPANGLER and SUSAN BLOOMFIELD, a married couple</t>
-        </is>
-      </c>
-      <c r="G34" s="6" t="inlineStr">
-        <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
-        </is>
-      </c>
-      <c r="H34" s="6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I34" s="6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J34" s="7" t="n">
-        <v>44690</v>
-      </c>
-      <c r="K34" s="6" t="n">
-        <v>49</v>
-      </c>
-      <c r="L34" s="6" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution Unit 049</t>
-        </is>
-      </c>
-      <c r="M34" s="6" t="inlineStr">
-        <is>
-          <t>Over-Collected</t>
-        </is>
-      </c>
-      <c r="N34" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="O34" s="9" t="inlineStr">
-        <is>
-          <t>Resale escrow 5/2/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 3 days). GL/deed date delta: 10 days. Collection posted on exempt transfer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B35" s="10" t="n">
-        <v>49</v>
-      </c>
-      <c r="C35" s="11" t="n">
-        <v>44680</v>
-      </c>
-      <c r="D35" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E35" s="10" t="inlineStr">
-        <is>
-          <t>THURSTON COUNTY TITLE CO</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G35" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H35" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I35" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J35" s="11" t="n"/>
-      <c r="K35" s="10" t="n"/>
-      <c r="L35" s="10" t="inlineStr"/>
-      <c r="M35" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N35" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O35" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
+      <c r="N35" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="17" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B36" s="6" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C36" s="7" t="n">
-        <v>44698</v>
+        <v>44680</v>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
@@ -2762,7 +2770,7 @@
       </c>
       <c r="F36" s="6" t="inlineStr">
         <is>
-          <t>DANIEL MICHAEL WALSH and AMANDA WALSH, a married couple</t>
+          <t>WILLIAM SPANGLER and SUSAN BLOOMFIELD, a married couple</t>
         </is>
       </c>
       <c r="G36" s="6" t="inlineStr">
@@ -2781,14 +2789,14 @@
         </is>
       </c>
       <c r="J36" s="7" t="n">
-        <v>44706</v>
+        <v>44690</v>
       </c>
       <c r="K36" s="6" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="L36" s="6" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 075</t>
+          <t>Transfer Fee - Capital Contribution Unit 049</t>
         </is>
       </c>
       <c r="M36" s="6" t="inlineStr">
@@ -2801,21 +2809,21 @@
       </c>
       <c r="O36" s="9" t="inlineStr">
         <is>
-          <t>GL/deed date delta: 8 days. Collection posted on exempt transfer.</t>
+          <t>Resale escrow 5/2/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 3 days). GL/deed date delta: 10 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="10" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B37" s="10" t="n">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C37" s="11" t="n">
-        <v>44699</v>
+        <v>44680</v>
       </c>
       <c r="D37" s="10" t="inlineStr">
         <is>
@@ -2824,7 +2832,7 @@
       </c>
       <c r="E37" s="10" t="inlineStr">
         <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+          <t>THURSTON COUNTY TITLE CO</t>
         </is>
       </c>
       <c r="F37" s="10" t="inlineStr">
@@ -2860,7 +2868,7 @@
       </c>
       <c r="O37" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 5/18/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 0 days). No matching GL collection entry by unit/date.</t>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -2871,10 +2879,10 @@
         </is>
       </c>
       <c r="B38" s="6" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C38" s="7" t="n">
-        <v>44736</v>
+        <v>44698</v>
       </c>
       <c r="D38" s="6" t="inlineStr">
         <is>
@@ -2888,7 +2896,7 @@
       </c>
       <c r="F38" s="6" t="inlineStr">
         <is>
-          <t>PATRICK KELLEY and LISA KELLEY, a married couple</t>
+          <t>DANIEL MICHAEL WALSH and AMANDA WALSH, a married couple</t>
         </is>
       </c>
       <c r="G38" s="6" t="inlineStr">
@@ -2907,14 +2915,14 @@
         </is>
       </c>
       <c r="J38" s="7" t="n">
-        <v>44749</v>
+        <v>44706</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="L38" s="6" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit 093</t>
+          <t>Transfer Fee - Capital Contribution Unit 075</t>
         </is>
       </c>
       <c r="M38" s="6" t="inlineStr">
@@ -2927,7 +2935,7 @@
       </c>
       <c r="O38" s="9" t="inlineStr">
         <is>
-          <t>Resale escrow 7/7/2022 from 2022-07-31-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 13 days. Collection posted on exempt transfer.</t>
+          <t>GL/deed date delta: 8 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
@@ -2938,10 +2946,10 @@
         </is>
       </c>
       <c r="B39" s="10" t="n">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C39" s="11" t="n">
-        <v>44736</v>
+        <v>44699</v>
       </c>
       <c r="D39" s="10" t="inlineStr">
         <is>
@@ -2950,7 +2958,7 @@
       </c>
       <c r="E39" s="10" t="inlineStr">
         <is>
-          <t>THURSTON COUNTY TITLE CO</t>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F39" s="10" t="inlineStr">
@@ -2986,7 +2994,7 @@
       </c>
       <c r="O39" s="13" t="inlineStr">
         <is>
-          <t>No matching GL collection entry by unit/date.</t>
+          <t>Resale escrow 5/18/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 0 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -2997,10 +3005,10 @@
         </is>
       </c>
       <c r="B40" s="6" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C40" s="7" t="n">
-        <v>44743</v>
+        <v>44736</v>
       </c>
       <c r="D40" s="6" t="inlineStr">
         <is>
@@ -3014,7 +3022,7 @@
       </c>
       <c r="F40" s="6" t="inlineStr">
         <is>
-          <t>BRET R. JENSEN and JOCELYN W. JENSEN, a married couple</t>
+          <t>PATRICK KELLEY and LISA KELLEY, a married couple</t>
         </is>
       </c>
       <c r="G40" s="6" t="inlineStr">
@@ -3033,14 +3041,14 @@
         </is>
       </c>
       <c r="J40" s="7" t="n">
-        <v>44755</v>
+        <v>44749</v>
       </c>
       <c r="K40" s="6" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="L40" s="6" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit 107</t>
+          <t>Transfer Fee - Capital Contribution - Unit 093</t>
         </is>
       </c>
       <c r="M40" s="6" t="inlineStr">
@@ -3053,7 +3061,7 @@
       </c>
       <c r="O40" s="9" t="inlineStr">
         <is>
-          <t>Resale escrow 7/6/2022 from 2022-07-31-10-Homeowner Resale Report.md (delta 5 days). GL/deed date delta: 12 days. Collection posted on exempt transfer.</t>
+          <t>Resale escrow 7/7/2022 from 2022-07-31-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 13 days. Collection posted on exempt transfer.</t>
         </is>
       </c>
     </row>
@@ -3064,10 +3072,10 @@
         </is>
       </c>
       <c r="B41" s="10" t="n">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C41" s="11" t="n">
-        <v>44743</v>
+        <v>44736</v>
       </c>
       <c r="D41" s="10" t="inlineStr">
         <is>
@@ -3117,250 +3125,258 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="14" t="inlineStr">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="C42" s="7" t="n">
+        <v>44743</v>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F42" s="6" t="inlineStr">
+        <is>
+          <t>BRET R. JENSEN and JOCELYN W. JENSEN, a married couple</t>
+        </is>
+      </c>
+      <c r="G42" s="6" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H42" s="6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I42" s="6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J42" s="7" t="n">
+        <v>44755</v>
+      </c>
+      <c r="K42" s="6" t="n">
+        <v>107</v>
+      </c>
+      <c r="L42" s="6" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit 107</t>
+        </is>
+      </c>
+      <c r="M42" s="6" t="inlineStr">
+        <is>
+          <t>Over-Collected</t>
+        </is>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="O42" s="9" t="inlineStr">
+        <is>
+          <t>Resale escrow 7/6/2022 from 2022-07-31-10-Homeowner Resale Report.md (delta 5 days). GL/deed date delta: 12 days. Collection posted on exempt transfer.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B43" s="10" t="n">
+        <v>107</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>44743</v>
+      </c>
+      <c r="D43" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E43" s="10" t="inlineStr">
+        <is>
+          <t>THURSTON COUNTY TITLE CO</t>
+        </is>
+      </c>
+      <c r="F43" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G43" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H43" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I43" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J43" s="11" t="n"/>
+      <c r="K43" s="10" t="n"/>
+      <c r="L43" s="10" t="inlineStr"/>
+      <c r="M43" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N43" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O43" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B42" s="14" t="n">
+      <c r="B44" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="C42" s="15" t="n">
+      <c r="C44" s="15" t="n">
         <v>44758</v>
       </c>
-      <c r="D42" s="14" t="inlineStr">
+      <c r="D44" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E42" s="14" t="inlineStr">
+      <c r="E44" s="14" t="inlineStr">
         <is>
           <t>Brian Finley and Melissa Finley, a married couple</t>
         </is>
       </c>
-      <c r="F42" s="14" t="inlineStr">
+      <c r="F44" s="14" t="inlineStr">
         <is>
           <t>Thomas Beirne, a single person and Mary Elise Marshall, a single person</t>
         </is>
       </c>
-      <c r="G42" s="14" t="inlineStr">
+      <c r="G44" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H42" s="14" t="inlineStr">
+      <c r="H44" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I42" s="14" t="inlineStr">
+      <c r="I44" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J42" s="15" t="n">
+      <c r="J44" s="15" t="n">
         <v>44776</v>
       </c>
-      <c r="K42" s="14" t="n">
+      <c r="K44" s="14" t="n">
         <v>29</v>
       </c>
-      <c r="L42" s="14" t="inlineStr">
+      <c r="L44" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - unit 029</t>
         </is>
       </c>
-      <c r="M42" s="14" t="inlineStr">
+      <c r="M44" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N42" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" s="17" t="inlineStr">
+      <c r="N44" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="17" t="inlineStr">
         <is>
           <t>GL/deed date delta: 18 days.</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="14" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="14" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B43" s="14" t="n">
+      <c r="B45" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="C43" s="15" t="n">
+      <c r="C45" s="15" t="n">
         <v>44793</v>
       </c>
-      <c r="D43" s="14" t="inlineStr">
+      <c r="D45" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E43" s="14" t="inlineStr"/>
-      <c r="F43" s="14" t="inlineStr">
+      <c r="E45" s="14" t="inlineStr"/>
+      <c r="F45" s="14" t="inlineStr">
         <is>
           <t>SIRVA RELOCATION CREDIT, LLC, a Delaware Limited Liability Company, in fee simple, whose mailing address is 6200 Oak Tree Blvd., Suite 300, Independence, OH 44131, Attn: Kevin Butler</t>
         </is>
       </c>
-      <c r="G43" s="14" t="inlineStr">
+      <c r="G45" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H43" s="14" t="inlineStr">
+      <c r="H45" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I43" s="14" t="inlineStr">
+      <c r="I45" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J43" s="15" t="n">
+      <c r="J45" s="15" t="n">
         <v>44826</v>
       </c>
-      <c r="K43" s="14" t="n">
+      <c r="K45" s="14" t="n">
         <v>36</v>
       </c>
-      <c r="L43" s="14" t="inlineStr">
+      <c r="L45" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Lot 036</t>
         </is>
       </c>
-      <c r="M43" s="14" t="inlineStr">
+      <c r="M45" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N43" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" s="17" t="inlineStr">
+      <c r="N45" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="17" t="inlineStr">
         <is>
           <t>GL/deed date delta: 33 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B44" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="C44" s="11" t="n">
-        <v>44798</v>
-      </c>
-      <c r="D44" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E44" s="10" t="inlineStr">
-        <is>
-          <t>James M. and Trova K. Heffernan</t>
-        </is>
-      </c>
-      <c r="F44" s="10" t="inlineStr">
-        <is>
-          <t>Kristine M. Rompa, an unmarried Person , whose mailing address is 849 101st Ave SE, Olympia, WA 98501</t>
-        </is>
-      </c>
-      <c r="G44" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H44" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I44" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J44" s="11" t="n"/>
-      <c r="K44" s="10" t="n"/>
-      <c r="L44" s="10" t="inlineStr"/>
-      <c r="M44" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N44" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O44" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 9/14/2022 from 2022-09-30-10-Homeowner Resale Report.md (delta 20 days). Filled grantor from resale previous owner. Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B45" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="C45" s="11" t="n">
-        <v>44844</v>
-      </c>
-      <c r="D45" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E45" s="10" t="inlineStr">
-        <is>
-          <t>JK Monarch, LLC, a Washington limited liability company</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="inlineStr">
-        <is>
-          <t>Cynthia M Lind and Michael E Lind, a married couple</t>
-        </is>
-      </c>
-      <c r="G45" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H45" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I45" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J45" s="11" t="n"/>
-      <c r="K45" s="10" t="n"/>
-      <c r="L45" s="10" t="inlineStr"/>
-      <c r="M45" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N45" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O45" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -3371,10 +3387,10 @@
         </is>
       </c>
       <c r="B46" s="10" t="n">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C46" s="11" t="n">
-        <v>44846</v>
+        <v>44798</v>
       </c>
       <c r="D46" s="10" t="inlineStr">
         <is>
@@ -3383,12 +3399,12 @@
       </c>
       <c r="E46" s="10" t="inlineStr">
         <is>
-          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
+          <t>James M. and Trova K. Heffernan</t>
         </is>
       </c>
       <c r="F46" s="10" t="inlineStr">
         <is>
-          <t>Deborah Lee Seal and Thomas Seal, a married couple</t>
+          <t>Kristine M. Rompa, an unmarried Person , whose mailing address is 849 101st Ave SE, Olympia, WA 98501</t>
         </is>
       </c>
       <c r="G46" s="10" t="inlineStr">
@@ -3419,141 +3435,125 @@
       </c>
       <c r="O46" s="13" t="inlineStr">
         <is>
+          <t>Resale escrow 9/14/2022 from 2022-09-30-10-Homeowner Resale Report.md (delta 20 days). Filled grantor from resale previous owner. Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C47" s="11" t="n">
+        <v>44844</v>
+      </c>
+      <c r="D47" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E47" s="10" t="inlineStr">
+        <is>
+          <t>JK Monarch, LLC, a Washington limited liability company</t>
+        </is>
+      </c>
+      <c r="F47" s="10" t="inlineStr">
+        <is>
+          <t>Cynthia M Lind and Michael E Lind, a married couple</t>
+        </is>
+      </c>
+      <c r="G47" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H47" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I47" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J47" s="11" t="n"/>
+      <c r="K47" s="10" t="n"/>
+      <c r="L47" s="10" t="inlineStr"/>
+      <c r="M47" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N47" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O47" s="13" t="inlineStr">
+        <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="14" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="10" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B47" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="C47" s="15" t="n">
-        <v>44873</v>
-      </c>
-      <c r="D47" s="14" t="inlineStr">
+      <c r="B48" s="10" t="n">
+        <v>51</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>44846</v>
+      </c>
+      <c r="D48" s="10" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E47" s="14" t="inlineStr">
+      <c r="E48" s="10" t="inlineStr">
         <is>
           <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F47" s="14" t="inlineStr">
-        <is>
-          <t>Angela Huber and Derrick Huber, a married couple</t>
-        </is>
-      </c>
-      <c r="G47" s="14" t="inlineStr">
+      <c r="F48" s="10" t="inlineStr">
+        <is>
+          <t>Deborah Lee Seal and Thomas Seal, a married couple</t>
+        </is>
+      </c>
+      <c r="G48" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H47" s="14" t="inlineStr">
+      <c r="H48" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I47" s="14" t="inlineStr">
+      <c r="I48" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J47" s="15" t="n">
-        <v>44902</v>
-      </c>
-      <c r="K47" s="14" t="n">
-        <v>57</v>
-      </c>
-      <c r="L47" s="14" t="inlineStr">
-        <is>
-          <t>Capital Contribution - Unit #057</t>
-        </is>
-      </c>
-      <c r="M47" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N47" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 29 days). GL/deed date delta: 29 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B48" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="C48" s="15" t="n">
-        <v>44883</v>
-      </c>
-      <c r="D48" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E48" s="14" t="inlineStr">
-        <is>
-          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F48" s="14" t="inlineStr">
-        <is>
-          <t>Megan C Israel and Brenden J Weinroth, a married couple</t>
-        </is>
-      </c>
-      <c r="G48" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H48" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I48" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J48" s="15" t="n">
-        <v>44902</v>
-      </c>
-      <c r="K48" s="14" t="n">
-        <v>60</v>
-      </c>
-      <c r="L48" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #060</t>
-        </is>
-      </c>
-      <c r="M48" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N48" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 19 days). GL/deed date delta: 19 days.</t>
+      <c r="J48" s="11" t="n"/>
+      <c r="K48" s="10" t="n"/>
+      <c r="L48" s="10" t="inlineStr"/>
+      <c r="M48" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N48" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O48" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -3564,10 +3564,10 @@
         </is>
       </c>
       <c r="B49" s="14" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C49" s="15" t="n">
-        <v>44887</v>
+        <v>44873</v>
       </c>
       <c r="D49" s="14" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F49" s="14" t="inlineStr">
         <is>
-          <t>Robert Soldier and Frances Limtiaco, a married couple</t>
+          <t>Angela Huber and Derrick Huber, a married couple</t>
         </is>
       </c>
       <c r="G49" s="14" t="inlineStr">
@@ -3603,11 +3603,11 @@
         <v>44902</v>
       </c>
       <c r="K49" s="14" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L49" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit#052</t>
+          <t>Capital Contribution - Unit #057</t>
         </is>
       </c>
       <c r="M49" s="14" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="O49" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 29 days). GL/deed date delta: 29 days.</t>
         </is>
       </c>
     </row>
@@ -3631,10 +3631,10 @@
         </is>
       </c>
       <c r="B50" s="14" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C50" s="15" t="n">
-        <v>44893</v>
+        <v>44883</v>
       </c>
       <c r="D50" s="14" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="F50" s="14" t="inlineStr">
         <is>
-          <t>Anthony J Davis and Cyann L Davis, a married couple</t>
+          <t>Megan C Israel and Brenden J Weinroth, a married couple</t>
         </is>
       </c>
       <c r="G50" s="14" t="inlineStr">
@@ -3667,14 +3667,14 @@
         </is>
       </c>
       <c r="J50" s="15" t="n">
-        <v>44909</v>
+        <v>44902</v>
       </c>
       <c r="K50" s="14" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L50" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit#058</t>
+          <t>Transfer Fee - Capital Contribution - Unit #060</t>
         </is>
       </c>
       <c r="M50" s="14" t="inlineStr">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="O50" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 12/14/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 19 days). GL/deed date delta: 19 days.</t>
         </is>
       </c>
     </row>
@@ -3698,10 +3698,10 @@
         </is>
       </c>
       <c r="B51" s="14" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C51" s="15" t="n">
-        <v>44967</v>
+        <v>44887</v>
       </c>
       <c r="D51" s="14" t="inlineStr">
         <is>
@@ -3715,7 +3715,7 @@
       </c>
       <c r="F51" s="14" t="inlineStr">
         <is>
-          <t>Jaclyn Nicole Sison and Sean Michael S Sison, a married couple</t>
+          <t>Robert Soldier and Frances Limtiaco, a married couple</t>
         </is>
       </c>
       <c r="G51" s="14" t="inlineStr">
@@ -3734,14 +3734,14 @@
         </is>
       </c>
       <c r="J51" s="15" t="n">
-        <v>44993</v>
+        <v>44902</v>
       </c>
       <c r="K51" s="14" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L51" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 054</t>
+          <t>Transfer Fee - Capital Contribution - Unit#052</t>
         </is>
       </c>
       <c r="M51" s="14" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="O51" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 3/8/2023 from 2023-03-31-10-Homeowner Resale Report.md (delta 26 days). GL/deed date delta: 26 days.</t>
+          <t>Resale escrow 12/7/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
         </is>
       </c>
     </row>
@@ -3765,10 +3765,10 @@
         </is>
       </c>
       <c r="B52" s="14" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C52" s="15" t="n">
-        <v>44986</v>
+        <v>44893</v>
       </c>
       <c r="D52" s="14" t="inlineStr">
         <is>
@@ -3782,7 +3782,7 @@
       </c>
       <c r="F52" s="14" t="inlineStr">
         <is>
-          <t>James Cody Lords and Kimberly Anne Lords, a married couple</t>
+          <t>Anthony J Davis and Cyann L Davis, a married couple</t>
         </is>
       </c>
       <c r="G52" s="14" t="inlineStr">
@@ -3801,14 +3801,14 @@
         </is>
       </c>
       <c r="J52" s="15" t="n">
-        <v>45034</v>
+        <v>44909</v>
       </c>
       <c r="K52" s="14" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="L52" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit#053</t>
+          <t>Transfer Fee - Capital Contribution - Unit#058</t>
         </is>
       </c>
       <c r="M52" s="14" t="inlineStr">
@@ -3821,40 +3821,40 @@
       </c>
       <c r="O52" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 4/18/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 48 days). GL/deed date delta: 48 days.</t>
+          <t>Resale escrow 12/14/2022 from 2022-12-31-10-Homeowner Resale Report.md (delta 16 days). GL/deed date delta: 16 days.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B53" s="14" t="n">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="C53" s="15" t="n">
-        <v>44992</v>
+        <v>44967</v>
       </c>
       <c r="D53" s="14" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E53" s="14" t="inlineStr">
         <is>
-          <t>THURSTON COUNTY TITLE CO</t>
+          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F53" s="14" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
+          <t>Jaclyn Nicole Sison and Sean Michael S Sison, a married couple</t>
         </is>
       </c>
       <c r="G53" s="14" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H53" s="14" t="inlineStr">
@@ -3868,14 +3868,14 @@
         </is>
       </c>
       <c r="J53" s="15" t="n">
-        <v>45020</v>
+        <v>44993</v>
       </c>
       <c r="K53" s="14" t="n">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="L53" s="14" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit# 106</t>
+          <t>Capital Contribution - Unit# 054</t>
         </is>
       </c>
       <c r="M53" s="14" t="inlineStr">
@@ -3888,21 +3888,21 @@
       </c>
       <c r="O53" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 4/4/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
+          <t>Resale escrow 3/8/2023 from 2023-03-31-10-Homeowner Resale Report.md (delta 26 days). GL/deed date delta: 26 days.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B54" s="14" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="C54" s="15" t="n">
-        <v>44992</v>
+        <v>44986</v>
       </c>
       <c r="D54" s="14" t="inlineStr">
         <is>
@@ -3911,32 +3911,40 @@
       </c>
       <c r="E54" s="14" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F54" s="14" t="inlineStr">
         <is>
-          <t>STEPHANIE HARRIS and ROBERT W. HARRIS, a married couple</t>
+          <t>James Cody Lords and Kimberly Anne Lords, a married couple</t>
         </is>
       </c>
       <c r="G54" s="14" t="inlineStr">
         <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H54" s="14" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" s="14" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I54" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J54" s="15" t="n"/>
-      <c r="K54" s="14" t="n"/>
-      <c r="L54" s="14" t="inlineStr"/>
+      <c r="J54" s="15" t="n">
+        <v>45034</v>
+      </c>
+      <c r="K54" s="14" t="n">
+        <v>53</v>
+      </c>
+      <c r="L54" s="14" t="inlineStr">
+        <is>
+          <t>Capital Contribution - Unit#053</t>
+        </is>
+      </c>
       <c r="M54" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
@@ -3945,7 +3953,11 @@
       <c r="N54" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O54" s="17" t="inlineStr"/>
+      <c r="O54" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/18/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 48 days). GL/deed date delta: 48 days.</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="14" t="inlineStr">
@@ -3954,112 +3966,120 @@
         </is>
       </c>
       <c r="B55" s="14" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="C55" s="15" t="n">
-        <v>45016</v>
+        <v>44992</v>
       </c>
       <c r="D55" s="14" t="inlineStr">
         <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E55" s="14" t="inlineStr">
+        <is>
+          <t>THURSTON COUNTY TITLE CO</t>
+        </is>
+      </c>
+      <c r="F55" s="14" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G55" s="14" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H55" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J55" s="15" t="n">
+        <v>45020</v>
+      </c>
+      <c r="K55" s="14" t="n">
+        <v>106</v>
+      </c>
+      <c r="L55" s="14" t="inlineStr">
+        <is>
+          <t>Capital Contribution - Unit# 106</t>
+        </is>
+      </c>
+      <c r="M55" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N55" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/4/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B56" s="14" t="n">
+        <v>106</v>
+      </c>
+      <c r="C56" s="15" t="n">
+        <v>44992</v>
+      </c>
+      <c r="D56" s="14" t="inlineStr">
+        <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E55" s="14" t="inlineStr">
+      <c r="E56" s="14" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F55" s="14" t="inlineStr">
-        <is>
-          <t>MARIE ANN MCDANIEL, an unmarried person</t>
-        </is>
-      </c>
-      <c r="G55" s="14" t="inlineStr">
+      <c r="F56" s="14" t="inlineStr">
+        <is>
+          <t>STEPHANIE HARRIS and ROBERT W. HARRIS, a married couple</t>
+        </is>
+      </c>
+      <c r="G56" s="14" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H55" s="14" t="inlineStr">
+      <c r="H56" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I55" s="14" t="inlineStr">
+      <c r="I56" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J55" s="15" t="n"/>
-      <c r="K55" s="14" t="n"/>
-      <c r="L55" s="14" t="inlineStr"/>
-      <c r="M55" s="14" t="inlineStr">
+      <c r="J56" s="15" t="n"/>
+      <c r="K56" s="14" t="n"/>
+      <c r="L56" s="14" t="inlineStr"/>
+      <c r="M56" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N55" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" s="17" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B56" s="10" t="n">
-        <v>91</v>
-      </c>
-      <c r="C56" s="11" t="n">
-        <v>45016</v>
-      </c>
-      <c r="D56" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E56" s="10" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F56" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G56" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H56" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I56" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J56" s="11" t="n"/>
-      <c r="K56" s="10" t="n"/>
-      <c r="L56" s="10" t="inlineStr"/>
-      <c r="M56" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N56" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O56" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
+      <c r="N56" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="17" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="14" t="inlineStr">
@@ -4068,10 +4088,10 @@
         </is>
       </c>
       <c r="B57" s="14" t="n">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C57" s="15" t="n">
-        <v>45037</v>
+        <v>45016</v>
       </c>
       <c r="D57" s="14" t="inlineStr">
         <is>
@@ -4080,378 +4100,366 @@
       </c>
       <c r="E57" s="14" t="inlineStr">
         <is>
-          <t>Isaac Dermanoski</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
       <c r="F57" s="14" t="inlineStr">
         <is>
-          <t>Shamsher Singh and Anita Rani, a married couple</t>
+          <t>MARIE ANN MCDANIEL, an unmarried person</t>
         </is>
       </c>
       <c r="G57" s="14" t="inlineStr">
         <is>
-          <t>Conveyance assessment due</t>
+          <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
       <c r="H57" s="14" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I57" s="14" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I57" s="14" t="inlineStr">
+      <c r="J57" s="15" t="n"/>
+      <c r="K57" s="14" t="n"/>
+      <c r="L57" s="14" t="inlineStr"/>
+      <c r="M57" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N57" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="17" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B58" s="10" t="n">
+        <v>91</v>
+      </c>
+      <c r="C58" s="11" t="n">
+        <v>45016</v>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E58" s="10" t="inlineStr">
+        <is>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G58" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H58" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J57" s="15" t="n">
-        <v>45043</v>
-      </c>
-      <c r="K57" s="14" t="n">
-        <v>78</v>
-      </c>
-      <c r="L57" s="14" t="inlineStr">
-        <is>
-          <t>Capital Contribution - Unit# 078</t>
-        </is>
-      </c>
-      <c r="M57" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N57" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 4/27/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 6 days). Filled grantor from resale previous owner. GL/deed date delta: 6 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B58" s="14" t="n">
-        <v>110</v>
-      </c>
-      <c r="C58" s="15" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D58" s="14" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E58" s="14" t="inlineStr">
-        <is>
-          <t>THURSTON COUNTY TITLE CO</t>
-        </is>
-      </c>
-      <c r="F58" s="14" t="inlineStr">
-        <is>
-          <t>MIN LEUNG LAI, a married man as his separate estate</t>
-        </is>
-      </c>
-      <c r="G58" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H58" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I58" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J58" s="15" t="n">
-        <v>45420</v>
-      </c>
-      <c r="K58" s="14" t="n">
-        <v>110</v>
-      </c>
-      <c r="L58" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #110</t>
-        </is>
-      </c>
-      <c r="M58" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N58" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 5/8/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 289 days). GL/deed date delta: 289 days.</t>
+      <c r="J58" s="11" t="n"/>
+      <c r="K58" s="10" t="n"/>
+      <c r="L58" s="10" t="inlineStr"/>
+      <c r="M58" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N58" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O58" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="14" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B59" s="14" t="n">
+        <v>78</v>
+      </c>
+      <c r="C59" s="15" t="n">
+        <v>45037</v>
+      </c>
+      <c r="D59" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E59" s="14" t="inlineStr">
+        <is>
+          <t>Isaac Dermanoski</t>
+        </is>
+      </c>
+      <c r="F59" s="14" t="inlineStr">
+        <is>
+          <t>Shamsher Singh and Anita Rani, a married couple</t>
+        </is>
+      </c>
+      <c r="G59" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H59" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J59" s="15" t="n">
+        <v>45043</v>
+      </c>
+      <c r="K59" s="14" t="n">
+        <v>78</v>
+      </c>
+      <c r="L59" s="14" t="inlineStr">
+        <is>
+          <t>Capital Contribution - Unit# 078</t>
+        </is>
+      </c>
+      <c r="M59" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/27/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 6 days). Filled grantor from resale previous owner. GL/deed date delta: 6 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="14" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B60" s="14" t="n">
+        <v>110</v>
+      </c>
+      <c r="C60" s="15" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D60" s="14" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E60" s="14" t="inlineStr">
+        <is>
+          <t>THURSTON COUNTY TITLE CO</t>
+        </is>
+      </c>
+      <c r="F60" s="14" t="inlineStr">
+        <is>
+          <t>MIN LEUNG LAI, a married man as his separate estate</t>
+        </is>
+      </c>
+      <c r="G60" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H60" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J60" s="15" t="n">
+        <v>45420</v>
+      </c>
+      <c r="K60" s="14" t="n">
+        <v>110</v>
+      </c>
+      <c r="L60" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #110</t>
+        </is>
+      </c>
+      <c r="M60" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N60" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 5/8/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 289 days). GL/deed date delta: 289 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="14" t="inlineStr">
+        <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B59" s="14" t="n">
+      <c r="B61" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="C59" s="15" t="n">
+      <c r="C61" s="15" t="n">
         <v>45268</v>
       </c>
-      <c r="D59" s="14" t="inlineStr">
+      <c r="D61" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E59" s="14" t="inlineStr">
+      <c r="E61" s="14" t="inlineStr">
         <is>
           <t>JK Monarch, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F59" s="14" t="inlineStr">
+      <c r="F61" s="14" t="inlineStr">
         <is>
           <t>Linda Stamer, an unmarried person</t>
         </is>
       </c>
-      <c r="G59" s="14" t="inlineStr">
+      <c r="G61" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H59" s="14" t="inlineStr">
+      <c r="H61" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I59" s="14" t="inlineStr">
+      <c r="I61" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J59" s="15" t="n">
+      <c r="J61" s="15" t="n">
         <v>45313</v>
       </c>
-      <c r="K59" s="14" t="n">
+      <c r="K61" s="14" t="n">
         <v>55</v>
       </c>
-      <c r="L59" s="14" t="inlineStr">
+      <c r="L61" s="14" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit #055</t>
         </is>
       </c>
-      <c r="M59" s="14" t="inlineStr">
+      <c r="M61" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" s="17" t="inlineStr">
+      <c r="N61" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" s="17" t="inlineStr">
         <is>
           <t>Resale escrow 1/22/2024 from 2024-01-31-10-Homeowner Resale Report.md (delta 45 days). GL/deed date delta: 45 days.</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="6" t="inlineStr">
+    <row r="62">
+      <c r="A62" s="6" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B60" s="6" t="n">
+      <c r="B62" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="C60" s="7" t="n">
+      <c r="C62" s="7" t="n">
         <v>45372</v>
       </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="D62" s="6" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E62" s="6" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F62" s="6" t="inlineStr">
         <is>
           <t>PETER CHAFFEY, an unmarried man and CORINNE L. FISHER, an unmarried woman</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="G62" s="6" t="inlineStr">
         <is>
           <t>Exempt transfer (grantor Lotus House)</t>
         </is>
       </c>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="H62" s="6" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I62" s="6" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="J60" s="7" t="n">
+      <c r="J62" s="7" t="n">
         <v>45033</v>
       </c>
-      <c r="K60" s="6" t="n">
+      <c r="K62" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="L60" s="6" t="inlineStr">
+      <c r="L62" s="6" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit# 108</t>
         </is>
       </c>
-      <c r="M60" s="6" t="inlineStr">
+      <c r="M62" s="6" t="inlineStr">
         <is>
           <t>Over-Collected</t>
         </is>
       </c>
-      <c r="N60" s="8" t="n">
+      <c r="N62" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="O60" s="9" t="inlineStr">
+      <c r="O62" s="9" t="inlineStr">
         <is>
           <t>Resale escrow 4/17/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 339 days). GL/deed date delta: 339 days. Collection posted on exempt transfer.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B61" s="10" t="n">
-        <v>108</v>
-      </c>
-      <c r="C61" s="11" t="n">
-        <v>45372</v>
-      </c>
-      <c r="D61" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E61" s="10" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F61" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G61" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H61" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I61" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J61" s="11" t="n"/>
-      <c r="K61" s="10" t="n"/>
-      <c r="L61" s="10" t="inlineStr"/>
-      <c r="M61" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N61" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O61" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="14" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B62" s="14" t="n">
-        <v>82</v>
-      </c>
-      <c r="C62" s="15" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D62" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E62" s="14" t="inlineStr">
-        <is>
-          <t>DANIEL YOUNG and BRENNA YOUNG, husband and wife</t>
-        </is>
-      </c>
-      <c r="F62" s="14" t="inlineStr">
-        <is>
-          <t>JORDAN J. DOWERS and LEAH M. DOWERS, a married couple</t>
-        </is>
-      </c>
-      <c r="G62" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H62" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I62" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J62" s="15" t="n">
-        <v>45400</v>
-      </c>
-      <c r="K62" s="14" t="n">
-        <v>82</v>
-      </c>
-      <c r="L62" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #082</t>
-        </is>
-      </c>
-      <c r="M62" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N62" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 4/18/2024 from 2024-04-30-10-Homeowner Resale Report.md (delta 24 days). GL/deed date delta: 24 days.</t>
         </is>
       </c>
     </row>
@@ -4462,29 +4470,29 @@
         </is>
       </c>
       <c r="B63" s="10" t="n">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C63" s="11" t="n">
-        <v>45448</v>
+        <v>45372</v>
       </c>
       <c r="D63" s="10" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E63" s="10" t="inlineStr">
         <is>
-          <t>Levi Tate, an unmarried person</t>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
       <c r="F63" s="10" t="inlineStr">
         <is>
-          <t>Kevin D Randich and Claire R Randich, a married couple</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
       <c r="G63" s="10" t="inlineStr">
         <is>
-          <t>Conveyance assessment due</t>
+          <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
       <c r="H63" s="10" t="inlineStr">
@@ -4510,259 +4518,259 @@
       </c>
       <c r="O63" s="13" t="inlineStr">
         <is>
+          <t>No matching GL collection entry by unit/date.</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="14" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B64" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C64" s="15" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D64" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E64" s="14" t="inlineStr">
+        <is>
+          <t>DANIEL YOUNG and BRENNA YOUNG, husband and wife</t>
+        </is>
+      </c>
+      <c r="F64" s="14" t="inlineStr">
+        <is>
+          <t>JORDAN J. DOWERS and LEAH M. DOWERS, a married couple</t>
+        </is>
+      </c>
+      <c r="G64" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H64" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J64" s="15" t="n">
+        <v>45400</v>
+      </c>
+      <c r="K64" s="14" t="n">
+        <v>82</v>
+      </c>
+      <c r="L64" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #082</t>
+        </is>
+      </c>
+      <c r="M64" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N64" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/18/2024 from 2024-04-30-10-Homeowner Resale Report.md (delta 24 days). GL/deed date delta: 24 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="n">
+        <v>81</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>45448</v>
+      </c>
+      <c r="D65" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E65" s="10" t="inlineStr">
+        <is>
+          <t>Levi Tate, an unmarried person</t>
+        </is>
+      </c>
+      <c r="F65" s="10" t="inlineStr">
+        <is>
+          <t>Kevin D Randich and Claire R Randich, a married couple</t>
+        </is>
+      </c>
+      <c r="G65" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H65" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J65" s="11" t="n"/>
+      <c r="K65" s="10" t="n"/>
+      <c r="L65" s="10" t="inlineStr"/>
+      <c r="M65" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N65" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O65" s="13" t="inlineStr">
+        <is>
           <t>Resale escrow 6/27/2024 from 2024-06-30-10-Homeowner Resale Report.md (delta 22 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="10" t="inlineStr">
+    <row r="66">
+      <c r="A66" s="10" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B64" s="10" t="n">
+      <c r="B66" s="10" t="n">
         <v>81</v>
       </c>
-      <c r="C64" s="11" t="n">
+      <c r="C66" s="11" t="n">
         <v>45448</v>
       </c>
-      <c r="D64" s="10" t="inlineStr">
+      <c r="D66" s="10" t="inlineStr">
         <is>
           <t>Quit Claim Deed</t>
         </is>
       </c>
-      <c r="E64" s="10" t="inlineStr">
+      <c r="E66" s="10" t="inlineStr">
         <is>
           <t>Kayla Tate, an unmarried person (former Spouse of Grantee)</t>
         </is>
       </c>
-      <c r="F64" s="10" t="inlineStr">
+      <c r="F66" s="10" t="inlineStr">
         <is>
           <t>Levi Tate, an unmarried person</t>
         </is>
       </c>
-      <c r="G64" s="10" t="inlineStr">
+      <c r="G66" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H64" s="10" t="inlineStr">
+      <c r="H66" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I64" s="10" t="inlineStr">
+      <c r="I66" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J64" s="11" t="n"/>
-      <c r="K64" s="10" t="n"/>
-      <c r="L64" s="10" t="inlineStr"/>
-      <c r="M64" s="10" t="inlineStr">
+      <c r="J66" s="11" t="n"/>
+      <c r="K66" s="10" t="n"/>
+      <c r="L66" s="10" t="inlineStr"/>
+      <c r="M66" s="10" t="inlineStr">
         <is>
           <t>Under-Collected</t>
         </is>
       </c>
-      <c r="N64" s="12" t="n">
+      <c r="N66" s="12" t="n">
         <v>-500</v>
       </c>
-      <c r="O64" s="13" t="inlineStr">
+      <c r="O66" s="13" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="14" t="inlineStr">
+    <row r="67">
+      <c r="A67" s="14" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B65" s="14" t="n">
+      <c r="B67" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="C65" s="15" t="n">
+      <c r="C67" s="15" t="n">
         <v>45457</v>
       </c>
-      <c r="D65" s="14" t="inlineStr">
+      <c r="D67" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E65" s="14" t="inlineStr">
+      <c r="E67" s="14" t="inlineStr">
         <is>
           <t>Kirk M. Olson and Teri Ward who acquired title as Teresa Olson, husband and wife</t>
         </is>
       </c>
-      <c r="F65" s="14" t="inlineStr">
+      <c r="F67" s="14" t="inlineStr">
         <is>
           <t>Alicia DiFolco and Dan DiFolco, a married couple</t>
         </is>
       </c>
-      <c r="G65" s="14" t="inlineStr">
+      <c r="G67" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H65" s="14" t="inlineStr">
+      <c r="H67" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I65" s="14" t="inlineStr">
+      <c r="I67" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J65" s="15" t="n">
+      <c r="J67" s="15" t="n">
         <v>45471</v>
       </c>
-      <c r="K65" s="14" t="n">
+      <c r="K67" s="14" t="n">
         <v>83</v>
       </c>
-      <c r="L65" s="14" t="inlineStr">
+      <c r="L67" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution for unit 083</t>
         </is>
       </c>
-      <c r="M65" s="14" t="inlineStr">
+      <c r="M67" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N65" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="17" t="inlineStr">
+      <c r="N67" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" s="17" t="inlineStr">
         <is>
           <t>Resale escrow 6/28/2024 from 2024-06-30-10-Homeowner Resale Report.md (delta 14 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 14 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="14" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B66" s="14" t="n">
-        <v>107</v>
-      </c>
-      <c r="C66" s="15" t="n">
-        <v>45457</v>
-      </c>
-      <c r="D66" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E66" s="14" t="inlineStr">
-        <is>
-          <t>BRET R. JENSEN, an unmarried individual</t>
-        </is>
-      </c>
-      <c r="F66" s="14" t="inlineStr">
-        <is>
-          <t>JACLYN FRASER, an unmarried person, and MATTHEW MAZUR-HART, an unmarried person as joint tenants with rights of survivorship and not as tenants in common</t>
-        </is>
-      </c>
-      <c r="G66" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H66" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I66" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J66" s="15" t="n">
-        <v>45492</v>
-      </c>
-      <c r="K66" s="14" t="n">
-        <v>107</v>
-      </c>
-      <c r="L66" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #107</t>
-        </is>
-      </c>
-      <c r="M66" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N66" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O66" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 7/19/2024 from 2024-07-31-10-Homeowner Resale Report.md (delta 35 days). GL/deed date delta: 35 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="10" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
-      <c r="B67" s="10" t="n">
-        <v>98</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>45470</v>
-      </c>
-      <c r="D67" s="10" t="inlineStr">
-        <is>
-          <t>Quit Claim Deed</t>
-        </is>
-      </c>
-      <c r="E67" s="10" t="inlineStr">
-        <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F67" s="10" t="inlineStr">
-        <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
-        </is>
-      </c>
-      <c r="G67" s="10" t="inlineStr">
-        <is>
-          <t>Lotus House as buyer (Claim 1)</t>
-        </is>
-      </c>
-      <c r="H67" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I67" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J67" s="11" t="n"/>
-      <c r="K67" s="10" t="n"/>
-      <c r="L67" s="10" t="inlineStr"/>
-      <c r="M67" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N67" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O67" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -4773,273 +4781,277 @@
         </is>
       </c>
       <c r="B68" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="C68" s="15" t="n">
+        <v>45457</v>
+      </c>
+      <c r="D68" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E68" s="14" t="inlineStr">
+        <is>
+          <t>BRET R. JENSEN, an unmarried individual</t>
+        </is>
+      </c>
+      <c r="F68" s="14" t="inlineStr">
+        <is>
+          <t>JACLYN FRASER, an unmarried person, and MATTHEW MAZUR-HART, an unmarried person as joint tenants with rights of survivorship and not as tenants in common</t>
+        </is>
+      </c>
+      <c r="G68" s="14" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H68" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I68" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J68" s="15" t="n">
+        <v>45492</v>
+      </c>
+      <c r="K68" s="14" t="n">
+        <v>107</v>
+      </c>
+      <c r="L68" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #107</t>
+        </is>
+      </c>
+      <c r="M68" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N68" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 7/19/2024 from 2024-07-31-10-Homeowner Resale Report.md (delta 35 days). GL/deed date delta: 35 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B69" s="10" t="n">
         <v>98</v>
       </c>
-      <c r="C68" s="15" t="n">
-        <v>45478</v>
-      </c>
-      <c r="D68" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E68" s="14" t="inlineStr">
+      <c r="C69" s="11" t="n">
+        <v>45470</v>
+      </c>
+      <c r="D69" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E69" s="10" t="inlineStr">
+        <is>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F69" s="10" t="inlineStr">
         <is>
           <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
         </is>
       </c>
-      <c r="F68" s="14" t="inlineStr">
-        <is>
-          <t>ANDRIANA JEON and ABRAHAM JEON, a married couple</t>
-        </is>
-      </c>
-      <c r="G68" s="14" t="inlineStr">
-        <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
-        </is>
-      </c>
-      <c r="H68" s="14" t="inlineStr">
+      <c r="G69" s="10" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H69" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I69" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I68" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J68" s="15" t="n"/>
-      <c r="K68" s="14" t="n"/>
-      <c r="L68" s="14" t="inlineStr"/>
-      <c r="M68" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N68" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" s="17" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="14" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B69" s="14" t="n">
-        <v>48</v>
-      </c>
-      <c r="C69" s="15" t="n">
-        <v>45497</v>
-      </c>
-      <c r="D69" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E69" s="14" t="inlineStr">
-        <is>
-          <t>SFR Borrower 2022-1 LLC, a Delaware Limited Liability Company</t>
-        </is>
-      </c>
-      <c r="F69" s="14" t="inlineStr">
-        <is>
-          <t>Ryan K. Cook and Allison R. Cook, a married couple, and Linda L. Cornett, a single person</t>
-        </is>
-      </c>
-      <c r="G69" s="14" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H69" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I69" s="14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J69" s="15" t="n">
-        <v>45525</v>
-      </c>
-      <c r="K69" s="14" t="n">
-        <v>48</v>
-      </c>
-      <c r="L69" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #048</t>
-        </is>
-      </c>
-      <c r="M69" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N69" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 8/21/2024 from 2024-08-31-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
+      <c r="J69" s="11" t="n"/>
+      <c r="K69" s="10" t="n"/>
+      <c r="L69" s="10" t="inlineStr"/>
+      <c r="M69" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N69" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O69" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="14" t="inlineStr">
         <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B70" s="14" t="n">
+        <v>98</v>
+      </c>
+      <c r="C70" s="15" t="n">
+        <v>45478</v>
+      </c>
+      <c r="D70" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E70" s="14" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F70" s="14" t="inlineStr">
+        <is>
+          <t>ANDRIANA JEON and ABRAHAM JEON, a married couple</t>
+        </is>
+      </c>
+      <c r="G70" s="14" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H70" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I70" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J70" s="15" t="n"/>
+      <c r="K70" s="14" t="n"/>
+      <c r="L70" s="14" t="inlineStr"/>
+      <c r="M70" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N70" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" s="17" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="14" t="inlineStr">
+        <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B70" s="14" t="n">
-        <v>59</v>
-      </c>
-      <c r="C70" s="15" t="n">
+      <c r="B71" s="14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C71" s="15" t="n">
         <v>45497</v>
       </c>
-      <c r="D70" s="14" t="inlineStr">
+      <c r="D71" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E70" s="14" t="inlineStr">
-        <is>
-          <t>Jamie E. Merly and Jason W. Merly, wife and husband,</t>
-        </is>
-      </c>
-      <c r="F70" s="14" t="inlineStr">
-        <is>
-          <t>Martha L. Hall, an unmarried woman, and Juliet Shier, an unmarried woman</t>
-        </is>
-      </c>
-      <c r="G70" s="14" t="inlineStr">
+      <c r="E71" s="14" t="inlineStr">
+        <is>
+          <t>SFR Borrower 2022-1 LLC, a Delaware Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F71" s="14" t="inlineStr">
+        <is>
+          <t>Ryan K. Cook and Allison R. Cook, a married couple, and Linda L. Cornett, a single person</t>
+        </is>
+      </c>
+      <c r="G71" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H70" s="14" t="inlineStr">
+      <c r="H71" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I70" s="14" t="inlineStr">
+      <c r="I71" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J70" s="15" t="n">
-        <v>45418</v>
-      </c>
-      <c r="K70" s="14" t="n">
-        <v>59</v>
-      </c>
-      <c r="L70" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #059</t>
-        </is>
-      </c>
-      <c r="M70" s="14" t="inlineStr">
+      <c r="J71" s="15" t="n">
+        <v>45525</v>
+      </c>
+      <c r="K71" s="14" t="n">
+        <v>48</v>
+      </c>
+      <c r="L71" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #048</t>
+        </is>
+      </c>
+      <c r="M71" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N70" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 5/6/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 79 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 79 days. Included reversal adjustment(s): 5/6/2024 (-200). Included additional same-lot collection(s): 5/6/2024 (+200).</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="10" t="inlineStr">
-        <is>
-          <t>I (Original)</t>
-        </is>
-      </c>
-      <c r="B71" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" s="11" t="n">
-        <v>45617</v>
-      </c>
-      <c r="D71" s="10" t="inlineStr">
-        <is>
-          <t>Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E71" s="10" t="inlineStr">
-        <is>
-          <t>, SFR ACQUISITIONS 2 LLC, a Delaware Limited Liability Company for and in consideration of Ten Dollars and other valuable consideration in hand paid, bargains, sells and conveys to SFR BORROWER 2021-2 LLC, a Delaware Limited Liability Company, the following described estate, situated in the County of Thurston, State of Washington:</t>
-        </is>
-      </c>
-      <c r="F71" s="10" t="inlineStr"/>
-      <c r="G71" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H71" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I71" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J71" s="11" t="n"/>
-      <c r="K71" s="10" t="n"/>
-      <c r="L71" s="10" t="inlineStr"/>
-      <c r="M71" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N71" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O71" s="13" t="inlineStr">
-        <is>
-          <t>No matching GL collection entry by unit/date.</t>
+      <c r="N71" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 8/21/2024 from 2024-08-31-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="14" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B72" s="14" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="C72" s="15" t="n">
-        <v>45622</v>
+        <v>45497</v>
       </c>
       <c r="D72" s="14" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E72" s="14" t="inlineStr">
         <is>
-          <t>SO UK INVESTMENT LLC, a washington limited liability company</t>
+          <t>Jamie E. Merly and Jason W. Merly, wife and husband,</t>
         </is>
       </c>
       <c r="F72" s="14" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a washington corporation</t>
+          <t>Martha L. Hall, an unmarried woman, and Juliet Shier, an unmarried woman</t>
         </is>
       </c>
       <c r="G72" s="14" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H72" s="14" t="inlineStr">
@@ -5053,14 +5065,14 @@
         </is>
       </c>
       <c r="J72" s="15" t="n">
-        <v>45718</v>
+        <v>45418</v>
       </c>
       <c r="K72" s="14" t="n">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="L72" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #097</t>
+          <t>Transfer Fee - Capital Contribution - Unit #059</t>
         </is>
       </c>
       <c r="M72" s="14" t="inlineStr">
@@ -5073,74 +5085,62 @@
       </c>
       <c r="O72" s="17" t="inlineStr">
         <is>
-          <t>GL/deed date delta: 96 days.</t>
+          <t>Resale escrow 5/6/2024 from 2024-05-31-10-Homeowner Resale Report.md (delta 79 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 79 days. Included reversal adjustment(s): 5/6/2024 (-200). Included additional same-lot collection(s): 5/6/2024 (+200).</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="14" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B73" s="14" t="n">
-        <v>49</v>
-      </c>
-      <c r="C73" s="15" t="n">
-        <v>45644</v>
-      </c>
-      <c r="D73" s="14" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E73" s="14" t="inlineStr">
-        <is>
-          <t>William Spangler and Susan Bloomfield, a married couple</t>
-        </is>
-      </c>
-      <c r="F73" s="14" t="inlineStr">
-        <is>
-          <t>Chelsie Busey and Robert Busey, a married couple</t>
-        </is>
-      </c>
-      <c r="G73" s="14" t="inlineStr">
+      <c r="A73" s="10" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B73" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C73" s="11" t="n">
+        <v>45617</v>
+      </c>
+      <c r="D73" s="10" t="inlineStr">
+        <is>
+          <t>Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E73" s="10" t="inlineStr">
+        <is>
+          <t>, SFR ACQUISITIONS 2 LLC, a Delaware Limited Liability Company for and in consideration of Ten Dollars and other valuable consideration in hand paid, bargains, sells and conveys to SFR BORROWER 2021-2 LLC, a Delaware Limited Liability Company, the following described estate, situated in the County of Thurston, State of Washington:</t>
+        </is>
+      </c>
+      <c r="F73" s="10" t="inlineStr"/>
+      <c r="G73" s="10" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H73" s="14" t="inlineStr">
+      <c r="H73" s="10" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I73" s="14" t="inlineStr">
+      <c r="I73" s="10" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J73" s="15" t="n">
-        <v>45677</v>
-      </c>
-      <c r="K73" s="14" t="n">
-        <v>49</v>
-      </c>
-      <c r="L73" s="14" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution - Unit #049</t>
-        </is>
-      </c>
-      <c r="M73" s="14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-      <c r="N73" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" s="17" t="inlineStr">
-        <is>
-          <t>Resale escrow 1/20/2025 from 2025-01-31-10-Homeowner Resale Report.md (delta 33 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 33 days.</t>
+      <c r="J73" s="11" t="n"/>
+      <c r="K73" s="10" t="n"/>
+      <c r="L73" s="10" t="inlineStr"/>
+      <c r="M73" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N73" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O73" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -5154,41 +5154,49 @@
         <v>97</v>
       </c>
       <c r="C74" s="15" t="n">
-        <v>45698</v>
+        <v>45622</v>
       </c>
       <c r="D74" s="14" t="inlineStr">
         <is>
-          <t>Statutory Warranty Deed</t>
+          <t>Quit Claim Deed</t>
         </is>
       </c>
       <c r="E74" s="14" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>SO UK INVESTMENT LLC, a washington limited liability company</t>
         </is>
       </c>
       <c r="F74" s="14" t="inlineStr">
         <is>
-          <t>JENNIFER S. MAGNUSON and DAVID J. MAGNUSON, wife and husband, and ADRIENNE R. GREEN, an unmarried woman</t>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a washington corporation</t>
         </is>
       </c>
       <c r="G74" s="14" t="inlineStr">
         <is>
-          <t>Exempt transfer (grantor Lotus House)</t>
+          <t>Lotus House as buyer (Claim 1)</t>
         </is>
       </c>
       <c r="H74" s="14" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" s="14" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="I74" s="14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J74" s="15" t="n"/>
-      <c r="K74" s="14" t="n"/>
-      <c r="L74" s="14" t="inlineStr"/>
+      <c r="J74" s="15" t="n">
+        <v>45718</v>
+      </c>
+      <c r="K74" s="14" t="n">
+        <v>97</v>
+      </c>
+      <c r="L74" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #097</t>
+        </is>
+      </c>
       <c r="M74" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
@@ -5199,7 +5207,7 @@
       </c>
       <c r="O74" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 3/2/2025 from 2025-03-31-10-Homeowner Resale Report.md (delta 20 days).</t>
+          <t>GL/deed date delta: 96 days.</t>
         </is>
       </c>
     </row>
@@ -5210,29 +5218,29 @@
         </is>
       </c>
       <c r="B75" s="14" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C75" s="15" t="n">
-        <v>45764</v>
+        <v>45644</v>
       </c>
       <c r="D75" s="14" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E75" s="14" t="inlineStr">
         <is>
-          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+          <t>William Spangler and Susan Bloomfield, a married couple</t>
         </is>
       </c>
       <c r="F75" s="14" t="inlineStr">
         <is>
-          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+          <t>Chelsie Busey and Robert Busey, a married couple</t>
         </is>
       </c>
       <c r="G75" s="14" t="inlineStr">
         <is>
-          <t>Lotus House as buyer (Claim 1)</t>
+          <t>Conveyance assessment due</t>
         </is>
       </c>
       <c r="H75" s="14" t="inlineStr">
@@ -5246,14 +5254,14 @@
         </is>
       </c>
       <c r="J75" s="15" t="n">
-        <v>45786</v>
+        <v>45677</v>
       </c>
       <c r="K75" s="14" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75" s="14" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution - Unit #047</t>
+          <t>Transfer Fee - Capital Contribution - Unit #049</t>
         </is>
       </c>
       <c r="M75" s="14" t="inlineStr">
@@ -5266,21 +5274,21 @@
       </c>
       <c r="O75" s="17" t="inlineStr">
         <is>
-          <t>Resale escrow 4/30/2025 from 2025-04-30-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 22 days.</t>
+          <t>Resale escrow 1/20/2025 from 2025-01-31-10-Homeowner Resale Report.md (delta 33 days). Corrected suspicious deed date using deed text (closer to recording stamp). GL/deed date delta: 33 days.</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="14" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>III</t>
         </is>
       </c>
       <c r="B76" s="14" t="n">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="C76" s="15" t="n">
-        <v>45764</v>
+        <v>45698</v>
       </c>
       <c r="D76" s="14" t="inlineStr">
         <is>
@@ -5294,7 +5302,7 @@
       </c>
       <c r="F76" s="14" t="inlineStr">
         <is>
-          <t>MARIANNE SCHULZE and RAUL RAMOS, a married couple</t>
+          <t>JENNIFER S. MAGNUSON and DAVID J. MAGNUSON, wife and husband, and ADRIENNE R. GREEN, an unmarried woman</t>
         </is>
       </c>
       <c r="G76" s="14" t="inlineStr">
@@ -5323,218 +5331,226 @@
       <c r="N76" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O76" s="17" t="inlineStr"/>
+      <c r="O76" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 3/2/2025 from 2025-03-31-10-Homeowner Resale Report.md (delta 20 days).</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="14" t="inlineStr">
         <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B77" s="14" t="n">
+        <v>47</v>
+      </c>
+      <c r="C77" s="15" t="n">
+        <v>45764</v>
+      </c>
+      <c r="D77" s="14" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E77" s="14" t="inlineStr">
+        <is>
+          <t>SO UK INVESTMENT LLC, a Washington Limited Liability Company</t>
+        </is>
+      </c>
+      <c r="F77" s="14" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="G77" s="14" t="inlineStr">
+        <is>
+          <t>Lotus House as buyer (Claim 1)</t>
+        </is>
+      </c>
+      <c r="H77" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I77" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J77" s="15" t="n">
+        <v>45786</v>
+      </c>
+      <c r="K77" s="14" t="n">
+        <v>47</v>
+      </c>
+      <c r="L77" s="14" t="inlineStr">
+        <is>
+          <t>Transfer Fee - Capital Contribution - Unit #047</t>
+        </is>
+      </c>
+      <c r="M77" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N77" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" s="17" t="inlineStr">
+        <is>
+          <t>Resale escrow 4/30/2025 from 2025-04-30-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 22 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="14" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B78" s="14" t="n">
+        <v>47</v>
+      </c>
+      <c r="C78" s="15" t="n">
+        <v>45764</v>
+      </c>
+      <c r="D78" s="14" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E78" s="14" t="inlineStr">
+        <is>
+          <t>LOTUS HOUSE DEVELOPMENT CORPORATION, a Washington Corporation</t>
+        </is>
+      </c>
+      <c r="F78" s="14" t="inlineStr">
+        <is>
+          <t>MARIANNE SCHULZE and RAUL RAMOS, a married couple</t>
+        </is>
+      </c>
+      <c r="G78" s="14" t="inlineStr">
+        <is>
+          <t>Exempt transfer (grantor Lotus House)</t>
+        </is>
+      </c>
+      <c r="H78" s="14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I78" s="14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="J78" s="15" t="n"/>
+      <c r="K78" s="14" t="n"/>
+      <c r="L78" s="14" t="inlineStr"/>
+      <c r="M78" s="14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+      <c r="N78" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="17" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="14" t="inlineStr">
+        <is>
           <t>III</t>
         </is>
       </c>
-      <c r="B77" s="14" t="n">
+      <c r="B79" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="C77" s="15" t="n">
+      <c r="C79" s="15" t="n">
         <v>45782</v>
       </c>
-      <c r="D77" s="14" t="inlineStr">
+      <c r="D79" s="14" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E77" s="14" t="inlineStr">
+      <c r="E79" s="14" t="inlineStr">
         <is>
           <t>Christopher R Barner and Gina D Barner, a married couple</t>
         </is>
       </c>
-      <c r="F77" s="14" t="inlineStr">
+      <c r="F79" s="14" t="inlineStr">
         <is>
           <t>Joshua J Creekpaum, an unmarried man and Tara Morey, an unmarried woman</t>
         </is>
       </c>
-      <c r="G77" s="14" t="inlineStr">
+      <c r="G79" s="14" t="inlineStr">
         <is>
           <t>Conveyance assessment due</t>
         </is>
       </c>
-      <c r="H77" s="14" t="inlineStr">
+      <c r="H79" s="14" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I77" s="14" t="inlineStr">
+      <c r="I79" s="14" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="J77" s="15" t="n">
+      <c r="J79" s="15" t="n">
         <v>45797</v>
       </c>
-      <c r="K77" s="14" t="n">
+      <c r="K79" s="14" t="n">
         <v>73</v>
       </c>
-      <c r="L77" s="14" t="inlineStr">
+      <c r="L79" s="14" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit #073</t>
         </is>
       </c>
-      <c r="M77" s="14" t="inlineStr">
+      <c r="M79" s="14" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
-      <c r="N77" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" s="17" t="inlineStr">
+      <c r="N79" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="17" t="inlineStr">
         <is>
           <t>Resale escrow 5/20/2025 from 2025-05-31-10-Homeowner Resale Report.md (delta 15 days). GL/deed date delta: 15 days.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="10" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
-      </c>
-      <c r="B78" s="10" t="n">
-        <v>27</v>
-      </c>
-      <c r="C78" s="11" t="n">
-        <v>45862</v>
-      </c>
-      <c r="D78" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E78" s="10" t="inlineStr">
-        <is>
-          <t>Bernadette M. Niebuhr, an unmarried person</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="inlineStr">
-        <is>
-          <t>Brenden Higashi, an unmarried man, and Miles Sari, an unmarried man</t>
-        </is>
-      </c>
-      <c r="G78" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H78" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I78" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J78" s="11" t="n"/>
-      <c r="K78" s="10" t="n"/>
-      <c r="L78" s="10" t="inlineStr"/>
-      <c r="M78" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N78" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O78" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 7/30/2025 from 2025-07-31-12-Homeowner Resale Report.md (delta 6 days). No matching GL collection entry by unit/date.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="10" t="inlineStr">
-        <is>
-          <t>I (Original)</t>
-        </is>
-      </c>
-      <c r="B79" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="C79" s="11" t="n">
-        <v>45897</v>
-      </c>
-      <c r="D79" s="10" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E79" s="10" t="inlineStr">
-        <is>
-          <t>Denise Renee Sinclair, an unmarried person</t>
-        </is>
-      </c>
-      <c r="F79" s="10" t="inlineStr">
-        <is>
-          <t>Christopher Haymes, an unmarried individual</t>
-        </is>
-      </c>
-      <c r="G79" s="10" t="inlineStr">
-        <is>
-          <t>Conveyance assessment due</t>
-        </is>
-      </c>
-      <c r="H79" s="10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I79" s="10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J79" s="11" t="n"/>
-      <c r="K79" s="10" t="n"/>
-      <c r="L79" s="10" t="inlineStr"/>
-      <c r="M79" s="10" t="inlineStr">
-        <is>
-          <t>Under-Collected</t>
-        </is>
-      </c>
-      <c r="N79" s="12" t="n">
-        <v>-500</v>
-      </c>
-      <c r="O79" s="13" t="inlineStr">
-        <is>
-          <t>Resale escrow 9/4/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 7 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="10" t="inlineStr">
         <is>
-          <t>I (Original)</t>
+          <t>II</t>
         </is>
       </c>
       <c r="B80" s="10" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C80" s="11" t="n">
-        <v>45898</v>
+        <v>45862</v>
       </c>
       <c r="D80" s="10" t="inlineStr">
         <is>
-          <t>Quit Claim Deed</t>
+          <t>Statutory Warranty Deed</t>
         </is>
       </c>
       <c r="E80" s="10" t="inlineStr">
         <is>
-          <t>Justin Boevers WTTA AS A married man, now single</t>
+          <t>Bernadette M. Niebuhr, an unmarried person</t>
         </is>
       </c>
       <c r="F80" s="10" t="inlineStr">
         <is>
-          <t>Corie Hancock WTTA AS A married woman, now single</t>
+          <t>Brenden Higashi, an unmarried man, and Miles Sari, an unmarried man</t>
         </is>
       </c>
       <c r="G80" s="10" t="inlineStr">
@@ -5565,21 +5581,21 @@
       </c>
       <c r="O80" s="13" t="inlineStr">
         <is>
-          <t>No matching GL collection entry by unit/date.</t>
+          <t>Resale escrow 7/30/2025 from 2025-07-31-12-Homeowner Resale Report.md (delta 6 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="10" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B81" s="10" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>45926</v>
+        <v>45897</v>
       </c>
       <c r="D81" s="10" t="inlineStr">
         <is>
@@ -5588,12 +5604,12 @@
       </c>
       <c r="E81" s="10" t="inlineStr">
         <is>
-          <t>DENISE NAPIER, AN UNMARRIED WOMAN</t>
+          <t>Denise Renee Sinclair, an unmarried person</t>
         </is>
       </c>
       <c r="F81" s="10" t="inlineStr">
         <is>
-          <t>JORDAN . PINE AND LAIKLYN L. PINE, A MARRIED COUPLE</t>
+          <t>Christopher Haymes, an unmarried individual</t>
         </is>
       </c>
       <c r="G81" s="10" t="inlineStr">
@@ -5624,21 +5640,21 @@
       </c>
       <c r="O81" s="13" t="inlineStr">
         <is>
-          <t>Resale escrow 9/30/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 4 days). No matching GL collection entry by unit/date.</t>
+          <t>Resale escrow 9/4/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 7 days). Corrected suspicious deed date using deed text (closer to recording stamp). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="10" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="B82" s="10" t="n">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="C82" s="11" t="n">
-        <v>45974</v>
+        <v>45898</v>
       </c>
       <c r="D82" s="10" t="inlineStr">
         <is>
@@ -5647,12 +5663,12 @@
       </c>
       <c r="E82" s="10" t="inlineStr">
         <is>
-          <t>Andriana Jeon, Spouse of Abraham Jeon</t>
+          <t>Justin Boevers WTTA AS A married man, now single</t>
         </is>
       </c>
       <c r="F82" s="10" t="inlineStr">
         <is>
-          <t>Abraham Jeon, a married man as his sole and separate property</t>
+          <t>Corie Hancock WTTA AS A married woman, now single</t>
         </is>
       </c>
       <c r="G82" s="10" t="inlineStr">
@@ -5688,76 +5704,120 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="18" t="inlineStr"/>
-      <c r="B83" s="18" t="n"/>
-      <c r="C83" s="19" t="n"/>
-      <c r="D83" s="18" t="inlineStr"/>
-      <c r="E83" s="18" t="inlineStr"/>
-      <c r="F83" s="18" t="inlineStr"/>
-      <c r="G83" s="18" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H83" s="18" t="inlineStr"/>
-      <c r="I83" s="18" t="inlineStr"/>
-      <c r="J83" s="19" t="n">
-        <v>44236</v>
-      </c>
-      <c r="K83" s="18" t="n"/>
-      <c r="L83" s="18" t="inlineStr">
-        <is>
-          <t>Transfer Fee - Capital Contribution</t>
-        </is>
-      </c>
-      <c r="M83" s="18" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N83" s="20" t="n">
-        <v>500</v>
-      </c>
-      <c r="O83" s="21" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=2/9/2021.</t>
+      <c r="A83" s="10" t="inlineStr">
+        <is>
+          <t>II</t>
+        </is>
+      </c>
+      <c r="B83" s="10" t="n">
+        <v>37</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>45926</v>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E83" s="10" t="inlineStr">
+        <is>
+          <t>DENISE NAPIER, AN UNMARRIED WOMAN</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="inlineStr">
+        <is>
+          <t>JORDAN . PINE AND LAIKLYN L. PINE, A MARRIED COUPLE</t>
+        </is>
+      </c>
+      <c r="G83" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H83" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I83" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J83" s="11" t="n"/>
+      <c r="K83" s="10" t="n"/>
+      <c r="L83" s="10" t="inlineStr"/>
+      <c r="M83" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N83" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O83" s="13" t="inlineStr">
+        <is>
+          <t>Resale escrow 9/30/2025 from 2025-09-30-12-Homeowner Resale Report.md (delta 4 days). No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="18" t="inlineStr"/>
-      <c r="B84" s="18" t="n"/>
-      <c r="C84" s="19" t="n"/>
-      <c r="D84" s="18" t="inlineStr"/>
-      <c r="E84" s="18" t="inlineStr"/>
-      <c r="F84" s="18" t="inlineStr"/>
-      <c r="G84" s="18" t="inlineStr">
-        <is>
-          <t>Unmatched GL entry</t>
-        </is>
-      </c>
-      <c r="H84" s="18" t="inlineStr"/>
-      <c r="I84" s="18" t="inlineStr"/>
-      <c r="J84" s="19" t="n">
-        <v>44260</v>
-      </c>
-      <c r="K84" s="18" t="n"/>
-      <c r="L84" s="18" t="inlineStr">
-        <is>
-          <t>Capital Reserve Contribution</t>
-        </is>
-      </c>
-      <c r="M84" s="18" t="inlineStr">
-        <is>
-          <t>Unmatched GL</t>
-        </is>
-      </c>
-      <c r="N84" s="20" t="n">
-        <v>500</v>
-      </c>
-      <c r="O84" s="21" t="inlineStr">
-        <is>
-          <t>Type=collection; source=AR; original date=3/5/2021.</t>
+      <c r="A84" s="10" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
+      <c r="B84" s="10" t="n">
+        <v>98</v>
+      </c>
+      <c r="C84" s="11" t="n">
+        <v>45974</v>
+      </c>
+      <c r="D84" s="10" t="inlineStr">
+        <is>
+          <t>Quit Claim Deed</t>
+        </is>
+      </c>
+      <c r="E84" s="10" t="inlineStr">
+        <is>
+          <t>Andriana Jeon, Spouse of Abraham Jeon</t>
+        </is>
+      </c>
+      <c r="F84" s="10" t="inlineStr">
+        <is>
+          <t>Abraham Jeon, a married man as his sole and separate property</t>
+        </is>
+      </c>
+      <c r="G84" s="10" t="inlineStr">
+        <is>
+          <t>Conveyance assessment due</t>
+        </is>
+      </c>
+      <c r="H84" s="10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I84" s="10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="J84" s="11" t="n"/>
+      <c r="K84" s="10" t="n"/>
+      <c r="L84" s="10" t="inlineStr"/>
+      <c r="M84" s="10" t="inlineStr">
+        <is>
+          <t>Under-Collected</t>
+        </is>
+      </c>
+      <c r="N84" s="12" t="n">
+        <v>-500</v>
+      </c>
+      <c r="O84" s="13" t="inlineStr">
+        <is>
+          <t>No matching GL collection entry by unit/date.</t>
         </is>
       </c>
     </row>
@@ -5776,12 +5836,12 @@
       <c r="H85" s="18" t="inlineStr"/>
       <c r="I85" s="18" t="inlineStr"/>
       <c r="J85" s="19" t="n">
-        <v>44260</v>
+        <v>44236</v>
       </c>
       <c r="K85" s="18" t="n"/>
       <c r="L85" s="18" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution.</t>
+          <t>Transfer Fee - Capital Contribution</t>
         </is>
       </c>
       <c r="M85" s="18" t="inlineStr">
@@ -5794,7 +5854,7 @@
       </c>
       <c r="O85" s="21" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=3/5/2021.</t>
+          <t>Type=collection; source=AR; original date=2/9/2021.</t>
         </is>
       </c>
     </row>
@@ -5818,7 +5878,7 @@
       <c r="K86" s="18" t="n"/>
       <c r="L86" s="18" t="inlineStr">
         <is>
-          <t>Capital Reserve Contribution.</t>
+          <t>Capital Reserve Contribution</t>
         </is>
       </c>
       <c r="M86" s="18" t="inlineStr">
@@ -5837,9 +5897,7 @@
     </row>
     <row r="87">
       <c r="A87" s="18" t="inlineStr"/>
-      <c r="B87" s="18" t="n">
-        <v>50</v>
-      </c>
+      <c r="B87" s="18" t="n"/>
       <c r="C87" s="19" t="n"/>
       <c r="D87" s="18" t="inlineStr"/>
       <c r="E87" s="18" t="inlineStr"/>
@@ -5852,14 +5910,12 @@
       <c r="H87" s="18" t="inlineStr"/>
       <c r="I87" s="18" t="inlineStr"/>
       <c r="J87" s="19" t="n">
-        <v>44333</v>
-      </c>
-      <c r="K87" s="18" t="n">
-        <v>50</v>
-      </c>
+        <v>44260</v>
+      </c>
+      <c r="K87" s="18" t="n"/>
       <c r="L87" s="18" t="inlineStr">
         <is>
-          <t>Capital Contribution - Unit 050</t>
+          <t>Capital Reserve Contribution.</t>
         </is>
       </c>
       <c r="M87" s="18" t="inlineStr">
@@ -5868,19 +5924,17 @@
         </is>
       </c>
       <c r="N87" s="20" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="O87" s="21" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=5/17/2021.</t>
+          <t>Type=collection; source=AR; original date=3/5/2021.</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="18" t="inlineStr"/>
-      <c r="B88" s="18" t="n">
-        <v>9</v>
-      </c>
+      <c r="B88" s="18" t="n"/>
       <c r="C88" s="19" t="n"/>
       <c r="D88" s="18" t="inlineStr"/>
       <c r="E88" s="18" t="inlineStr"/>
@@ -5893,14 +5947,12 @@
       <c r="H88" s="18" t="inlineStr"/>
       <c r="I88" s="18" t="inlineStr"/>
       <c r="J88" s="19" t="n">
-        <v>44375</v>
-      </c>
-      <c r="K88" s="18" t="n">
-        <v>9</v>
-      </c>
+        <v>44260</v>
+      </c>
+      <c r="K88" s="18" t="n"/>
       <c r="L88" s="18" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 009</t>
+          <t>Capital Reserve Contribution.</t>
         </is>
       </c>
       <c r="M88" s="18" t="inlineStr">
@@ -5913,14 +5965,14 @@
       </c>
       <c r="O88" s="21" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/28/2021.</t>
+          <t>Type=collection; source=AR; original date=3/5/2021.</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="18" t="inlineStr"/>
       <c r="B89" s="18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C89" s="19" t="n"/>
       <c r="D89" s="18" t="inlineStr"/>
@@ -5934,14 +5986,14 @@
       <c r="H89" s="18" t="inlineStr"/>
       <c r="I89" s="18" t="inlineStr"/>
       <c r="J89" s="19" t="n">
-        <v>44375</v>
+        <v>44333</v>
       </c>
       <c r="K89" s="18" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="L89" s="18" t="inlineStr">
         <is>
-          <t>Transfer Fee - Capital Contribution Unit 010</t>
+          <t>Capital Contribution - Unit 050</t>
         </is>
       </c>
       <c r="M89" s="18" t="inlineStr">
@@ -5950,11 +6002,11 @@
         </is>
       </c>
       <c r="N89" s="20" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="O89" s="21" t="inlineStr">
         <is>
-          <t>Type=collection; source=AR; original date=6/28/2021.</t>
+          <t>Type=collection; source=AR; original date=5/17/2021.</t>
         </is>
       </c>
     </row>

--- a/conveyance_assessment_analysis.xlsx
+++ b/conveyance_assessment_analysis.xlsx
@@ -97,15 +97,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -612,192 +612,196 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
+      <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="n">
-        <v>41843</v>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="C2" s="2" t="n">
+        <v>41995</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>TRONIE CORPORATION, a Washington corporation</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>CHAD A. MARTIN and KAYCEE L. MARTIN, husband and wife</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>PREMIER BUILDERS INVESTMENTS, LLC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CONSTRUCTION OPPORTUNITY PARTNERS NO. I LLC</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Pre-amendment transfer with GL activity</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>N/A (pre-amendment)</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="n"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Pre-Amendment</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="inlineStr">
+        <is>
+          <t>Low-confidence page-scan deed; included due GL linkage.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6" t="n">
+        <v>41995</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>Statutory Warranty Deed</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>PREMIER BUILDERS INVESTMENTS, LLC</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>CONSTRUCTION OPPORTUNITY PARTNERS NO. I LLC</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
+      <c r="H3" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I2" s="2" t="inlineStr">
+      <c r="I3" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J3" s="6" t="n">
         <v>44673</v>
       </c>
-      <c r="K2" s="2" t="n">
+      <c r="K3" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="inlineStr">
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <t>Capital Reserve Contribution - Unit 011</t>
         </is>
       </c>
-      <c r="M2" s="2" t="inlineStr">
+      <c r="M3" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N2" s="4" t="n">
+      <c r="N3" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O2" s="5" t="inlineStr">
-        <is>
-          <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 2830 days. GL unit 11 matched via multi-lot deed context (primary parsed lot 17).</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="O3" s="8" t="inlineStr">
+        <is>
+          <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 2678 days.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B4" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="n">
-        <v>41843</v>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="C4" s="6" t="n">
+        <v>41995</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>TRONIE CORPORATION, a Washington corporation</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>CHAD A. MARTIN and KAYCEE L. MARTIN, husband and wife</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>PREMIER BUILDERS INVESTMENTS, LLC</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>CONSTRUCTION OPPORTUNITY PARTNERS NO. I LLC</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H4" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I3" s="2" t="inlineStr">
+      <c r="I4" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J4" s="6" t="n">
         <v>44673</v>
       </c>
-      <c r="K3" s="2" t="n">
+      <c r="K4" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="L3" s="2" t="inlineStr">
+      <c r="L4" s="5" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Unit 011</t>
         </is>
       </c>
-      <c r="M3" s="2" t="inlineStr">
+      <c r="M4" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N3" s="4" t="n">
+      <c r="N4" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O3" s="5" t="inlineStr">
-        <is>
-          <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 2830 days. GL unit 11 matched via multi-lot deed context (primary parsed lot 17).</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>I (Original)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17</v>
-      </c>
-      <c r="C4" s="6" t="n">
-        <v>41843</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Statutory Warranty Deed</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>TRONIE CORPORATION, a Washington corporation</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CHAD A. MARTIN and KAYCEE L. MARTIN, husband and wife</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Pre-amendment transfer with GL activity</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>N/A (pre-amendment)</t>
-        </is>
-      </c>
-      <c r="J4" s="6" t="n"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Pre-Amendment</t>
-        </is>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="inlineStr"/>
+      <c r="O4" s="8" t="inlineStr">
+        <is>
+          <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 2678 days.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -808,7 +812,7 @@
       <c r="B5" t="n">
         <v>61</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="2" t="n">
         <v>43899</v>
       </c>
       <c r="D5" t="inlineStr">
@@ -841,151 +845,151 @@
           <t>N/A (pre-amendment)</t>
         </is>
       </c>
-      <c r="J5" s="6" t="n"/>
+      <c r="J5" s="2" t="n"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr">
         <is>
           <t>Pre-Amendment</t>
         </is>
       </c>
-      <c r="N5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="8" t="inlineStr">
+      <c r="N5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="inlineStr">
         <is>
           <t>Low-confidence page-scan deed; included due GL linkage.</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
+      <c r="B6" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="6" t="n">
         <v>43899</v>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>JK MONARCH, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="H6" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="I6" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="6" t="n">
         <v>44449</v>
       </c>
-      <c r="K6" s="2" t="n">
+      <c r="K6" s="5" t="n">
         <v>64</v>
       </c>
-      <c r="L6" s="2" t="inlineStr">
+      <c r="L6" s="5" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution Unit 064</t>
         </is>
       </c>
-      <c r="M6" s="2" t="inlineStr">
+      <c r="M6" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N6" s="4" t="n">
+      <c r="N6" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O6" s="5" t="inlineStr">
+      <c r="O6" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 550 days. GL unit 64 matched via multi-lot deed context (primary parsed lot 61).</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="6" t="n">
         <v>43899</v>
       </c>
-      <c r="D7" s="2" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>SO UK INVESTMENT, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>JK MONARCH, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="H7" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="6" t="n">
         <v>44916</v>
       </c>
-      <c r="K7" s="2" t="n">
+      <c r="K7" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="L7" s="2" t="inlineStr">
+      <c r="L7" s="5" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit#065</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
+      <c r="M7" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N7" s="4" t="n">
+      <c r="N7" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O7" s="5" t="inlineStr">
+      <c r="O7" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 1017 days. GL unit 65 matched via multi-lot deed context (primary parsed lot 61).</t>
         </is>
@@ -1366,67 +1370,67 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="5" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
+      <c r="B14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="6" t="n">
         <v>44249</v>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>Deschutes Holding Group LLC</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Gallardo Homes, LLC</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="G14" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="H14" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="I14" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="6" t="n">
         <v>45065</v>
       </c>
-      <c r="K14" s="2" t="n">
+      <c r="K14" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="L14" s="2" t="inlineStr">
+      <c r="L14" s="5" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit# 001</t>
         </is>
       </c>
-      <c r="M14" s="2" t="inlineStr">
+      <c r="M14" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N14" s="4" t="n">
+      <c r="N14" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O14" s="5" t="inlineStr">
+      <c r="O14" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 816 days.</t>
         </is>
@@ -2059,67 +2063,67 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+      <c r="A25" s="5" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
+      <c r="B25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="n">
+      <c r="C25" s="6" t="n">
         <v>44354</v>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="D25" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
+      <c r="E25" s="5" t="inlineStr">
         <is>
           <t>Deschutes Holding Group, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F25" s="2" t="inlineStr">
+      <c r="F25" s="5" t="inlineStr">
         <is>
           <t>Gallardo Homes LLC, a Washington limited liability company</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
+      <c r="G25" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="H25" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="I25" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J25" s="3" t="n">
+      <c r="J25" s="6" t="n">
         <v>45015</v>
       </c>
-      <c r="K25" s="2" t="n">
+      <c r="K25" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="L25" s="5" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit# 005</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
+      <c r="M25" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N25" s="4" t="n">
+      <c r="N25" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O25" s="5" t="inlineStr">
+      <c r="O25" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 661 days.</t>
         </is>
@@ -2193,67 +2197,67 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="5" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
+      <c r="B27" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="C27" s="3" t="n">
+      <c r="C27" s="6" t="n">
         <v>44354</v>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="D27" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="E27" s="5" t="inlineStr">
         <is>
           <t>Deschutes Holding Group, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="F27" s="5" t="inlineStr">
         <is>
           <t>Gallardo Homes LLC, a Washington limited liability company</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H27" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="I27" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J27" s="3" t="n">
+      <c r="J27" s="6" t="n">
         <v>44993</v>
       </c>
-      <c r="K27" s="2" t="n">
+      <c r="K27" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="L27" s="2" t="inlineStr">
+      <c r="L27" s="5" t="inlineStr">
         <is>
           <t>Capital Contribution - Unit# 009</t>
         </is>
       </c>
-      <c r="M27" s="2" t="inlineStr">
+      <c r="M27" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N27" s="4" t="n">
+      <c r="N27" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O27" s="5" t="inlineStr">
+      <c r="O27" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 639 days. GL unit 9 matched via multi-lot deed context (primary parsed lot 5).</t>
         </is>
@@ -2327,67 +2331,67 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
+      <c r="A29" s="5" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
+      <c r="B29" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="C29" s="3" t="n">
+      <c r="C29" s="6" t="n">
         <v>44354</v>
       </c>
-      <c r="D29" s="2" t="inlineStr">
+      <c r="D29" s="5" t="inlineStr">
         <is>
           <t>Statutory Warranty Deed</t>
         </is>
       </c>
-      <c r="E29" s="2" t="inlineStr">
+      <c r="E29" s="5" t="inlineStr">
         <is>
           <t>Deschutes Holding Group, LLC, a Washington Limited Liability Company</t>
         </is>
       </c>
-      <c r="F29" s="2" t="inlineStr">
+      <c r="F29" s="5" t="inlineStr">
         <is>
           <t>Gallardo Homes LLC, a Washington limited liability company</t>
         </is>
       </c>
-      <c r="G29" s="2" t="inlineStr">
+      <c r="G29" s="5" t="inlineStr">
         <is>
           <t>GL linked by lot only (date mismatch)</t>
         </is>
       </c>
-      <c r="H29" s="2" t="inlineStr">
+      <c r="H29" s="5" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I29" s="2" t="inlineStr">
+      <c r="I29" s="5" t="inlineStr">
         <is>
           <t>Review</t>
         </is>
       </c>
-      <c r="J29" s="3" t="n">
+      <c r="J29" s="6" t="n">
         <v>44914</v>
       </c>
-      <c r="K29" s="2" t="n">
+      <c r="K29" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="L29" s="2" t="inlineStr">
+      <c r="L29" s="5" t="inlineStr">
         <is>
           <t>Transfer Fee - Capital Contribution - Unit #010</t>
         </is>
       </c>
-      <c r="M29" s="2" t="inlineStr">
+      <c r="M29" s="5" t="inlineStr">
         <is>
           <t>Lot-Only Match</t>
         </is>
       </c>
-      <c r="N29" s="4" t="n">
+      <c r="N29" s="7" t="n">
         <v>500</v>
       </c>
-      <c r="O29" s="5" t="inlineStr">
+      <c r="O29" s="8" t="inlineStr">
         <is>
           <t>GL linked by lot only; no close date-based deed match found. GL/deed date delta: 560 days. GL unit 10 matched via multi-lot deed context (primary parsed lot 5).</t>
         </is>
@@ -7285,7 +7289,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="B2" s="30" t="n">
@@ -7296,14 +7300,14 @@
           <t>Transfer Contributions Fees</t>
         </is>
       </c>
-      <c r="D2" s="8" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>payout_to_lotus -12000: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20210310; Transfer Contributions Fees</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="2" t="n">
         <v>44586</v>
       </c>
       <c r="B3" s="30" t="n">
@@ -7314,14 +7318,14 @@
           <t>Payment per Agreement (void + re-entry, net $14,500)</t>
         </is>
       </c>
-      <c r="D3" s="8" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>void +14500: [VOID] - Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20220125; Payout per Agreement | payout_to_lotus -14500: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20220125; Payout per Agreement | payout_to_lotus -14500: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20220125-1; Payment per Agreement</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="2" t="n">
         <v>44988</v>
       </c>
       <c r="B4" s="30" t="n">
@@ -7332,14 +7336,14 @@
           <t>Payment per agreement</t>
         </is>
       </c>
-      <c r="D4" s="8" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>payout_to_lotus -10500: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20230303; Payment per agreement</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="B5" s="30" t="n">
@@ -7350,14 +7354,14 @@
           <t>Payment per Agreement</t>
         </is>
       </c>
-      <c r="D5" s="8" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>payout_to_lotus -4500: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20240308; Payment Per Agreement</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="2" t="n">
         <v>45919</v>
       </c>
       <c r="B6" s="30" t="n">
@@ -7368,7 +7372,7 @@
           <t>Payment per agreement</t>
         </is>
       </c>
-      <c r="D6" s="8" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>payout_to_lotus -7500: Lotus House Development Corp (Lotus House Development Corp), Invoice #: 20250919; Payment per agreement</t>
         </is>
@@ -7384,7 +7388,7 @@
         <v>49000</v>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" s="8" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7463,7 +7467,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B2" s="6" t="n">
+      <c r="B2" s="2" t="n">
         <v>44235</v>
       </c>
       <c r="C2" t="n">
@@ -7487,7 +7491,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H2" s="8" t="inlineStr">
+      <c r="H2" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7499,7 +7503,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B3" s="2" t="n">
         <v>44243</v>
       </c>
       <c r="C3" t="n">
@@ -7523,7 +7527,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H3" s="8" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr">
         <is>
           <t>GL/deed date delta: 28 days.</t>
         </is>
@@ -7535,7 +7539,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B4" s="6" t="n">
+      <c r="B4" s="2" t="n">
         <v>44277</v>
       </c>
       <c r="C4" t="n">
@@ -7559,7 +7563,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H4" s="8" t="inlineStr">
+      <c r="H4" s="4" t="inlineStr">
         <is>
           <t>GL/deed date delta: 9 days.</t>
         </is>
@@ -7571,7 +7575,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="2" t="n">
         <v>44313</v>
       </c>
       <c r="C5" t="n">
@@ -7595,7 +7599,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H5" s="8" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7607,7 +7611,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B6" s="6" t="n">
+      <c r="B6" s="2" t="n">
         <v>44322</v>
       </c>
       <c r="C6" t="n">
@@ -7631,7 +7635,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H6" s="8" t="inlineStr">
+      <c r="H6" s="4" t="inlineStr">
         <is>
           <t>Resale escrow 5/17/2021 from 2021-05-31-10-Homeowner Resale Report.md (delta 11 days). GL/deed date delta: 11 days.</t>
         </is>
@@ -7643,7 +7647,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="2" t="n">
         <v>44592</v>
       </c>
       <c r="C7" t="n">
@@ -7667,7 +7671,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H7" s="8" t="inlineStr">
+      <c r="H7" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7679,7 +7683,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B8" s="6" t="n">
+      <c r="B8" s="2" t="n">
         <v>44645</v>
       </c>
       <c r="C8" t="n">
@@ -7703,7 +7707,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7715,7 +7719,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B9" s="6" t="n">
+      <c r="B9" s="2" t="n">
         <v>44649</v>
       </c>
       <c r="C9" t="n">
@@ -7739,7 +7743,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="4" t="inlineStr">
         <is>
           <t>GL/deed date delta: 41 days.</t>
         </is>
@@ -7751,7 +7755,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B10" s="6" t="n">
+      <c r="B10" s="2" t="n">
         <v>44680</v>
       </c>
       <c r="C10" t="n">
@@ -7775,7 +7779,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="H10" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7787,7 +7791,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B11" s="6" t="n">
+      <c r="B11" s="2" t="n">
         <v>44699</v>
       </c>
       <c r="C11" t="n">
@@ -7811,7 +7815,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H11" s="8" t="inlineStr">
+      <c r="H11" s="4" t="inlineStr">
         <is>
           <t>Resale escrow 5/18/2022 from 2022-05-31-10-Homeowner Resale Report.md (delta 0 days). No matching GL collection entry by unit/date.</t>
         </is>
@@ -7823,7 +7827,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B12" s="6" t="n">
+      <c r="B12" s="2" t="n">
         <v>44736</v>
       </c>
       <c r="C12" t="n">
@@ -7847,7 +7851,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7859,7 +7863,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B13" s="6" t="n">
+      <c r="B13" s="2" t="n">
         <v>44743</v>
       </c>
       <c r="C13" t="n">
@@ -7883,7 +7887,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H13" s="8" t="inlineStr">
+      <c r="H13" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7895,7 +7899,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B14" s="6" t="n">
+      <c r="B14" s="2" t="n">
         <v>44992</v>
       </c>
       <c r="C14" t="n">
@@ -7919,7 +7923,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="H14" s="4" t="inlineStr">
         <is>
           <t>Resale escrow 4/4/2023 from 2023-04-30-10-Homeowner Resale Report.md (delta 28 days). GL/deed date delta: 28 days.</t>
         </is>
@@ -7931,7 +7935,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B15" s="6" t="n">
+      <c r="B15" s="2" t="n">
         <v>45016</v>
       </c>
       <c r="C15" t="n">
@@ -7955,7 +7959,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H15" s="8" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -7967,7 +7971,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B16" s="6" t="n">
+      <c r="B16" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C16" t="n">
@@ -7991,7 +7995,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="H16" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -8003,7 +8007,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B17" s="6" t="n">
+      <c r="B17" s="2" t="n">
         <v>45470</v>
       </c>
       <c r="C17" t="n">
@@ -8027,7 +8031,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H17" s="8" t="inlineStr">
+      <c r="H17" s="4" t="inlineStr">
         <is>
           <t>No matching GL collection entry by unit/date.</t>
         </is>
@@ -8039,7 +8043,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B18" s="6" t="n">
+      <c r="B18" s="2" t="n">
         <v>45622</v>
       </c>
       <c r="C18" t="n">
@@ -8063,7 +8067,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="H18" s="4" t="inlineStr">
         <is>
           <t>GL/deed date delta: 96 days.</t>
         </is>
@@ -8075,7 +8079,7 @@
           <t>Claim 1</t>
         </is>
       </c>
-      <c r="B19" s="6" t="n">
+      <c r="B19" s="2" t="n">
         <v>45764</v>
       </c>
       <c r="C19" t="n">
@@ -8099,7 +8103,7 @@
           <t>Lotus House as grantee on post-amendment transfer.</t>
         </is>
       </c>
-      <c r="H19" s="8" t="inlineStr">
+      <c r="H19" s="4" t="inlineStr">
         <is>
           <t>Resale escrow 4/30/2025 from 2025-04-30-10-Homeowner Resale Report.md (delta 13 days). GL/deed date delta: 22 days.</t>
         </is>
@@ -8111,7 +8115,7 @@
           <t>Claim 2</t>
         </is>
       </c>
-      <c r="B20" s="6" t="n">
+      <c r="B20" s="2" t="n">
         <v>44265</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -8129,7 +8133,7 @@
           <t>Improper transfer from HOA fund to Lotus House.</t>
         </is>
       </c>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="H20" s="4" t="inlineStr">
         <is>
           <t>Transfer Contributions Fees</t>
         </is>
@@ -8141,7 +8145,7 @@
           <t>Claim 2</t>
         </is>
       </c>
-      <c r="B21" s="6" t="n">
+      <c r="B21" s="2" t="n">
         <v>44586</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -8159,7 +8163,7 @@
           <t>Improper transfer from HOA fund to Lotus House.</t>
         </is>
       </c>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="4" t="inlineStr">
         <is>
           <t>Payment per Agreement (void + re-entry, net $14,500)</t>
         </is>
@@ -8171,7 +8175,7 @@
           <t>Claim 2</t>
         </is>
       </c>
-      <c r="B22" s="6" t="n">
+      <c r="B22" s="2" t="n">
         <v>44988</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -8189,7 +8193,7 @@
           <t>Improper transfer from HOA fund to Lotus House.</t>
         </is>
       </c>
-      <c r="H22" s="8" t="inlineStr">
+      <c r="H22" s="4" t="inlineStr">
         <is>
           <t>Payment per agreement</t>
         </is>
@@ -8201,7 +8205,7 @@
           <t>Claim 2</t>
         </is>
       </c>
-      <c r="B23" s="6" t="n">
+      <c r="B23" s="2" t="n">
         <v>45359</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -8219,7 +8223,7 @@
           <t>Improper transfer from HOA fund to Lotus House.</t>
         </is>
       </c>
-      <c r="H23" s="8" t="inlineStr">
+      <c r="H23" s="4" t="inlineStr">
         <is>
           <t>Payment per Agreement</t>
         </is>
@@ -8231,7 +8235,7 @@
           <t>Claim 2</t>
         </is>
       </c>
-      <c r="B24" s="6" t="n">
+      <c r="B24" s="2" t="n">
         <v>45919</v>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -8249,7 +8253,7 @@
           <t>Improper transfer from HOA fund to Lotus House.</t>
         </is>
       </c>
-      <c r="H24" s="8" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>Payment per agreement</t>
         </is>
@@ -8257,13 +8261,13 @@
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
-      <c r="B25" s="6" t="inlineStr"/>
+      <c r="B25" s="2" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" s="30" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" s="8" t="inlineStr"/>
+      <c r="H25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="33" t="inlineStr">
@@ -8271,7 +8275,7 @@
           <t>Claim 1 Subtotal</t>
         </is>
       </c>
-      <c r="B26" s="6" t="inlineStr"/>
+      <c r="B26" s="2" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -8279,7 +8283,7 @@
         <v>9000</v>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" s="8" t="inlineStr"/>
+      <c r="H26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="33" t="inlineStr">
@@ -8287,7 +8291,7 @@
           <t>Claim 2 Subtotal</t>
         </is>
       </c>
-      <c r="B27" s="6" t="inlineStr"/>
+      <c r="B27" s="2" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
@@ -8295,7 +8299,7 @@
         <v>49000</v>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" s="8" t="inlineStr"/>
+      <c r="H27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="33" t="inlineStr">
@@ -8303,7 +8307,7 @@
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr"/>
+      <c r="B28" s="2" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
@@ -8311,7 +8315,7 @@
         <v>58000</v>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" s="8" t="inlineStr"/>
+      <c r="H28" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8324,7 +8328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -8444,10 +8448,10 @@
           <t>101700012</t>
         </is>
       </c>
-      <c r="G2" s="6" t="n">
+      <c r="G2" s="2" t="n">
         <v>45065</v>
       </c>
-      <c r="H2" s="6" t="n">
+      <c r="H2" s="2" t="n">
         <v>45065</v>
       </c>
       <c r="I2" t="n">
@@ -8459,7 +8463,7 @@
       <c r="K2" t="n">
         <v>1</v>
       </c>
-      <c r="L2" s="7" t="n">
+      <c r="L2" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M2" t="inlineStr">
@@ -8481,8 +8485,8 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" s="6" t="n"/>
-      <c r="H3" s="6" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
       <c r="I3" t="n">
         <v>2</v>
       </c>
@@ -8492,7 +8496,7 @@
       <c r="K3" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="n">
+      <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="inlineStr">
@@ -8514,8 +8518,8 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="6" t="n"/>
+      <c r="G4" s="2" t="n"/>
+      <c r="H4" s="2" t="n"/>
       <c r="I4" t="n">
         <v>3</v>
       </c>
@@ -8525,7 +8529,7 @@
       <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="7" t="n">
+      <c r="L4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="inlineStr">
@@ -8547,8 +8551,8 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" s="6" t="n"/>
-      <c r="H5" s="6" t="n"/>
+      <c r="G5" s="2" t="n"/>
+      <c r="H5" s="2" t="n"/>
       <c r="I5" t="n">
         <v>3</v>
       </c>
@@ -8558,7 +8562,7 @@
       <c r="K5" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="7" t="n">
+      <c r="L5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="inlineStr">
@@ -8596,10 +8600,10 @@
           <t>101700052</t>
         </is>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="2" t="n">
         <v>45015</v>
       </c>
-      <c r="H6" s="6" t="n">
+      <c r="H6" s="2" t="n">
         <v>45015</v>
       </c>
       <c r="I6" t="n">
@@ -8611,7 +8615,7 @@
       <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" s="7" t="n">
+      <c r="L6" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="M6" t="inlineStr">
@@ -8633,8 +8637,8 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" s="6" t="n"/>
-      <c r="H7" s="6" t="n"/>
+      <c r="G7" s="2" t="n"/>
+      <c r="H7" s="2" t="n"/>
       <c r="I7" t="n">
         <v>2</v>
       </c>
@@ -8644,7 +8648,7 @@
       <c r="K7" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="n">
+      <c r="L7" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="inlineStr">
@@ -8666,8 +8670,8 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" s="6" t="n"/>
-      <c r="H8" s="6" t="n"/>
+      <c r="G8" s="2" t="n"/>
+      <c r="H8" s="2" t="n"/>
       <c r="I8" t="n">
         <v>4</v>
       </c>
@@ -8677,7 +8681,7 @@
       <c r="K8" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="7" t="n">
+      <c r="L8" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M8" t="inlineStr">
@@ -8699,8 +8703,8 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" s="6" t="n"/>
-      <c r="H9" s="6" t="n"/>
+      <c r="G9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
       <c r="I9" t="n">
         <v>2</v>
       </c>
@@ -8710,7 +8714,7 @@
       <c r="K9" t="n">
         <v>1</v>
       </c>
-      <c r="L9" s="7" t="n">
+      <c r="L9" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M9" t="inlineStr">
@@ -8748,10 +8752,10 @@
           <t>101700093</t>
         </is>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="2" t="n">
         <v>45981</v>
       </c>
-      <c r="H10" s="6" t="n">
+      <c r="H10" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="I10" t="n">
@@ -8763,7 +8767,7 @@
       <c r="K10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="M10" t="inlineStr">
@@ -8801,10 +8805,10 @@
           <t>101700102</t>
         </is>
       </c>
-      <c r="G11" s="6" t="n">
+      <c r="G11" s="2" t="n">
         <v>44914</v>
       </c>
-      <c r="H11" s="6" t="n">
+      <c r="H11" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="I11" t="n">
@@ -8816,7 +8820,7 @@
       <c r="K11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="M11" t="inlineStr">
@@ -8829,7 +8833,11 @@
       <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>I (Original)</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>2018 79TH AVE SE</t>
@@ -8850,14 +8858,14 @@
           <t>101700111</t>
         </is>
       </c>
-      <c r="G12" s="6" t="n">
+      <c r="G12" s="2" t="n">
         <v>44673</v>
       </c>
-      <c r="H12" s="6" t="n">
+      <c r="H12" s="2" t="n">
         <v>44673</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8865,104 +8873,104 @@
       <c r="K12" t="n">
         <v>3</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>resale, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2028 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Joesy Senate and Nicole Tabor</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Karen L. Lyon</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>101700131</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="n">
-        <v>44565</v>
-      </c>
-      <c r="H13" s="6" t="n">
-        <v>44565</v>
-      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" s="2" t="n"/>
+      <c r="H13" s="2" t="n"/>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" s="6" t="n"/>
-      <c r="H14" s="6" t="n"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2028 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Joesy Senate and Nicole Tabor</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Karen L. Lyon</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>101700131</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="n">
+        <v>44565</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>44565</v>
+      </c>
       <c r="I14" t="n">
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -8973,18 +8981,18 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
-      <c r="G15" s="6" t="n"/>
-      <c r="H15" s="6" t="n"/>
+      <c r="G15" s="2" t="n"/>
+      <c r="H15" s="2" t="n"/>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="inlineStr">
@@ -8995,7 +9003,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -9006,18 +9014,18 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
-      <c r="G16" s="6" t="n"/>
-      <c r="H16" s="6" t="n"/>
+      <c r="G16" s="2" t="n"/>
+      <c r="H16" s="2" t="n"/>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="inlineStr">
@@ -9028,7 +9036,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -9039,10 +9047,10 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" s="6" t="n"/>
-      <c r="H17" s="6" t="n"/>
+      <c r="G17" s="2" t="n"/>
+      <c r="H17" s="2" t="n"/>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9050,7 +9058,7 @@
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="inlineStr">
@@ -9061,93 +9069,93 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2003 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Brian S. Morgan and Laura K. Herrick</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Jeff &amp; Linda Hall</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>101700181</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="n">
-        <v>44383</v>
-      </c>
-      <c r="H18" s="6" t="n">
-        <v>44383</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" s="2" t="n"/>
+      <c r="H18" s="2" t="n"/>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" s="6" t="n"/>
-      <c r="H19" s="6" t="n"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2003 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Brian S. Morgan and Laura K. Herrick</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jeff &amp; Linda Hall</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>101700181</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="n">
+        <v>44383</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>44383</v>
+      </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -9158,10 +9166,10 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" s="6" t="n"/>
-      <c r="H20" s="6" t="n"/>
+      <c r="G20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -9169,7 +9177,7 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="inlineStr">
@@ -9180,7 +9188,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -9191,10 +9199,10 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
-      <c r="G21" s="6" t="n"/>
-      <c r="H21" s="6" t="n"/>
+      <c r="G21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9202,7 +9210,7 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="inlineStr">
@@ -9213,93 +9221,93 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2029 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Adam and Sheri Griggs</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Joshua W. and Nichole M. Renschler</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>101700221</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="n">
-        <v>44533</v>
-      </c>
-      <c r="H22" s="6" t="n">
-        <v>44533</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
       <c r="I22" t="n">
         <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" s="6" t="n"/>
-      <c r="H23" s="6" t="n"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2029 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Adam and Sheri Griggs</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Joshua W. and Nichole M. Renschler</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>101700221</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>44533</v>
+      </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -9310,10 +9318,10 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
-      <c r="G24" s="6" t="n"/>
-      <c r="H24" s="6" t="n"/>
+      <c r="G24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9321,7 +9329,7 @@
       <c r="K24" t="n">
         <v>0</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="L24" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="inlineStr">
@@ -9332,7 +9340,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -9343,10 +9351,10 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" s="6" t="n"/>
-      <c r="H25" s="6" t="n"/>
+      <c r="G25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -9354,7 +9362,7 @@
       <c r="K25" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="7" t="n">
+      <c r="L25" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="inlineStr">
@@ -9365,94 +9373,74 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>I (Original)</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>7908 Riverview Dr SE</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Christopher Haymes</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Anthony J. Sinclair &amp; Denise R Sinclair</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>101700261</t>
-        </is>
-      </c>
-      <c r="G26" s="6" t="n">
-        <v>45904</v>
-      </c>
-      <c r="H26" s="6" t="n">
-        <v>45919</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" s="2" t="n"/>
+      <c r="H26" s="2" t="n"/>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="7" t="n">
+      <c r="L26" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>II</t>
+          <t>I (Original)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2106 79TH AVE SE</t>
+          <t>7908 Riverview Dr SE</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Brenden Higashi and Miles Sari</t>
+          <t>Christopher Haymes</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>James G Niebuhr &amp; Bernadette M Niebuhr</t>
+          <t>Anthony J. Sinclair &amp; Denise R Sinclair</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>101700271</t>
-        </is>
-      </c>
-      <c r="G27" s="6" t="n">
-        <v>45868</v>
-      </c>
-      <c r="H27" s="6" t="n">
-        <v>45873</v>
+          <t>101700261</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45919</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
         <v>1</v>
@@ -9460,7 +9448,7 @@
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" s="7" t="n">
+      <c r="L27" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="inlineStr">
@@ -9471,40 +9459,60 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" s="6" t="n"/>
-      <c r="H28" s="6" t="n"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2106 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Brenden Higashi and Miles Sari</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>James G Niebuhr &amp; Bernadette M Niebuhr</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>101700271</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45873</v>
+      </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
-      <c r="L28" s="7" t="n">
+      <c r="L28" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -9515,61 +9523,41 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" s="6" t="n"/>
-      <c r="H29" s="6" t="n"/>
+      <c r="G29" s="2" t="n"/>
+      <c r="H29" s="2" t="n"/>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L29" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>2124 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Taylor Christian Rieff</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Scott L Taylor &amp; Kim R Taylor</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>101700301</t>
-        </is>
-      </c>
-      <c r="G30" s="6" t="n">
-        <v>44546</v>
-      </c>
-      <c r="H30" s="6" t="n">
-        <v>44546</v>
-      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" s="2" t="n"/>
+      <c r="H30" s="2" t="n"/>
       <c r="I30" t="n">
         <v>3</v>
       </c>
@@ -9577,53 +9565,73 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L30" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" s="6" t="n"/>
-      <c r="H31" s="6" t="n"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2124 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Taylor Christian Rieff</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Scott L Taylor &amp; Kim R Taylor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>101700301</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>44546</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>44546</v>
+      </c>
       <c r="I31" t="n">
         <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
-      <c r="L31" s="7" t="n">
+      <c r="L31" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -9634,18 +9642,18 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" s="6" t="n"/>
-      <c r="H32" s="6" t="n"/>
+      <c r="G32" s="2" t="n"/>
+      <c r="H32" s="2" t="n"/>
       <c r="I32" t="n">
         <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
-      <c r="L32" s="7" t="n">
+      <c r="L32" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="inlineStr">
@@ -9656,39 +9664,19 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>2142 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Chad and Stephanie Johnson</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Corey L Leneker &amp; Amy S Leneker</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>101700331</t>
-        </is>
-      </c>
-      <c r="G33" s="6" t="n">
-        <v>44398</v>
-      </c>
-      <c r="H33" s="6" t="n">
-        <v>44398</v>
-      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
       <c r="I33" t="n">
         <v>3</v>
       </c>
@@ -9696,53 +9684,73 @@
         <v>1</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" s="6" t="n"/>
-      <c r="H34" s="6" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2142 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Chad and Stephanie Johnson</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Corey L Leneker &amp; Amy S Leneker</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>101700331</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>44398</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>44398</v>
+      </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L34" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -9753,10 +9761,10 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" s="6" t="n"/>
-      <c r="H35" s="6" t="n"/>
+      <c r="G35" s="2" t="n"/>
+      <c r="H35" s="2" t="n"/>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -9764,7 +9772,7 @@
       <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" s="7" t="n">
+      <c r="L35" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="inlineStr">
@@ -9775,60 +9783,40 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>2246 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Kristine M. Rompa</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>James M. and Trova K. Heffernan</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>101700361</t>
-        </is>
-      </c>
-      <c r="G36" s="6" t="n">
-        <v>44818</v>
-      </c>
-      <c r="H36" s="6" t="n">
-        <v>44826</v>
-      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" s="2" t="n"/>
+      <c r="H36" s="2" t="n"/>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L36" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -9837,84 +9825,104 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2302 79TH AVE SE</t>
+          <t>2246 79TH AVE SE</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jordan and Laiklyn L. Pine</t>
+          <t>Kristine M. Rompa</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Denise Napier</t>
+          <t>James M. and Trova K. Heffernan</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>101700371</t>
-        </is>
-      </c>
-      <c r="G37" s="6" t="n">
-        <v>45930</v>
-      </c>
-      <c r="H37" s="6" t="n">
-        <v>45939</v>
+          <t>101700361</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>44826</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J37" t="n">
+        <v>2</v>
+      </c>
+      <c r="K37" t="n">
         <v>1</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7" t="n">
-        <v>0</v>
+      <c r="L37" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" s="6" t="n"/>
-      <c r="H38" s="6" t="n"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2302 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Jordan and Laiklyn L. Pine</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Denise Napier</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>101700371</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>45939</v>
+      </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
-      <c r="L38" s="7" t="n">
+      <c r="L38" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -9925,29 +9933,29 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" s="6" t="n"/>
-      <c r="H39" s="6" t="n"/>
+      <c r="G39" s="2" t="n"/>
+      <c r="H39" s="2" t="n"/>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
-      </c>
-      <c r="L39" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L39" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -9958,29 +9966,29 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" s="6" t="n"/>
-      <c r="H40" s="6" t="n"/>
+      <c r="G40" s="2" t="n"/>
+      <c r="H40" s="2" t="n"/>
       <c r="I40" t="n">
         <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -9991,10 +9999,10 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" s="6" t="n"/>
-      <c r="H41" s="6" t="n"/>
+      <c r="G41" s="2" t="n"/>
+      <c r="H41" s="2" t="n"/>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -10002,7 +10010,7 @@
       <c r="K41" t="n">
         <v>0</v>
       </c>
-      <c r="L41" s="7" t="n">
+      <c r="L41" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
@@ -10013,56 +10021,40 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>2321 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Marianne Schulze and Raul Ramos</t>
-        </is>
-      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>101700930</t>
-        </is>
-      </c>
-      <c r="G42" s="6" t="n">
-        <v>45777</v>
-      </c>
-      <c r="H42" s="6" t="n">
-        <v>45786</v>
-      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" s="2" t="n"/>
+      <c r="H42" s="2" t="n"/>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -10071,41 +10063,37 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2313 79th Ave SE</t>
+          <t>2321 79TH AVE SE</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Ryan and Allison Cook and Linda L. Cornett Cook</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>SFR Acquisitions 1 LLC</t>
-        </is>
-      </c>
+          <t>Marianne Schulze and Raul Ramos</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>101700631</t>
-        </is>
-      </c>
-      <c r="G43" s="6" t="n">
-        <v>45525</v>
-      </c>
-      <c r="H43" s="6" t="n">
-        <v>45525</v>
+          <t>101700930</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>45786</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" s="7" t="n">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="L43" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -10115,7 +10103,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -10124,29 +10112,29 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2307 79th Ave SE</t>
+          <t>2313 79th Ave SE</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chelsie and Robert Busey</t>
+          <t>Ryan and Allison Cook and Linda L. Cornett Cook</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>William Spangler and Susan Bloomfield</t>
+          <t>SFR Acquisitions 1 LLC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>101700701</t>
-        </is>
-      </c>
-      <c r="G44" s="6" t="n">
-        <v>45677</v>
-      </c>
-      <c r="H44" s="6" t="n">
-        <v>45677</v>
+          <t>101700631</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>45525</v>
       </c>
       <c r="I44" t="n">
         <v>3</v>
@@ -10157,7 +10145,7 @@
       <c r="K44" t="n">
         <v>2</v>
       </c>
-      <c r="L44" s="7" t="n">
+      <c r="L44" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="M44" t="inlineStr">
@@ -10168,7 +10156,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -10177,37 +10165,41 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2301 79th Ave SE</t>
+          <t>2307 79th Ave SE</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>JK Monarch LLC</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
+          <t>Chelsie and Robert Busey</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>William Spangler and Susan Bloomfield</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>101700520</t>
-        </is>
-      </c>
-      <c r="G45" s="6" t="n">
-        <v>44333</v>
-      </c>
-      <c r="H45" s="6" t="n">
-        <v>44333</v>
+          <t>101700701</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>45677</v>
       </c>
       <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3</v>
+      </c>
+      <c r="K45" t="n">
         <v>2</v>
       </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>1</v>
-      </c>
-      <c r="L45" s="7" t="n">
-        <v>2000</v>
+      <c r="L45" s="3" t="n">
+        <v>1000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -10217,7 +10209,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -10226,7 +10218,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2245 79th Ave SE</t>
+          <t>2301 79th Ave SE</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -10237,13 +10229,13 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>101700530</t>
-        </is>
-      </c>
-      <c r="G46" s="6" t="n">
+          <t>101700520</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="H46" s="6" t="n">
+      <c r="H46" s="2" t="n">
         <v>44333</v>
       </c>
       <c r="I46" t="n">
@@ -10253,20 +10245,20 @@
         <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="3" t="n">
+        <v>2000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -10275,29 +10267,25 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2239 79th Ave SE</t>
+          <t>2245 79th Ave SE</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Robert Soldier and Frances Limtiaco</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
           <t>JK Monarch LLC</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>101700571</t>
-        </is>
-      </c>
-      <c r="G47" s="6" t="n">
-        <v>44902</v>
-      </c>
-      <c r="H47" s="6" t="n">
-        <v>44902</v>
+          <t>101700530</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>44333</v>
       </c>
       <c r="I47" t="n">
         <v>2</v>
@@ -10306,20 +10294,20 @@
         <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
-      </c>
-      <c r="L47" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -10328,12 +10316,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2233 79th Ave SE</t>
+          <t>2239 79th Ave SE</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>James C. and Kimberly A. Lords</t>
+          <t>Robert Soldier and Frances Limtiaco</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -10343,14 +10331,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>101700581</t>
-        </is>
-      </c>
-      <c r="G48" s="6" t="n">
-        <v>45034</v>
-      </c>
-      <c r="H48" s="6" t="n">
-        <v>45034</v>
+          <t>101700571</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>44902</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
@@ -10361,7 +10349,7 @@
       <c r="K48" t="n">
         <v>1</v>
       </c>
-      <c r="L48" s="7" t="n">
+      <c r="L48" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M48" t="inlineStr">
@@ -10372,7 +10360,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -10381,12 +10369,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2227 79th Ave SE</t>
+          <t>2233 79th Ave SE</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jaclyn Nicole and Sean Michael S. Sison</t>
+          <t>James C. and Kimberly A. Lords</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -10396,25 +10384,25 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>101700541</t>
-        </is>
-      </c>
-      <c r="G49" s="6" t="n">
-        <v>44993</v>
-      </c>
-      <c r="H49" s="6" t="n">
-        <v>44993</v>
+          <t>101700581</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>45034</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>45034</v>
       </c>
       <c r="I49" t="n">
         <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K49" t="n">
         <v>1</v>
       </c>
-      <c r="L49" s="7" t="n">
+      <c r="L49" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M49" t="inlineStr">
@@ -10425,7 +10413,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -10434,12 +10422,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2221 79th Ave SE</t>
+          <t>2227 79th Ave SE</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Linda Stamer</t>
+          <t>Jaclyn Nicole and Sean Michael S. Sison</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -10449,17 +10437,17 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>101700551</t>
-        </is>
-      </c>
-      <c r="G50" s="6" t="n">
-        <v>45313</v>
-      </c>
-      <c r="H50" s="6" t="n">
-        <v>45313</v>
+          <t>101700541</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>44993</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>44993</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
@@ -10467,7 +10455,7 @@
       <c r="K50" t="n">
         <v>1</v>
       </c>
-      <c r="L50" s="7" t="n">
+      <c r="L50" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M50" t="inlineStr">
@@ -10478,93 +10466,93 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" s="6" t="n"/>
-      <c r="H51" s="6" t="n"/>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2221 79th Ave SE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Linda Stamer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>JK Monarch LLC</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>101700551</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>45313</v>
+      </c>
       <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
         <v>1</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
       <c r="K51" t="n">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L51" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2209 79th Ave SE</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Angela and Derrick Huber</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>JK Monarch LLC</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>101700441</t>
-        </is>
-      </c>
-      <c r="G52" s="6" t="n">
-        <v>44902</v>
-      </c>
-      <c r="H52" s="6" t="n">
-        <v>44902</v>
-      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" s="2" t="n"/>
+      <c r="H52" s="2" t="n"/>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>1</v>
-      </c>
-      <c r="L52" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -10573,12 +10561,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2203 79th Ave SE</t>
+          <t>2209 79th Ave SE</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Anthony J. and Cyann L. Davis</t>
+          <t>Angela and Derrick Huber</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -10588,14 +10576,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>101700451</t>
-        </is>
-      </c>
-      <c r="G53" s="6" t="n">
-        <v>44909</v>
-      </c>
-      <c r="H53" s="6" t="n">
-        <v>44909</v>
+          <t>101700441</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>44902</v>
       </c>
       <c r="I53" t="n">
         <v>2</v>
@@ -10606,7 +10594,7 @@
       <c r="K53" t="n">
         <v>1</v>
       </c>
-      <c r="L53" s="7" t="n">
+      <c r="L53" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M53" t="inlineStr">
@@ -10617,7 +10605,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -10626,40 +10614,40 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2147 79TH AVE SE</t>
+          <t>2203 79th Ave SE</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Juliet Shier and Martha L. Hall</t>
+          <t>Anthony J. and Cyann L. Davis</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Jason W. and Jamie E. Merly</t>
+          <t>JK Monarch LLC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>101700591</t>
-        </is>
-      </c>
-      <c r="G54" s="6" t="n">
-        <v>45418</v>
-      </c>
-      <c r="H54" s="6" t="n">
-        <v>45418</v>
+          <t>101700451</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>44909</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>44909</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="n">
         <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
-      </c>
-      <c r="L54" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M54" t="inlineStr">
@@ -10670,7 +10658,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -10679,40 +10667,40 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2141 79th Ave SE</t>
+          <t>2147 79TH AVE SE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Brenden J. Weinroth and Megan C. Israel</t>
+          <t>Juliet Shier and Martha L. Hall</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>JK Monarch LLC</t>
+          <t>Jason W. and Jamie E. Merly</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>101700601</t>
-        </is>
-      </c>
-      <c r="G55" s="6" t="n">
-        <v>44902</v>
-      </c>
-      <c r="H55" s="6" t="n">
-        <v>44902</v>
+          <t>101700591</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>45418</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J55" t="n">
         <v>1</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
-      </c>
-      <c r="L55" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M55" t="inlineStr">
@@ -10723,7 +10711,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -10732,12 +10720,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2135 79TH AVE SE</t>
+          <t>2141 79th Ave SE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Chad Kirby and Karla Youngers</t>
+          <t>Brenden J. Weinroth and Megan C. Israel</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -10747,14 +10735,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>101700611</t>
-        </is>
-      </c>
-      <c r="G56" s="6" t="n">
-        <v>44551</v>
-      </c>
-      <c r="H56" s="6" t="n">
-        <v>44551</v>
+          <t>101700601</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>44902</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -10765,7 +10753,7 @@
       <c r="K56" t="n">
         <v>1</v>
       </c>
-      <c r="L56" s="7" t="n">
+      <c r="L56" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M56" t="inlineStr">
@@ -10776,158 +10764,158 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" s="6" t="n"/>
-      <c r="H57" s="6" t="n"/>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2135 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Chad Kirby and Karla Youngers</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>JK Monarch LLC</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>101700611</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>44551</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>44551</v>
+      </c>
       <c r="I57" t="n">
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L57" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2123 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Charles and Brianna Akau</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>JK Monarch LLC</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>101700421</t>
-        </is>
-      </c>
-      <c r="G58" s="6" t="n">
-        <v>44508</v>
-      </c>
-      <c r="H58" s="6" t="n">
-        <v>44508</v>
-      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" s="2" t="n"/>
+      <c r="H58" s="2" t="n"/>
       <c r="I58" t="n">
         <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" s="6" t="n"/>
-      <c r="H59" s="6" t="n"/>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2123 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Charles and Brianna Akau</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>JK Monarch LLC</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>101700421</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>44508</v>
+      </c>
       <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
         <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
       </c>
       <c r="K59" t="n">
         <v>1</v>
       </c>
-      <c r="L59" s="7" t="n">
+      <c r="L59" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2111 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Rebecca J Valero Trustee</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>JK Monarch LLC</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>101700651</t>
-        </is>
-      </c>
-      <c r="G60" s="6" t="n">
-        <v>44916</v>
-      </c>
-      <c r="H60" s="6" t="n">
-        <v>44916</v>
-      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" s="2" t="n"/>
+      <c r="H60" s="2" t="n"/>
       <c r="I60" t="n">
         <v>1</v>
       </c>
@@ -10937,63 +10925,83 @@
       <c r="K60" t="n">
         <v>1</v>
       </c>
-      <c r="L60" s="7" t="n">
+      <c r="L60" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>II</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" s="6" t="n"/>
-      <c r="H61" s="6" t="n"/>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2111 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rebecca J Valero Trustee</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>JK Monarch LLC</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>101700651</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="n">
+        <v>44916</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>44916</v>
+      </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L61" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>III</t>
+          <t>II</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
-      <c r="G62" s="6" t="n"/>
-      <c r="H62" s="6" t="n"/>
+      <c r="G62" s="2" t="n"/>
+      <c r="H62" s="2" t="n"/>
       <c r="I62" t="n">
         <v>2</v>
       </c>
@@ -11003,7 +11011,7 @@
       <c r="K62" t="n">
         <v>0</v>
       </c>
-      <c r="L62" s="7" t="n">
+      <c r="L62" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M62" t="inlineStr">
@@ -11014,7 +11022,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -11025,8 +11033,8 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
-      <c r="G63" s="6" t="n"/>
-      <c r="H63" s="6" t="n"/>
+      <c r="G63" s="2" t="n"/>
+      <c r="H63" s="2" t="n"/>
       <c r="I63" t="n">
         <v>2</v>
       </c>
@@ -11034,20 +11042,20 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L63" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -11058,18 +11066,18 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
-      <c r="G64" s="6" t="n"/>
-      <c r="H64" s="6" t="n"/>
+      <c r="G64" s="2" t="n"/>
+      <c r="H64" s="2" t="n"/>
       <c r="I64" t="n">
         <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
       </c>
-      <c r="L64" s="7" t="n">
+      <c r="L64" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M64" t="inlineStr">
@@ -11080,60 +11088,40 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>7633 Deschutes Heights Ct SE</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>Andrew and Phuc Vangerpen</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Capital Development Properties</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>101700721</t>
-        </is>
-      </c>
-      <c r="G65" s="6" t="n">
-        <v>44384</v>
-      </c>
-      <c r="H65" s="6" t="n">
-        <v>44384</v>
-      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" s="2" t="n"/>
+      <c r="H65" s="2" t="n"/>
       <c r="I65" t="n">
         <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>1</v>
       </c>
-      <c r="L65" s="7" t="n">
+      <c r="L65" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -11142,32 +11130,32 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>7632 Deschutes Heights Ct SE</t>
+          <t>7633 Deschutes Heights Ct SE</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Tara Morey and Joshua J. Creekpaum</t>
+          <t>Andrew and Phuc Vangerpen</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Christopher R. and Gina D. Barner</t>
+          <t>Capital Development Properties</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>101700731</t>
-        </is>
-      </c>
-      <c r="G66" s="6" t="n">
-        <v>45797</v>
-      </c>
-      <c r="H66" s="6" t="n">
-        <v>45797</v>
+          <t>101700721</t>
+        </is>
+      </c>
+      <c r="G66" s="2" t="n">
+        <v>44384</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>44384</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
@@ -11175,7 +11163,7 @@
       <c r="K66" t="n">
         <v>1</v>
       </c>
-      <c r="L66" s="7" t="n">
+      <c r="L66" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M66" t="inlineStr">
@@ -11186,68 +11174,72 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" s="6" t="n"/>
-      <c r="H67" s="6" t="n"/>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>7632 Deschutes Heights Ct SE</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Tara Morey and Joshua J. Creekpaum</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Christopher R. and Gina D. Barner</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>101700731</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="n">
+        <v>45797</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>45797</v>
+      </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
         <v>1</v>
       </c>
-      <c r="L67" s="7" t="n">
+      <c r="L67" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>7644 Deschutes Heights Ct SE</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>Daniel M. and Amanda Walsh</t>
-        </is>
-      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>101700740</t>
-        </is>
-      </c>
-      <c r="G68" s="6" t="n">
-        <v>44699</v>
-      </c>
-      <c r="H68" s="6" t="n">
-        <v>44706</v>
-      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" s="2" t="n"/>
+      <c r="H68" s="2" t="n"/>
       <c r="I68" t="n">
         <v>2</v>
       </c>
@@ -11257,190 +11249,186 @@
       <c r="K68" t="n">
         <v>1</v>
       </c>
-      <c r="L68" s="7" t="n">
+      <c r="L68" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>7644 Deschutes Heights Ct SE</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Daniel M. and Amanda Walsh</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" s="6" t="n"/>
-      <c r="H69" s="6" t="n"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>101700740</t>
+        </is>
+      </c>
+      <c r="G69" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>44706</v>
+      </c>
       <c r="I69" t="n">
         <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L69" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>2424 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Shamsher Singh and Anita Rani</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Isaac Dermanoski</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>101700781</t>
-        </is>
-      </c>
-      <c r="G70" s="6" t="n">
-        <v>45043</v>
-      </c>
-      <c r="H70" s="6" t="n">
-        <v>45043</v>
-      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" s="2" t="n"/>
+      <c r="H70" s="2" t="n"/>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L70" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" s="6" t="n"/>
-      <c r="H71" s="6" t="n"/>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2424 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Shamsher Singh and Anita Rani</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Isaac Dermanoski</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>101700781</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="n">
+        <v>45043</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>45043</v>
+      </c>
       <c r="I71" t="n">
         <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>1</v>
       </c>
-      <c r="L71" s="7" t="n">
+      <c r="L71" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>7617 Deschutes Woods Ct SE</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>Kevin D. and Claire R. Randich</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Levi and Kayla Tate</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>101700811</t>
-        </is>
-      </c>
-      <c r="G72" s="6" t="n">
-        <v>45470</v>
-      </c>
-      <c r="H72" s="6" t="n">
-        <v>45470</v>
-      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" s="2" t="n"/>
+      <c r="H72" s="2" t="n"/>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="n">
         <v>2</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L72" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>deeds, resale</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -11449,51 +11437,51 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>7616 DESCHUTES WOODS CT SE</t>
+          <t>7617 Deschutes Woods Ct SE</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jordan J. and Leah M. Dowers</t>
+          <t>Kevin D. and Claire R. Randich</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Daniel and Brenna Young</t>
+          <t>Levi and Kayla Tate</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>101700822</t>
-        </is>
-      </c>
-      <c r="G73" s="6" t="n">
-        <v>45400</v>
-      </c>
-      <c r="H73" s="6" t="n">
-        <v>45400</v>
+          <t>101700811</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>45470</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>1</v>
-      </c>
-      <c r="L73" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L73" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, resale</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -11502,29 +11490,29 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>7620 Deschutes Woods Ct SE</t>
+          <t>7616 DESCHUTES WOODS CT SE</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Alicia and Dan Difolco</t>
+          <t>Jordan J. and Leah M. Dowers</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Kirk M. and Teresa Olson</t>
+          <t>Daniel and Brenna Young</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>101700831</t>
-        </is>
-      </c>
-      <c r="G74" s="6" t="n">
-        <v>45471</v>
-      </c>
-      <c r="H74" s="6" t="n">
-        <v>45471</v>
+          <t>101700822</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>45400</v>
       </c>
       <c r="I74" t="n">
         <v>3</v>
@@ -11535,7 +11523,7 @@
       <c r="K74" t="n">
         <v>1</v>
       </c>
-      <c r="L74" s="7" t="n">
+      <c r="L74" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M74" t="inlineStr">
@@ -11546,68 +11534,72 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" s="6" t="n"/>
-      <c r="H75" s="6" t="n"/>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>7620 Deschutes Woods Ct SE</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Alicia and Dan Difolco</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Kirk M. and Teresa Olson</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>101700831</t>
+        </is>
+      </c>
+      <c r="G75" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>45471</v>
+      </c>
       <c r="I75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K75" t="n">
         <v>1</v>
       </c>
-      <c r="L75" s="7" t="n">
+      <c r="L75" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>2440 79th Ave SE</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Michael D. and Nancy M. Matlock</t>
-        </is>
-      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>101700510</t>
-        </is>
-      </c>
-      <c r="G76" s="6" t="n">
-        <v>44333</v>
-      </c>
-      <c r="H76" s="6" t="n">
-        <v>44333</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" s="2" t="n"/>
+      <c r="H76" s="2" t="n"/>
       <c r="I76" t="n">
         <v>2</v>
       </c>
@@ -11617,30 +11609,46 @@
       <c r="K76" t="n">
         <v>1</v>
       </c>
-      <c r="L76" s="7" t="n">
+      <c r="L76" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2440 79th Ave SE</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Michael D. and Nancy M. Matlock</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" s="6" t="n"/>
-      <c r="H77" s="6" t="n"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>101700510</t>
+        </is>
+      </c>
+      <c r="G77" s="2" t="n">
+        <v>44333</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>44333</v>
+      </c>
       <c r="I77" t="n">
         <v>2</v>
       </c>
@@ -11650,18 +11658,18 @@
       <c r="K77" t="n">
         <v>1</v>
       </c>
-      <c r="L77" s="7" t="n">
+      <c r="L77" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -11672,29 +11680,29 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
-      <c r="G78" s="6" t="n"/>
-      <c r="H78" s="6" t="n"/>
+      <c r="G78" s="2" t="n"/>
+      <c r="H78" s="2" t="n"/>
       <c r="I78" t="n">
         <v>2</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L78" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -11705,8 +11713,8 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr"/>
-      <c r="G79" s="6" t="n"/>
-      <c r="H79" s="6" t="n"/>
+      <c r="G79" s="2" t="n"/>
+      <c r="H79" s="2" t="n"/>
       <c r="I79" t="n">
         <v>2</v>
       </c>
@@ -11716,7 +11724,7 @@
       <c r="K79" t="n">
         <v>0</v>
       </c>
-      <c r="L79" s="7" t="n">
+      <c r="L79" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M79" t="inlineStr">
@@ -11727,7 +11735,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -11738,8 +11746,8 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
-      <c r="G80" s="6" t="n"/>
-      <c r="H80" s="6" t="n"/>
+      <c r="G80" s="2" t="n"/>
+      <c r="H80" s="2" t="n"/>
       <c r="I80" t="n">
         <v>2</v>
       </c>
@@ -11749,7 +11757,7 @@
       <c r="K80" t="n">
         <v>0</v>
       </c>
-      <c r="L80" s="7" t="n">
+      <c r="L80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="M80" t="inlineStr">
@@ -11760,7 +11768,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -11771,29 +11779,29 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
-      <c r="G81" s="6" t="n"/>
-      <c r="H81" s="6" t="n"/>
+      <c r="G81" s="2" t="n"/>
+      <c r="H81" s="2" t="n"/>
       <c r="I81" t="n">
         <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L81" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>deeds, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -11804,78 +11812,62 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
-      <c r="G82" s="6" t="n"/>
-      <c r="H82" s="6" t="n"/>
+      <c r="G82" s="2" t="n"/>
+      <c r="H82" s="2" t="n"/>
       <c r="I82" t="n">
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, gl</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>2518 79th Ave SE</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>Tana M. Dennery</t>
-        </is>
-      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>101700500</t>
-        </is>
-      </c>
-      <c r="G83" s="6" t="n">
-        <v>44322</v>
-      </c>
-      <c r="H83" s="6" t="n">
-        <v>44322</v>
-      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" s="2" t="n"/>
+      <c r="H83" s="2" t="n"/>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K83" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L83" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -11884,36 +11876,36 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2530 79th Ave SE</t>
+          <t>2518 79th Ave SE</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Patrick and Lisa Kelley</t>
+          <t>Tana M. Dennery</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>101700750</t>
-        </is>
-      </c>
-      <c r="G84" s="6" t="n">
-        <v>44749</v>
-      </c>
-      <c r="H84" s="6" t="n">
-        <v>44749</v>
+          <t>101700500</t>
+        </is>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>44322</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>44322</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
         <v>1</v>
       </c>
-      <c r="L84" s="7" t="n">
+      <c r="L84" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M84" t="inlineStr">
@@ -11924,7 +11916,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -11933,25 +11925,25 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2531 79TH AVE SE</t>
+          <t>2530 79th Ave SE</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Jennifer S. and David J. Magnuson</t>
+          <t>Patrick and Lisa Kelley</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>101700920</t>
-        </is>
-      </c>
-      <c r="G85" s="6" t="n">
-        <v>45718</v>
-      </c>
-      <c r="H85" s="6" t="n">
-        <v>45718</v>
+          <t>101700750</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>44749</v>
       </c>
       <c r="I85" t="n">
         <v>2</v>
@@ -11962,7 +11954,7 @@
       <c r="K85" t="n">
         <v>1</v>
       </c>
-      <c r="L85" s="7" t="n">
+      <c r="L85" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M85" t="inlineStr">
@@ -11973,89 +11965,89 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2531 79TH AVE SE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Jennifer S. and David J. Magnuson</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" s="6" t="n"/>
-      <c r="H86" s="6" t="n"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>101700920</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>45718</v>
+      </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L86" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>deeds</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>III</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2433 79TH AVE SE</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Stephanie and Robert W. Harris</t>
-        </is>
-      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>101700790</t>
-        </is>
-      </c>
-      <c r="G87" s="6" t="n">
-        <v>45020</v>
-      </c>
-      <c r="H87" s="6" t="n">
-        <v>45020</v>
-      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" s="2" t="n"/>
+      <c r="H87" s="2" t="n"/>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K87" t="n">
-        <v>1</v>
-      </c>
-      <c r="L87" s="7" t="n">
-        <v>500</v>
+        <v>0</v>
+      </c>
+      <c r="L87" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>deeds</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -12064,41 +12056,37 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2421 79th Ave SE</t>
+          <t>2433 79TH AVE SE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Jaclyn Fraser and Matthew Mazur Hart</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Bret R. and Jocelyn W. Jensen</t>
-        </is>
-      </c>
+          <t>Stephanie and Robert W. Harris</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>101700761</t>
-        </is>
-      </c>
-      <c r="G88" s="6" t="n">
-        <v>45492</v>
-      </c>
-      <c r="H88" s="6" t="n">
-        <v>45492</v>
+          <t>101700790</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>45020</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>45020</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K88" t="n">
-        <v>2</v>
-      </c>
-      <c r="L88" s="7" t="n">
-        <v>1000</v>
+        <v>1</v>
+      </c>
+      <c r="L88" s="3" t="n">
+        <v>500</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
@@ -12108,7 +12096,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -12117,37 +12105,41 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>7552 DESCHUTES RIDGE CT SE</t>
+          <t>2421 79th Ave SE</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Marie Ann McDaniel</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr"/>
+          <t>Jaclyn Fraser and Matthew Mazur Hart</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bret R. and Jocelyn W. Jensen</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>101700800</t>
-        </is>
-      </c>
-      <c r="G89" s="6" t="n">
-        <v>45033</v>
-      </c>
-      <c r="H89" s="6" t="n">
-        <v>45033</v>
+          <t>101700761</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>45492</v>
       </c>
       <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3</v>
+      </c>
+      <c r="K89" t="n">
         <v>2</v>
       </c>
-      <c r="J89" t="n">
-        <v>2</v>
-      </c>
-      <c r="K89" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="7" t="n">
-        <v>500</v>
+      <c r="L89" s="3" t="n">
+        <v>1000</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
@@ -12157,106 +12149,110 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>109</v>
-      </c>
-      <c r="B90" t="inlineStr"/>
+        <v>108</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2415 79th Ave SE</t>
+          <t>7552 DESCHUTES RIDGE CT SE</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Corinne L. Fisher and Peter Chaffey</t>
+          <t>Marie Ann McDaniel</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>101700840</t>
-        </is>
-      </c>
-      <c r="G90" s="6" t="n">
-        <v>45420</v>
-      </c>
-      <c r="H90" s="6" t="n">
-        <v>45420</v>
+          <t>101700800</t>
+        </is>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>45033</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
         <v>1</v>
       </c>
-      <c r="L90" s="7" t="n">
+      <c r="L90" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>resale, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>110</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>III</t>
-        </is>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2339 79th Drive SE</t>
+          <t>2415 79th Ave SE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Olympia Ecosystems</t>
+          <t>Corinne L. Fisher and Peter Chaffey</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>101700850</t>
-        </is>
-      </c>
-      <c r="G91" s="6" t="n">
+          <t>101700840</t>
+        </is>
+      </c>
+      <c r="G91" s="2" t="n">
         <v>45420</v>
       </c>
-      <c r="H91" s="6" t="n">
+      <c r="H91" s="2" t="n">
         <v>45420</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>1</v>
       </c>
-      <c r="L91" s="7" t="n">
+      <c r="L91" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>deeds, resale, gl</t>
+          <t>resale, gl</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111</v>
-      </c>
-      <c r="B92" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>III</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>7948 Riverview Dr SE</t>
+          <t>2339 79th Drive SE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -12267,59 +12263,59 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>101700860</t>
-        </is>
-      </c>
-      <c r="G92" s="6" t="n">
+          <t>101700850</t>
+        </is>
+      </c>
+      <c r="G92" s="2" t="n">
         <v>45420</v>
       </c>
-      <c r="H92" s="6" t="n">
+      <c r="H92" s="2" t="n">
         <v>45420</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K92" t="n">
         <v>1</v>
       </c>
-      <c r="L92" s="7" t="n">
+      <c r="L92" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>resale, gl</t>
+          <t>deeds, resale, gl</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2525 79th Ave SE</t>
+          <t>7948 Riverview Dr SE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Andriana and Abraham Jeon</t>
+          <t>Olympia Ecosystems</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>101700910</t>
-        </is>
-      </c>
-      <c r="G93" s="6" t="n">
-        <v>45525</v>
-      </c>
-      <c r="H93" s="6" t="n">
-        <v>45525</v>
+          <t>101700860</t>
+        </is>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>45420</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -12330,10 +12326,55 @@
       <c r="K93" t="n">
         <v>1</v>
       </c>
-      <c r="L93" s="7" t="n">
+      <c r="L93" s="3" t="n">
         <v>500</v>
       </c>
       <c r="M93" t="inlineStr">
+        <is>
+          <t>resale, gl</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>112</v>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2525 79th Ave SE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Andriana and Abraham Jeon</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>101700910</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" s="3" t="n">
+        <v>500</v>
+      </c>
+      <c r="M94" t="inlineStr">
         <is>
           <t>resale, gl</t>
         </is>
